--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC0F739-CBDC-47C3-BAB9-1598B430803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F4778-9EF2-497F-B7C1-989332C2F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Infill</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Ultra Low</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Ultra High</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Normal-Low</t>
   </si>
   <si>
-    <t>Time/Material</t>
-  </si>
-  <si>
     <t>Normal-High</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>DensityCalc</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>before top shell layers</t>
   </si>
   <si>
@@ -206,51 +197,6 @@
     <t>Quarter Cubic</t>
   </si>
   <si>
-    <t>Concentric will fill the area with smaller versions of the outer contour, creating a concentric pattern. Useful in 100% infills and some flexible print cases.</t>
-  </si>
-  <si>
-    <t>Vertical Flexible</t>
-  </si>
-  <si>
-    <t>No vertical contact</t>
-  </si>
-  <si>
-    <t>Vertical Contact + Line overlaping</t>
-  </si>
-  <si>
-    <t>Rectilinear Fast</t>
-  </si>
-  <si>
-    <t>Triangle horizontal, 3d cube</t>
-  </si>
-  <si>
-    <t>Triangle horizontal</t>
-  </si>
-  <si>
-    <t>Triangles + Honeycomb</t>
-  </si>
-  <si>
-    <t>Strong, hollow for resin, isotropic</t>
-  </si>
-  <si>
-    <t>Like gyroid but les wabble</t>
-  </si>
-  <si>
-    <t>Strong but uses a lot of material</t>
-  </si>
-  <si>
-    <t>Cubic adapted to reduce material usage in large prints.</t>
-  </si>
-  <si>
-    <t>Usefull rotating in a specific direction.</t>
-  </si>
-  <si>
-    <t>Aesthetic and squisheable</t>
-  </si>
-  <si>
-    <t>Cubic like but with extra division</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -297,6 +243,77 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.</t>
+  </si>
+  <si>
+    <t>Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.</t>
+  </si>
+  <si>
+    <t>Aesthetic, low-strength pattern with good flexibility.</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.</t>
+  </si>
+  <si>
+    <t>3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.</t>
+  </si>
+  <si>
+    <t>Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.</t>
+  </si>
+  <si>
+    <t>Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.</t>
+  </si>
+  <si>
+    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.</t>
+  </si>
+  <si>
+    <t>Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.</t>
+  </si>
+  <si>
+    <t>[Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
+Recommended with layer anchoring to improve not perpendicular strength.</t>
+  </si>
+  <si>
+    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.</t>
+  </si>
+  <si>
+    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.</t>
+  </si>
+  <si>
+    <t>Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.</t>
+  </si>
+  <si>
+    <t>Aesthetic pattern with low strength and high print time.</t>
+  </si>
+  <si>
+    <t>Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.</t>
+  </si>
+  <si>
+    <t>Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.</t>
+  </si>
+  <si>
+    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.</t>
+  </si>
+  <si>
+    <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Material/Time</t>
   </si>
 </sst>
 </file>
@@ -346,13 +363,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,26 +577,26 @@
     <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="T/tProm" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="T" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje"/>
     <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/T/prom" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Time/Material" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="6" dataCellStyle="Porcentaje"/>
     <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="Text" dataDxfId="4" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
@@ -927,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,89 +974,89 @@
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
         <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5">
         <v>2</v>
@@ -1053,7 +1073,7 @@
         <v>Normal</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -1069,7 +1089,7 @@
         <v>1.0613854767276678</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1080,7 +1100,7 @@
         <v>0.94220968329086285</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1091,7 +1111,7 @@
         <v>1.1954508889716147</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1100,23 +1120,23 @@
       <c r="W2" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Concentric
-Concentric will fill the area with smaller versions of the outer contour, creating a concentric pattern. Useful in 100% infills and some flexible print cases.
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal-High
+Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 ![infill-iso-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-concentric.png?raw=true)
 </v>
@@ -1124,16 +1144,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1150,7 +1170,7 @@
         <v>Low</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1166,7 +1186,7 @@
         <v>0.99339851257625134</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1177,7 +1197,7 @@
         <v>0.93074262832180565</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1188,7 +1208,7 @@
         <v>1.1326612998085344</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1197,23 +1217,23 @@
       <c r="W3" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-No vertical contact
-- Horizontal Strength (X-Y): Normal-Low
-- Vertical Strength (Z): Low
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 ![infill-iso-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-rectilinear.png?raw=true)
 </v>
@@ -1221,7 +1241,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1230,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1247,7 +1267,7 @@
         <v>High</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1263,7 +1283,7 @@
         <v>0.99520347622628891</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1274,7 +1294,7 @@
         <v>0.92883145249362953</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1285,7 +1305,7 @@
         <v>1.1370541115031902</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1294,23 +1314,23 @@
       <c r="W4" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Grid
-Vertical Contact + Line overlaping
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal
+Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 ![infill-iso-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-grid.png?raw=true)
 </v>
@@ -1318,16 +1338,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1344,7 +1364,7 @@
         <v>Low</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1360,7 +1380,7 @@
         <v>0.9929974095429096</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1371,7 +1391,7 @@
         <v>0.92500910083727717</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1382,7 +1402,7 @@
         <v>1.1392217600305825</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1391,23 +1411,23 @@
       <c r="W5" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
-Vertical Flexible
-- Horizontal Strength (X-Y): Normal
-- Vertical Strength (Z): Low
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal
+Aesthetic, low-strength pattern with good flexibility.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 ![infill-iso-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-2d-lattice.png?raw=true)
 </v>
@@ -1415,16 +1435,16 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1441,7 +1461,7 @@
         <v>Low</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1457,7 +1477,7 @@
         <v>1.0340436199548759</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1468,7 +1488,7 @@
         <v>0.89634146341463428</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1479,7 +1499,7 @@
         <v>1.2242540079704112</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1488,23 +1508,23 @@
       <c r="W6" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Line
-Rectilinear Fast
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Low
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal-High
+Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 ![infill-iso-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-line.png?raw=true)
 </v>
@@ -1512,16 +1532,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1538,7 +1558,7 @@
         <v>High</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1554,7 +1574,7 @@
         <v>0.9929974095429096</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1565,7 +1585,7 @@
         <v>0.8982526392428104</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1576,7 +1596,7 @@
         <v>1.1731560252229827</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1585,23 +1605,23 @@
       <c r="W7" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cubic
-Triangle horizontal, 3d cube
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal-High
+3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 ![infill-iso-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-cubic.png?raw=true)
 </v>
@@ -1609,7 +1629,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1618,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1635,7 +1655,7 @@
         <v>Normal</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1651,7 +1671,7 @@
         <v>0.9863792094927718</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1662,7 +1682,7 @@
         <v>0.8982526392428104</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1673,7 +1693,7 @@
         <v>1.1653370911650138</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1682,23 +1702,23 @@
       <c r="W8" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Triangles
-Triangle horizontal
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal-High
+Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 ![infill-iso-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-triangles.png?raw=true)
 </v>
@@ -1706,7 +1726,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1715,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1732,7 +1752,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1748,7 +1768,7 @@
         <v>0.99293055903735272</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1759,7 +1779,7 @@
         <v>0.88487440844557708</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -1770,7 +1790,7 @@
         <v>1.1908125521874937</v>
       </c>
       <c r="U9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -1779,23 +1799,23 @@
       <c r="W9" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Tri-hexagon
-Triangles + Honeycomb
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): Normal-High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal-Low
-- Material/Time (Higher better): Normal-High
+Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal-Low
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 ![infill-iso-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-tri-hexagon.png?raw=true)
 </v>
@@ -1806,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1823,7 +1843,7 @@
         <v>High</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1839,7 +1859,7 @@
         <v>0.94773961728085576</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1870,23 +1890,23 @@
       <c r="W10" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
-Strong, hollow for resin, isotropic
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: High
-- Material/Time (Higher better): Low
+Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** High
+- **Material/Time (Higher better):** Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 ![infill-iso-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-gyroid.png?raw=true)
 </v>
@@ -1897,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1914,7 +1934,7 @@
         <v>High</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1930,7 +1950,7 @@
         <v>1.0095094844154757</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -1961,23 +1981,23 @@
       <c r="W11" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
-Like gyroid but les wabble
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: High
-- Material/Time (Higher better): Low
+Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** High
+- **Material/Time (Higher better):** Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 ![infill-iso-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-tpms-d.png?raw=true)
 </v>
@@ -1988,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2005,7 +2025,7 @@
         <v>High</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K12">
         <v>17</v>
@@ -2032,7 +2052,7 @@
         <v>2.0182016745540592</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -2052,23 +2072,23 @@
       <c r="W12" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Honeycomb
-Strong but uses a lot of material
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: High
-- Time: Ultra High
-- Material/Time (Higher better): Extra Low
+Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** High
+- **Time:** Ultra High
+- **Material/Time (Higher better):** Extra Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 ![infill-iso-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-honeycomb.png?raw=true)
 </v>
@@ -2079,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2096,7 +2116,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2134,7 +2154,7 @@
         <v>1.1008562713363061</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2143,34 +2163,34 @@
       <c r="W13" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Adaptive Cubic
-Cubic adapted to reduce material usage in large prints.
-- Horizontal Strength (X-Y): Normal-High
-- Vertical Strength (Z): Normal-High
-- Density Calculation: Cubic reduced in the center
-- Material Usage: Low
-- Time: Low
-- Material/Time (Higher better): Normal
+[Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:** Cubic reduced in the center
+- **Material Usage:** Low
+- **Time:** Low
+- **Material/Time (Higher better):** Normal
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 ![infill-iso-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-adaptive-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>68</v>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2187,7 +2207,7 @@
         <v>Normal</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2203,7 +2223,7 @@
         <v>0.99339851257625134</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2214,7 +2234,7 @@
         <v>0.93265380414998189</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -2225,7 +2245,7 @@
         <v>1.1303402725548284</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2234,23 +2254,24 @@
       <c r="W14" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Aligned Rectilinear
-Usefull rotating in a specific direction.
-- Horizontal Strength (X-Y): Normal-Low
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal
+Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
+Recommended with layer anchoring to improve not perpendicular strength.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 ![infill-iso-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-aligned-rectilinear.png?raw=true)
 </v>
@@ -2261,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2278,7 +2299,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -2294,7 +2315,7 @@
         <v>0.82841146486170303</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2325,34 +2346,34 @@
       <c r="W15" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
-TBD
-- Horizontal Strength (X-Y): Normal
-- Vertical Strength (Z): Normal-High
-- Density Calculation: Unknown
-- Material Usage: Normal-Low
-- Time: High
-- Material/Time (Higher better): Extra Low
+This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:** Unknown
+- **Material Usage:** Normal-Low
+- **Time:** High
+- **Material/Time (Higher better):** Extra Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 ![infill-iso-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-3d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>69</v>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2369,7 +2390,7 @@
         <v>Normal</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K16">
         <v>13</v>
@@ -2385,7 +2406,7 @@
         <v>0.99359906409292209</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2396,7 +2417,7 @@
         <v>1.5365853658536588</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S16" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -2416,23 +2437,24 @@
       <c r="W16" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Hilbert Curve
-Aesthetic and squisheable
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Extra High
-- Material/Time (Higher better): Extra Low
+Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Extra High
+- **Material/Time (Higher better):** Extra Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 ![infill-iso-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-hilbert-curve.png?raw=true)
 </v>
@@ -2443,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2460,7 +2482,7 @@
         <v>Normal</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2476,7 +2498,7 @@
         <v>0.99079134285953041</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2487,7 +2509,7 @@
         <v>0.89060793593010568</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -2498,7 +2520,7 @@
         <v>1.1805973508992564</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2507,23 +2529,23 @@
       <c r="W17" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Archimedean Chords
-TBD
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal-High
+Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 ![infill-iso-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-archimedean-chords.png?raw=true)
 </v>
@@ -2534,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2551,7 +2573,7 @@
         <v>Normal</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2567,7 +2589,7 @@
         <v>0.99420071864293469</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2589,7 +2611,7 @@
         <v>0.96851139528186803</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2598,23 +2620,23 @@
       <c r="W18" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Octagram Spiral
-TBD
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Normal
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: High
-- Material/Time (Higher better): Normal
+Aesthetic pattern with low strength and high print time.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** High
+- **Material/Time (Higher better):** Normal
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 ![infill-iso-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-octagram-spiral.png?raw=true)
 </v>
@@ -2625,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2642,7 +2664,7 @@
         <v>Low</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2680,7 +2702,7 @@
         <v>1.0784507544138899</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2689,23 +2711,23 @@
       <c r="W19" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Support Cubic
-TBD
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Low
-- Density Calculation: before top shell layers
-- Material Usage: Extra Low
-- Time: Extra Low
-- Material/Time (Higher better): Normal
+Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** before top shell layers
+- **Material Usage:** Extra Low
+- **Time:** Extra Low
+- **Material/Time (Higher better):** Normal
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 ![infill-iso-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-support-cubic.png?raw=true)
 </v>
@@ -2716,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2733,7 +2755,7 @@
         <v>Low</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2780,23 +2802,23 @@
       <c r="W20" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Lightning
-TBD
-- Horizontal Strength (X-Y): Low
-- Vertical Strength (Z): Low
-- Density Calculation: before top shell layers
-- Material Usage: Ultra Low
-- Time: Ultra Low
-- Material/Time (Higher better): Extra Low
+Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** before top shell layers
+- **Material Usage:** Ultra Low
+- **Time:** Ultra Low
+- **Material/Time (Higher better):** Extra Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 ![infill-iso-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-lightning.png?raw=true)
 </v>
@@ -2807,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2824,7 +2846,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2840,7 +2862,7 @@
         <v>0.96732681540904142</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2871,23 +2893,23 @@
       <c r="W21" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cross Hatch
-TBD
-- Horizontal Strength (X-Y): Normal-High
-- Vertical Strength (Z): Normal-High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: High
-- Material/Time (Higher better): Low
+Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** High
+- **Material/Time (Higher better):** Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 ![infill-iso-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-cross-hatch.png?raw=true)
 </v>
@@ -2895,10 +2917,10 @@
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2915,7 +2937,7 @@
         <v>High</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2931,7 +2953,7 @@
         <v>0.99306426004846671</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22">
         <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
@@ -2942,7 +2964,7 @@
         <v>0.91927557335274857</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="3">
         <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
@@ -2953,7 +2975,7 @@
         <v>1.1464042662095517</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
@@ -2962,23 +2984,23 @@
       <c r="W22" s="2" t="str">
         <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
 "&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- Horizontal Strength (X-Y): "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- Vertical Strength (Z): "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- Density Calculation: "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- Material Usage: "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- Time: "&amp;Tabla1[[#This Row],[T]]&amp;"
-- Material/Time (Higher better): "&amp;Tabla1[[#This Row],[Time/Material]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 ![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Quarter Cubic
-Cubic like but with extra division
-- Horizontal Strength (X-Y): High
-- Vertical Strength (Z): High
-- Density Calculation: Total infill material usage
-- Material Usage: Normal
-- Time: Normal
-- Material/Time (Higher better): Normal
+[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 ![infill-iso-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-quarter-cubic.png?raw=true)
 </v>
@@ -3007,10 +3029,10 @@
     </row>
     <row r="31" spans="4:23" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.25">
@@ -3042,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
@@ -3050,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
@@ -3058,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
@@ -3074,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.25">
@@ -3082,11 +3104,23 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N22">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -3123,18 +3157,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N22">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F4778-9EF2-497F-B7C1-989332C2F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C955E-C8D0-4E40-88C0-8DB907822660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -550,55 +550,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Tabla1" displayName="Tabla1" ref="D1:W23" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="D1:W23" totalsRowCount="1">
   <autoFilter ref="D1:W22" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
     <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="16" dataCellStyle="Porcentaje"/>
     <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="14"/>
     <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="13" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
     <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="3"/>
     <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="Material Usage" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Tabla1[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage2" dataDxfId="11" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="1">
-      <calculatedColumnFormula>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="T/tProm" dataDxfId="9" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje"/>
     <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/T/prom" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="6" dataCellStyle="Porcentaje"/>
     <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="Text" dataDxfId="4" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+      <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -607,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Tabla2" displayName="Tabla2" ref="A1:B9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D6607BDC-D4C6-47C9-9EE3-9567C17CAC8B}" name="Param"/>
@@ -618,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Tabla3" displayName="Tabla3" ref="H31:I40" totalsRowShown="0">
-  <autoFilter ref="H31:I40" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:B20" totalsRowShown="0">
+  <autoFilter ref="A11:B20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
     <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Name"/>
@@ -945,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,14 +1062,14 @@
         <v>2</v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1085,49 +1085,49 @@
         <v>158.77000000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P2">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
       <c r="Q2" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.94220968329086285</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
       <c r="T2" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1954508889716147</v>
       </c>
       <c r="U2" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
       <c r="W2" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
@@ -1159,14 +1159,14 @@
         <v>3</v>
       </c>
       <c r="G3" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1182,49 +1182,49 @@
         <v>148.6</v>
       </c>
       <c r="N3" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
       <c r="Q3" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.93074262832180565</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
       <c r="T3" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1326612998085344</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
       </c>
       <c r="V3" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
       <c r="W3" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
@@ -1256,14 +1256,14 @@
         <v>6</v>
       </c>
       <c r="G4" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1279,49 +1279,49 @@
         <v>148.87</v>
       </c>
       <c r="N4" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P4">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
       <c r="Q4" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.92883145249362953</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
       <c r="T4" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1370541115031902</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
       </c>
       <c r="V4" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
       <c r="W4" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
@@ -1353,14 +1353,14 @@
         <v>4</v>
       </c>
       <c r="G5" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1376,49 +1376,49 @@
         <v>148.54</v>
       </c>
       <c r="N5" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P5">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
       <c r="Q5" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.92500910083727717</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S5" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
       <c r="T5" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1392217600305825</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
       </c>
       <c r="V5" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
       <c r="W5" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
 Aesthetic, low-strength pattern with good flexibility.
@@ -1450,14 +1450,14 @@
         <v>2</v>
       </c>
       <c r="G6" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1473,49 +1473,49 @@
         <v>154.68</v>
       </c>
       <c r="N6" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P6">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
       <c r="Q6" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.89634146341463428</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
       <c r="T6" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.2242540079704112</v>
       </c>
       <c r="U6" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
       <c r="W6" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
@@ -1547,14 +1547,14 @@
         <v>6</v>
       </c>
       <c r="G7" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1570,49 +1570,49 @@
         <v>148.54</v>
       </c>
       <c r="N7" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P7">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
       <c r="Q7" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.8982526392428104</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
       <c r="T7" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1731560252229827</v>
       </c>
       <c r="U7" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
       <c r="W7" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
@@ -1644,14 +1644,14 @@
         <v>6</v>
       </c>
       <c r="G8" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1667,49 +1667,49 @@
         <v>147.55000000000001</v>
       </c>
       <c r="N8" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P8">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
       <c r="Q8" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.8982526392428104</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
       <c r="T8" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1653370911650138</v>
       </c>
       <c r="U8" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
       <c r="W8" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
@@ -1741,14 +1741,14 @@
         <v>6</v>
       </c>
       <c r="G9" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1764,49 +1764,49 @@
         <v>148.53</v>
       </c>
       <c r="N9" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P9">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
       <c r="Q9" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.88487440844557708</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
       <c r="T9" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1908125521874937</v>
       </c>
       <c r="U9" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
       <c r="W9" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
@@ -1832,14 +1832,14 @@
         <v>6</v>
       </c>
       <c r="G10" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1855,49 +1855,49 @@
         <v>141.77000000000001</v>
       </c>
       <c r="N10" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P10">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
       <c r="Q10" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.2403531124863489</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S10" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
       <c r="T10" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.81086742970101888</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
       </c>
       <c r="V10" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
       <c r="W10" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
@@ -1913,6 +1913,12 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -1923,14 +1929,14 @@
         <v>6</v>
       </c>
       <c r="G11" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1946,49 +1952,49 @@
         <v>151.01</v>
       </c>
       <c r="N11" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P11">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
       <c r="Q11" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.3168001456133966</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S11" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
       <c r="T11" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.81357332260801107</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
       </c>
       <c r="V11" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
       <c r="W11" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
 Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
@@ -2004,6 +2010,12 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -2014,14 +2026,14 @@
         <v>6</v>
       </c>
       <c r="G12" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2037,49 +2049,49 @@
         <v>190.54</v>
       </c>
       <c r="N12" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P12">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
       <c r="Q12" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>2.0182016745540592</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
       <c r="T12" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.66978043392310127</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
       <c r="W12" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
@@ -2095,6 +2107,12 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -2105,14 +2123,14 @@
         <v>5</v>
       </c>
       <c r="G13" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2128,49 +2146,49 @@
         <v>97.57</v>
       </c>
       <c r="N13" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P13">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
       <c r="Q13" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.62877684746996731</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S13" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
       <c r="T13" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1008562713363061</v>
       </c>
       <c r="U13" t="s">
         <v>31</v>
       </c>
       <c r="V13" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
       <c r="W13" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
@@ -2186,6 +2204,12 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -2196,14 +2220,14 @@
         <v>3</v>
       </c>
       <c r="G14" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2219,49 +2243,49 @@
         <v>148.6</v>
       </c>
       <c r="N14" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P14">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
       <c r="Q14" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.93265380414998189</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
       <c r="T14" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1303402725548284</v>
       </c>
       <c r="U14" t="s">
         <v>31</v>
       </c>
       <c r="V14" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
       <c r="W14" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
@@ -2278,6 +2302,12 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -2288,14 +2318,14 @@
         <v>4</v>
       </c>
       <c r="G15" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2311,49 +2341,49 @@
         <v>123.92</v>
       </c>
       <c r="N15" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P15">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
       <c r="Q15" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.429559519475792</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S15" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
       <c r="T15" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.61496446413043337</v>
       </c>
       <c r="U15" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
       <c r="W15" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
@@ -2369,6 +2399,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -2379,14 +2415,14 @@
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -2402,49 +2438,49 @@
         <v>148.63</v>
       </c>
       <c r="N16" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P16">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
       <c r="Q16" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.5365853658536588</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S16" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
       <c r="T16" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.686215688535738</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
       <c r="W16" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
@@ -2460,7 +2496,13 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -2471,14 +2513,14 @@
         <v>2</v>
       </c>
       <c r="G17" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2494,49 +2536,49 @@
         <v>148.21</v>
       </c>
       <c r="N17" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P17">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
       <c r="Q17" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.89060793593010568</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S17" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
       <c r="T17" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1805973508992564</v>
       </c>
       <c r="U17" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
       <c r="W17" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
@@ -2551,7 +2593,13 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -2562,14 +2610,14 @@
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -2585,49 +2633,49 @@
         <v>148.72</v>
       </c>
       <c r="N18" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P18">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
       <c r="Q18" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.0893702220604298</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S18" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
       <c r="T18" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.96851139528186803</v>
       </c>
       <c r="U18" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
       <c r="W18" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Octagram Spiral
 Aesthetic pattern with low strength and high print time.
@@ -2642,7 +2690,13 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -2653,14 +2707,14 @@
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2676,49 +2730,49 @@
         <v>49.39</v>
       </c>
       <c r="N19" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P19">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
       <c r="Q19" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.32489989078995268</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S19" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
       <c r="T19" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.0784507544138899</v>
       </c>
       <c r="U19" t="s">
         <v>31</v>
       </c>
       <c r="V19" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
       <c r="W19" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
@@ -2733,7 +2787,13 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -2744,14 +2804,14 @@
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2767,49 +2827,49 @@
         <v>12.33</v>
       </c>
       <c r="N20" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P20">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
       <c r="Q20" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.14524936294139063</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="S20" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
       <c r="T20" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.60222627271846929</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
       </c>
       <c r="V20" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
       <c r="W20" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
@@ -2824,7 +2884,7 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -2835,14 +2895,14 @@
         <v>5</v>
       </c>
       <c r="G21" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -2858,49 +2918,49 @@
         <v>144.69999999999999</v>
       </c>
       <c r="N21" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P21">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
       <c r="Q21" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>1.223152530032763</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S21" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
       <c r="T21" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>0.83926434082770041</v>
       </c>
       <c r="U21" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
       <c r="W21" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
@@ -2915,7 +2975,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>52</v>
       </c>
@@ -2926,14 +2986,14 @@
         <v>6</v>
       </c>
       <c r="G22" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[XY-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22" t="str">
-        <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Z-N]],Tabla3[N],Tabla3[Name])</f>
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -2949,49 +3009,49 @@
         <v>148.55000000000001</v>
       </c>
       <c r="N22" s="2">
-        <f>Tabla1[[#This Row],[g]]/(997.25*0.15)</f>
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P22">
-        <f>Tabla1[[#This Row],[hs]]*60+Tabla1[[#This Row],[min]]</f>
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
       <c r="Q22" s="2">
-        <f>Tabla1[[#This Row],[Total Time]]/Tabla1[[#Totals],[Total Time]]</f>
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
         <v>0.91927557335274857</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="3">
-        <f>Tabla1[[#This Row],[g]]/Tabla1[[#This Row],[Total Time]]</f>
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
       <c r="T22" s="2">
-        <f>Tabla1[[#This Row],[g/t]]/Tabla1[[#Totals],[g/t]]</f>
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
         <v>1.1464042662095517</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V22" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla1[[#This Row],[Infill]])," ","-")</f>
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
       <c r="W22" s="2" t="str">
-        <f>"### "&amp;Tabla1[[#This Row],[Infill]]&amp;"
-"&amp;Tabla1[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Tabla1[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Tabla1[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Tabla1[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Tabla1[[#This Row],[Material Usage2]]&amp;"
-- **Time:** "&amp;Tabla1[[#This Row],[Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Tabla1[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Tabla1[[#This Row],[image]]&amp;".png?raw=true)
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
@@ -3006,105 +3066,25 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="4">
-        <f>SUBTOTAL(101,Tabla1[g])</f>
+        <f>SUBTOTAL(101,Infill[g])</f>
         <v>136.09619047619046</v>
       </c>
       <c r="N23" s="1">
-        <f>SUBTOTAL(101,Tabla1[Material Usage])</f>
+        <f>SUBTOTAL(101,Infill[Material Usage])</f>
         <v>0.90980991377080622</v>
       </c>
       <c r="P23" s="4">
-        <f>SUBTOTAL(101,Tabla1[Total Time])</f>
+        <f>SUBTOTAL(101,Infill[Total Time])</f>
         <v>523.23809523809518</v>
       </c>
       <c r="S23" s="4">
-        <f>SUBTOTAL(101,Tabla1[g/t])</f>
+        <f>SUBTOTAL(101,Infill[g/t])</f>
         <v>0.26939515835621169</v>
-      </c>
-    </row>
-    <row r="31" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C955E-C8D0-4E40-88C0-8DB907822660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0A802-1F29-4746-9D52-38E3CAC7755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>Z-N</t>
   </si>
   <si>
-    <t>Material Usage2</t>
-  </si>
-  <si>
     <t>Total Time</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Material/Time</t>
+  </si>
+  <si>
+    <t>% Deviation</t>
   </si>
 </sst>
 </file>
@@ -567,10 +567,10 @@
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
     <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="Material Usage" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Deviation" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage2" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="11" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="1">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
@@ -594,7 +594,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -948,7 +948,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,28 +1015,28 @@
         <v>40</v>
       </c>
       <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
       </c>
       <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
         <v>90</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>91</v>
       </c>
       <c r="V1" t="s">
         <v>51</v>
@@ -1050,13 +1050,13 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>Normal</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -1123,7 +1123,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1170,7 +1170,7 @@
         <v>Low</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1220,7 +1220,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>High</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1317,7 +1317,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1338,16 +1338,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1364,7 +1364,7 @@
         <v>Low</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1414,7 +1414,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1444,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1461,7 +1461,7 @@
         <v>Low</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1511,7 +1511,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1532,7 +1532,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1558,7 +1558,7 @@
         <v>High</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1608,7 +1608,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>Normal</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1705,7 +1705,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1726,7 +1726,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1752,7 +1752,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1802,7 +1802,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1826,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1843,7 +1843,7 @@
         <v>High</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1893,7 +1893,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -1923,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1940,7 +1940,7 @@
         <v>High</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1990,7 +1990,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2020,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2037,7 +2037,7 @@
         <v>High</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12">
         <v>17</v>
@@ -2087,7 +2087,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2117,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2134,7 +2134,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2184,7 +2184,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2231,7 +2231,7 @@
         <v>Normal</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2281,7 +2281,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2312,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2329,7 +2329,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -2379,7 +2379,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2409,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>Normal</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16">
         <v>13</v>
@@ -2476,7 +2476,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2507,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2524,7 +2524,7 @@
         <v>Normal</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2574,7 +2574,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2604,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2621,7 +2621,7 @@
         <v>Normal</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2671,7 +2671,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2701,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2768,7 +2768,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2798,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2865,7 +2865,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2889,7 +2889,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>Normal-High</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2956,7 +2956,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -2980,7 +2980,7 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2997,7 +2997,7 @@
         <v>High</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -3047,7 +3047,7 @@
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage2]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
@@ -3075,7 +3075,7 @@
         <v>136.09619047619046</v>
       </c>
       <c r="N23" s="1">
-        <f>SUBTOTAL(101,Infill[Material Usage])</f>
+        <f>SUBTOTAL(101,Infill[% Deviation])</f>
         <v>0.90980991377080622</v>
       </c>
       <c r="P23" s="4">

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0A802-1F29-4746-9D52-38E3CAC7755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE418122-33C2-4FFD-8794-9BE8F3BAC407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
   <si>
     <t>Infill</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.</t>
-  </si>
-  <si>
-    <t>Aesthetic, low-strength pattern with good flexibility.</t>
   </si>
   <si>
     <t>Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.</t>
@@ -285,16 +282,9 @@
     <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.</t>
   </si>
   <si>
-    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
-Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.</t>
-  </si>
-  <si>
     <t>Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.</t>
   </si>
   <si>
-    <t>Aesthetic pattern with low strength and high print time.</t>
-  </si>
-  <si>
     <t>Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.</t>
   </si>
   <si>
@@ -314,6 +304,46 @@
   </si>
   <si>
     <t>% Deviation</t>
+  </si>
+  <si>
+    <t>2D Honeycomb</t>
+  </si>
+  <si>
+    <t>Ultra-Low</t>
+  </si>
+  <si>
+    <t>Extra-Low</t>
+  </si>
+  <si>
+    <t>Extra-High</t>
+  </si>
+  <si>
+    <t>Ultra-High</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Adaptative</t>
+  </si>
+  <si>
+    <t>Esthetic</t>
+  </si>
+  <si>
+    <t>Esthetic pattern with low strength and high print time.</t>
+  </si>
+  <si>
+    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -373,6 +403,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,11 +582,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="D1:W23" totalsRowCount="1">
-  <autoFilter ref="D1:W22" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="D1:X24" totalsRowCount="1">
+  <autoFilter ref="D1:X23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
     <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="16" dataCellStyle="Porcentaje"/>
+    <tableColumn id="21" xr3:uid="{85FC4B7C-12B9-4B99-B32D-798AC5127191}" name="Type"/>
     <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
@@ -945,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,28 +989,28 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.85546875" customWidth="1"/>
+    <col min="5" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -991,61 +1024,64 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
-        <v>89</v>
-      </c>
       <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
-        <v>90</v>
-      </c>
       <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1058,66 +1094,69 @@
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>158.77000000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2">
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.94220968329086285</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="3">
+        <v>0.94559721011333908</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1954508889716147</v>
-      </c>
-      <c r="U2" t="s">
+        <v>1.1881012132687909</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="str">
+      <c r="W2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="W2" s="2" t="str">
+      <c r="X2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1142,7 +1181,7 @@
 </v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1155,66 +1194,69 @@
       <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>148.6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3">
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.93074262832180565</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="3">
+        <v>0.93408892763731477</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1326612998085344</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="str">
+        <v>1.1256976567918875</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="W3" s="2" t="str">
+      <c r="X3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1239,7 +1281,7 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1252,66 +1294,69 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>148.87</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4">
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.92883145249362953</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="3">
+        <v>0.93217088055797737</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1370541115031902</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="2" t="str">
+        <v>1.1300634613198943</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="W4" s="2" t="str">
+      <c r="X4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1336,7 +1381,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1347,68 +1392,71 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="str">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="H5">
+        <v>Normal-Low</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>148.54</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.92500910083727717</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="3">
+        <v>0.92833478639930256</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1392217600305825</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="str">
+        <v>1.1322177830650146</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="W5" s="2" t="str">
+      <c r="X5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1421,8 +1469,8 @@
 ![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
-Aesthetic, low-strength pattern with good flexibility.
-- **Horizontal Strength (X-Y):** Normal
+Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
+- **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
@@ -1433,7 +1481,7 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1444,68 +1492,71 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>49</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>154.68</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6">
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.89634146341463428</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="3">
+        <v>0.8995640802092415</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.2242540079704112</v>
-      </c>
-      <c r="U6" t="s">
+        <v>1.2167272496405854</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="W6" s="2" t="str">
+      <c r="X6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1530,7 +1581,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1541,68 +1592,71 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>50</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>148.54</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7">
+      <c r="P7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.8982526392428104</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="3">
+        <v>0.9014821272885789</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1731560252229827</v>
-      </c>
-      <c r="U7" t="s">
+        <v>1.1659434191563129</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="X7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1627,7 +1681,7 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1638,68 +1692,71 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>50</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>147.55000000000001</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8">
+      <c r="P8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.8982526392428104</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="3">
+        <v>0.9014821272885789</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1653370911650138</v>
-      </c>
-      <c r="U8" t="s">
+        <v>1.158172556190346</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="W8" s="2" t="str">
+      <c r="X8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1724,7 +1781,7 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1735,68 +1792,71 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>43</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>148.53</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9">
+      <c r="P9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.88487440844557708</v>
-      </c>
-      <c r="R9" s="2" t="s">
+        <v>0.88805579773321708</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1908125521874937</v>
-      </c>
-      <c r="U9" t="s">
+        <v>1.1834913931485316</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="W9" s="2" t="str">
+      <c r="X9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1821,73 +1881,76 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>49</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>141.77000000000001</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10">
+      <c r="P10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.2403531124863489</v>
-      </c>
-      <c r="R10" s="2" t="s">
+        <v>1.2448125544899737</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.81086742970101888</v>
-      </c>
-      <c r="U10" t="s">
+        <v>0.8058821871442029</v>
+      </c>
+      <c r="V10" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="W10" s="2" t="str">
+      <c r="X10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1912,7 +1975,7 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1923,68 +1986,71 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>29</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>151.01</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11">
+      <c r="P11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.3168001456133966</v>
-      </c>
-      <c r="R11" s="2" t="s">
+        <v>1.3215344376634699</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.81357332260801107</v>
-      </c>
-      <c r="U11" t="s">
+        <v>0.80857144412283</v>
+      </c>
+      <c r="V11" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="W11" s="2" t="str">
+      <c r="X11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2009,79 +2075,82 @@
 </v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>36</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>190.54</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>2.0182016745540592</v>
-      </c>
-      <c r="R12" s="2" t="s">
+        <v>2.0254577157802962</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.66978043392310127</v>
-      </c>
-      <c r="U12" t="s">
+        <v>0.6656625993664127</v>
+      </c>
+      <c r="V12" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="W12" s="2" t="str">
+      <c r="X12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2106,79 +2175,82 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>29</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>97.57</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.62877684746996731</v>
-      </c>
-      <c r="R13" s="2" t="s">
+        <v>0.63103748910200519</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1008562713363061</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="2" t="str">
+        <v>1.0940881667956823</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="W13" s="2" t="str">
+      <c r="X13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2203,7 +2275,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2214,68 +2286,71 @@
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
         <v>148.6</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14">
+      <c r="P14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.93265380414998189</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="3">
+        <v>0.93600697471665206</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1303402725548284</v>
-      </c>
-      <c r="U14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="2" t="str">
+        <v>1.1233908992984614</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="W14" s="2" t="str">
+      <c r="X14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2301,7 +2376,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2309,71 +2384,174 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>147.52000000000001</v>
+      </c>
+      <c r="O15" s="8">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0.98617865797610094</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>482</v>
+      </c>
+      <c r="R15" s="2">
+        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+        <v>0.92449869224062775</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.30605809128630707</v>
+      </c>
+      <c r="U15" s="2">
+        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+        <v>1.1291087665609367</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="8" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>2d-honeycomb</v>
+      </c>
+      <c r="X15" s="8" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### 2D Honeycomb
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal-Low
+- **Density Calculation:** Total infill material usage
+- **Material Usage:** Normal
+- **Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
+![infill-iso-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-2d-honeycomb.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15">
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>28</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>123.92</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P15">
+      <c r="Q16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R16" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.429559519475792</v>
-      </c>
-      <c r="R15" s="2" t="s">
+        <v>1.4346992153443765</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U16" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.61496446413043337</v>
-      </c>
-      <c r="U15" t="s">
+        <v>0.61118364015697213</v>
+      </c>
+      <c r="V16" t="s">
         <v>27</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="W15" s="2" t="str">
+      <c r="X16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2398,79 +2576,82 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16">
+      <c r="E17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K16">
+      <c r="L17">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="M17">
         <v>24</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>148.63</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16">
+      <c r="P17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R17" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.5365853658536588</v>
-      </c>
-      <c r="R16" s="2" t="s">
+        <v>1.5421098517872711</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U17" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.686215688535738</v>
-      </c>
-      <c r="U16" t="s">
+        <v>0.68199680943375651</v>
+      </c>
+      <c r="V17" t="s">
         <v>27</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="W16" s="2" t="str">
+      <c r="X17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2483,8 +2664,8 @@
 ![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Hilbert Curve
-Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
-Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.
+Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:** Total infill material usage
@@ -2496,79 +2677,82 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>46</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>148.21</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17">
+      <c r="P18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R18" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.89060793593010568</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="3">
+        <v>0.89380993897122929</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U18" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1805973508992564</v>
-      </c>
-      <c r="U17" t="s">
+        <v>1.1733389952906987</v>
+      </c>
+      <c r="V18" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="W17" s="2" t="str">
+      <c r="X18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2593,79 +2777,82 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K18">
+      <c r="L19">
         <v>9</v>
       </c>
-      <c r="L18">
+      <c r="M19">
         <v>30</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>148.72</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18">
+      <c r="P19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R19" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.0893702220604298</v>
-      </c>
-      <c r="R18" s="2" t="s">
+        <v>1.0932868352223191</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U19" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.96851139528186803</v>
-      </c>
-      <c r="U18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="2" t="str">
+        <v>0.96255695187019885</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="W18" s="2" t="str">
+      <c r="X19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2678,7 +2865,7 @@
 ![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Octagram Spiral
-Aesthetic pattern with low strength and high print time.
+Esthetic pattern with low strength and high print time.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:** Total infill material usage
@@ -2690,79 +2877,82 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19">
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K19">
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="M20">
         <v>50</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>49.39</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P19">
+      <c r="Q20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R20" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.32489989078995268</v>
-      </c>
-      <c r="R19" s="2" t="s">
+        <v>0.32606800348735832</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U20" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.0784507544138899</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="2" t="str">
+        <v>1.0718203998091715</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="W19" s="2" t="str">
+      <c r="X20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2787,79 +2977,76 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20">
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K20">
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="M21">
         <v>16</v>
       </c>
-      <c r="M20">
+      <c r="N21">
         <v>12.33</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P20">
+      <c r="Q21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R21" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.14524936294139063</v>
-      </c>
-      <c r="R20" s="2" t="s">
+        <v>0.14577157802964255</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U21" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.60222627271846929</v>
-      </c>
-      <c r="U20" t="s">
+        <v>0.59852376361078963</v>
+      </c>
+      <c r="V21" t="s">
         <v>27</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="W20" s="2" t="str">
+      <c r="X21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2884,73 +3071,76 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K21">
+      <c r="L22">
         <v>10</v>
       </c>
-      <c r="L21">
+      <c r="M22">
         <v>40</v>
       </c>
-      <c r="M21">
+      <c r="N22">
         <v>144.69999999999999</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21">
+      <c r="P22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R22" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>1.223152530032763</v>
-      </c>
-      <c r="R21" s="2" t="s">
+        <v>1.2275501307759371</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U22" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>0.83926434082770041</v>
-      </c>
-      <c r="U21" t="s">
+        <v>0.83410451302470801</v>
+      </c>
+      <c r="V22" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="W21" s="2" t="str">
+      <c r="X22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2975,73 +3165,76 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22">
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="N23">
         <v>148.55000000000001</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22">
+      <c r="P23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R23" s="2">
         <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
-        <v>0.91927557335274857</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="3">
+        <v>0.92258064516129035</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U23" s="2">
         <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
-        <v>1.1464042662095517</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="2" t="str">
+        <v>1.1393561309338132</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="W22" s="2" t="str">
+      <c r="X23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3066,31 +3259,31 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N24" s="4">
         <f>SUBTOTAL(101,Infill[g])</f>
-        <v>136.09619047619046</v>
-      </c>
-      <c r="N23" s="1">
+        <v>136.61545454545453</v>
+      </c>
+      <c r="O24" s="1">
         <f>SUBTOTAL(101,Infill[% Deviation])</f>
-        <v>0.90980991377080622</v>
-      </c>
-      <c r="P23" s="4">
+        <v>0.91328122032559211</v>
+      </c>
+      <c r="Q24" s="4">
         <f>SUBTOTAL(101,Infill[Total Time])</f>
-        <v>523.23809523809518</v>
-      </c>
-      <c r="S23" s="4">
+        <v>521.36363636363637</v>
+      </c>
+      <c r="T24" s="4">
         <f>SUBTOTAL(101,Infill[g/t])</f>
-        <v>0.26939515835621169</v>
+        <v>0.27106165530757964</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N22">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="O2:O23">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3101,8 +3294,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q22">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="R2:R23">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3113,8 +3306,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S22">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="T2:T23">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3125,8 +3318,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T22">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="U2:U23">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE418122-33C2-4FFD-8794-9BE8F3BAC407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2002E5-7EEA-49F9-975D-35691E8EED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>Infill</t>
   </si>
@@ -104,12 +104,6 @@
     <t>min</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>T/tProm</t>
-  </si>
-  <si>
     <t>Material Usage</t>
   </si>
   <si>
@@ -122,15 +116,6 @@
     <t>Extra Low</t>
   </si>
   <si>
-    <t>Ultra Low</t>
-  </si>
-  <si>
-    <t>Ultra High</t>
-  </si>
-  <si>
-    <t>Extra High</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
   </si>
   <si>
     <t>g/t</t>
-  </si>
-  <si>
-    <t>g/T/prom</t>
   </si>
   <si>
     <t>100mm x 100mm x 100mm</t>
@@ -303,9 +285,6 @@
     <t>Material/Time</t>
   </si>
   <si>
-    <t>% Deviation</t>
-  </si>
-  <si>
     <t>2D Honeycomb</t>
   </si>
   <si>
@@ -344,12 +323,27 @@
   <si>
     <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.</t>
+  </si>
+  <si>
+    <t>Max %</t>
+  </si>
+  <si>
+    <t>% Effective</t>
+  </si>
+  <si>
+    <t>g/t prom</t>
+  </si>
+  <si>
+    <t>t prom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -403,28 +397,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -464,6 +448,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -501,6 +491,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -525,6 +519,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -582,46 +582,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="D1:X24" totalsRowCount="1">
-  <autoFilter ref="D1:X23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:Y23">
+  <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="16" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="18" dataCellStyle="Porcentaje"/>
     <tableColumn id="21" xr3:uid="{85FC4B7C-12B9-4B99-B32D-798AC5127191}" name="Type"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="17"/>
     <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="16"/>
     <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="13" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="15" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Deviation" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="T/tProm" dataDxfId="9" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="8" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="7" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/T/prom" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="4" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="5" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="Text" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="Text" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -631,7 +633,6 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -651,11 +652,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:B20" totalsRowShown="0">
-  <autoFilter ref="A11:B20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:C20" totalsRowShown="0">
+  <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,185 +980,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="T1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>158.77000000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2">
+      <c r="Q2" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="R2" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S2" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.94559721011333908</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="U2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="U2" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V2" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1881012132687909</v>
       </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="2" t="str">
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="X2" s="2" t="str">
+      <c r="Y2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1166,97 +1171,97 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
-![infill-iso-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-concentric.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
       <c r="I3">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>148.6</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="R3" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S3" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93408892763731477</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="U3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="U3" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V3" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1256976567918875</v>
       </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="2" t="str">
+      <c r="W3" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="X3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="Y3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1266,97 +1271,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
-- **Horizontal Strength (X-Y):** Normal-Low
-- **Vertical Strength (Z):** Low
+- **Horizontal Strength (X-Y):** 0,925
+- **Vertical Strength (Z):** 0,75
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
-![infill-iso-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H4" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I4">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>148.87</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="R4" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S4" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93217088055797737</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="U4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="U4" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V4" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1300634613198943</v>
       </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="2" t="str">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="Y4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1366,97 +1370,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
-![infill-iso-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-grid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
       <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
       <c r="I5">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>148.54</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="R5" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S5" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92833478639930256</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="U5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="U5" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V5" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1322177830650146</v>
       </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="2" t="str">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="Y5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1466,97 +1469,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
 Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
-- **Horizontal Strength (X-Y):** Normal-Low
-- **Vertical Strength (Z):** Low
+- **Horizontal Strength (X-Y):** 0,925
+- **Vertical Strength (Z):** 0,75
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
-![infill-iso-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-2d-lattice.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I6">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>49</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>154.68</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="R6" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S6" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.8995640802092415</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="U6" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V6" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.2167272496405854</v>
       </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="2" t="str">
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="Y6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1566,97 +1568,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Low
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 0,75
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
-![infill-iso-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-line.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I7">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7">
+      <c r="K7">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>148.54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7">
+      <c r="Q7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R7" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S7" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="U7" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V7" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1659434191563129</v>
       </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="Y7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1666,97 +1667,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
-![infill-iso-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I8">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="J8" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8">
+      <c r="K8">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>50</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>147.55000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8">
+      <c r="Q8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R8" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S8" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="U8" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V8" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.158172556190346</v>
       </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="2" t="str">
+      <c r="W8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="Y8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1766,97 +1766,96 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
-![infill-iso-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-triangles.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I9">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="J9" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9">
+      <c r="K9">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>148.53</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9">
+      <c r="Q9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="R9" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S9" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.88805579773321708</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="U9" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V9" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1834913931485316</v>
       </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="2" t="str">
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="Y9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1866,91 +1865,90 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** Normal-High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,25
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
-![infill-iso-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-tri-hexagon.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I10">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="J10" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10">
+      <c r="K10">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>49</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>141.77000000000001</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10">
+      <c r="Q10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="R10" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S10" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2448125544899737</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="U10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="U10" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V10" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.8058821871442029</v>
       </c>
-      <c r="V10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" s="2" t="str">
+      <c r="W10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="Y10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1960,97 +1958,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** High
+- **Time:** Normal-High
 - **Material/Time (Higher better):** Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
-![infill-iso-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-gyroid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I11">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="J11" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11">
+      <c r="K11">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>29</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>151.01</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11">
+      <c r="Q11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="R11" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S11" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.3215344376634699</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
+      </c>
+      <c r="U11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="U11" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V11" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.80857144412283</v>
       </c>
-      <c r="V11" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" s="2" t="str">
+      <c r="W11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="Y11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2060,97 +2060,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
 Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** High
 - **Material/Time (Higher better):** Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
-![infill-iso-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-tpms-d.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I12">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="J12" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12">
+      <c r="K12">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12">
         <v>17</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>36</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>190.54</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12">
+      <c r="Q12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="R12" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S12" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>2.0254577157802962</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-High</v>
+      </c>
+      <c r="U12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="U12" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V12" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.6656625993664127</v>
       </c>
-      <c r="V12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="2" t="str">
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="Y12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2160,97 +2162,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** High
-- **Time:** Ultra High
+- **Time:** Ultra-High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
-![infill-iso-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
       <c r="I13">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13">
+      <c r="K13">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>29</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>97.57</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="R13" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S13" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.63103748910200519</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="U13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="U13" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V13" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0940881667956823</v>
       </c>
-      <c r="V13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W13" s="2" t="str">
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="Y13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2260,97 +2264,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
-- **Horizontal Strength (X-Y):** Normal-High
-- **Vertical Strength (Z):** Normal-High
+- **Horizontal Strength (X-Y):** 1,25
+- **Vertical Strength (Z):** 1,25
 - **Density Calculation:** Cubic reduced in the center
 - **Material Usage:** Low
 - **Time:** Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
-![infill-iso-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-adaptive-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="135" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
       <c r="I14">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
+      <c r="K14">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="M14">
         <v>8</v>
       </c>
       <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
         <v>148.6</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14">
+      <c r="Q14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="R14" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S14" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93600697471665206</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="U14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="U14" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V14" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1233908992984614</v>
       </c>
-      <c r="V14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" s="2" t="str">
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="Y14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2360,98 +2366,100 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
 Recommended with layer anchoring to improve not perpendicular strength.
-- **Horizontal Strength (X-Y):** Normal-Low
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 0,925
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
 - **Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
-![infill-iso-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-aligned-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>94</v>
+      <c r="B15" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="7">
+        <v>87</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="I15">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="J15" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15">
+      <c r="K15">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15">
         <v>8</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>147.52000000000001</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="R15" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S15" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92449869224062775</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="U15" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V15" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1291087665609367</v>
       </c>
-      <c r="V15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="8" t="str">
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="X15" s="8" t="str">
+      <c r="Y15" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2461,97 +2469,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Honeycomb
 Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
-- **Horizontal Strength (X-Y):** Normal-Low
-- **Vertical Strength (Z):** Normal-Low
+- **Horizontal Strength (X-Y):** 0,925
+- **Vertical Strength (Z):** 0,925
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
-![infill-iso-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-2d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="7">
+        <v>1.075</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
       <c r="I16">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16">
+      <c r="K16">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>28</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>123.92</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16">
+      <c r="Q16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="R16" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S16" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.4346992153443765</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
+      </c>
+      <c r="U16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="U16" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V16" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.61118364015697213</v>
       </c>
-      <c r="V16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="2" t="str">
+      <c r="W16" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="Y16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2561,97 +2571,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
-- **Horizontal Strength (X-Y):** Normal
-- **Vertical Strength (Z):** Normal-High
+- **Horizontal Strength (X-Y):** 1,075
+- **Vertical Strength (Z):** 1,25
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low
 - **Time:** High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
-![infill-iso-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-3d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="165" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17">
+        <v>94</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I17">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="J17" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17">
+      <c r="K17">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>24</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>148.63</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17">
+      <c r="Q17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="R17" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S17" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.5421098517872711</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
+      </c>
+      <c r="U17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="U17" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V17" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.68199680943375651</v>
       </c>
-      <c r="V17" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="2" t="str">
+      <c r="W17" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="Y17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2661,98 +2673,100 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Extra High
+- **Time:** High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
-![infill-iso-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-hilbert-curve.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I18">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="J18" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18">
+      <c r="K18">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>46</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>148.21</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18">
+      <c r="Q18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="R18" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S18" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.89380993897122929</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="U18" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V18" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1733389952906987</v>
       </c>
-      <c r="V18" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="2" t="str">
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="Y18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2762,97 +2776,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
-![infill-iso-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-archimedean-chords.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I19">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J19">
         <v>4</v>
       </c>
-      <c r="J19" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19">
+      <c r="K19">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.075</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>30</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>148.72</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19">
+      <c r="Q19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="R19" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S19" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.0932868352223191</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="U19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="U19" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V19" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.96255695187019885</v>
       </c>
-      <c r="V19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="2" t="str">
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="Y19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2862,97 +2878,99 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Octagram Spiral
 Esthetic pattern with low strength and high print time.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Normal
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 1,075
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** High
+- **Time:** Normal-High
 - **Material/Time (Higher better):** Normal
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
-![infill-iso-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-octagram-spiral.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I20">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="J20" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20">
+      <c r="K20">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>50</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>49.39</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20">
+      <c r="Q20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="R20" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S20" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.32606800348735832</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-Low</v>
+      </c>
+      <c r="U20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="U20" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V20" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0718203998091715</v>
       </c>
-      <c r="V20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="2" t="str">
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="Y20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2962,91 +2980,90 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Low
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 0,75
 - **Density Calculation:** before top shell layers
-- **Material Usage:** Extra Low
-- **Time:** Extra Low
+- **Material Usage:** Extra-Low
+- **Time:** Extra-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
-![infill-iso-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-support-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
       <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
       <c r="I21">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="J21" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21">
+      <c r="K21">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>0.75</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>12.33</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21">
+      <c r="Q21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="R21" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S21" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.14577157802964255</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="U21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="U21" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V21" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.59852376361078963</v>
       </c>
-      <c r="V21" t="s">
-        <v>27</v>
-      </c>
-      <c r="W21" s="2" t="str">
+      <c r="W21" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="Y21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3056,91 +3073,90 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
-- **Horizontal Strength (X-Y):** Low
-- **Vertical Strength (Z):** Low
+- **Horizontal Strength (X-Y):** 0,75
+- **Vertical Strength (Z):** 0,75
 - **Density Calculation:** before top shell layers
-- **Material Usage:** Ultra Low
-- **Time:** Ultra Low
+- **Material Usage:** Ultra-Low
+- **Time:** Ultra-Low
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
-![infill-iso-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-lightning.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="H22" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
       <c r="I22">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="J22" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22">
+      <c r="K22">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.25</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>40</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>144.69999999999999</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22">
+      <c r="Q22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="R22" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S22" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2275501307759371</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="U22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="U22" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V22" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.83410451302470801</v>
       </c>
-      <c r="V22" t="s">
-        <v>26</v>
-      </c>
-      <c r="W22" s="2" t="str">
+      <c r="W22" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="Y22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3150,91 +3166,90 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
-- **Horizontal Strength (X-Y):** Normal-High
-- **Vertical Strength (Z):** Normal-High
+- **Horizontal Strength (X-Y):** 1,25
+- **Vertical Strength (Z):** 1,25
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** High
+- **Time:** Normal-High
 - **Material/Time (Higher better):** Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
-![infill-iso-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-cross-hatch.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="H23" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
       <c r="I23">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="J23">
         <v>6</v>
       </c>
-      <c r="J23" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23">
+      <c r="K23">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
+        <v>1.6</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>148.55000000000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23">
+      <c r="Q23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="R23" s="2">
-        <f>Infill[[#This Row],[Total Time]]/Infill[[#Totals],[Total Time]]</f>
+      <c r="S23" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92258064516129035</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="U23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="U23" s="2">
-        <f>Infill[[#This Row],[g/t]]/Infill[[#Totals],[g/t]]</f>
+      <c r="V23" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1393561309338132</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" s="2" t="str">
+      <c r="W23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="Y23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3244,46 +3259,23 @@
 - **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-![infill-iso-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
-- **Horizontal Strength (X-Y):** High
-- **Vertical Strength (Z):** High
+- **Horizontal Strength (X-Y):** 1,6
+- **Vertical Strength (Z):** 1,6
 - **Density Calculation:** Total infill material usage
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
-![infill-iso-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-iso-quarter-cubic.png?raw=true)
 </v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="4">
-        <f>SUBTOTAL(101,Infill[g])</f>
-        <v>136.61545454545453</v>
-      </c>
-      <c r="O24" s="1">
-        <f>SUBTOTAL(101,Infill[% Deviation])</f>
-        <v>0.91328122032559211</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>SUBTOTAL(101,Infill[Total Time])</f>
-        <v>521.36363636363637</v>
-      </c>
-      <c r="T24" s="4">
-        <f>SUBTOTAL(101,Infill[g/t])</f>
-        <v>0.27106165530757964</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O23">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="P2:P23">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3294,8 +3286,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="S2:S23">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3306,7 +3298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T23">
+  <conditionalFormatting sqref="U2:U23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3318,8 +3310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U23">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="V2:V23">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2002E5-7EEA-49F9-975D-35691E8EED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207EB570-29FA-4B00-968A-CB3FC33489BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>Infill</t>
   </si>
@@ -125,15 +125,9 @@
     <t>Normal-High</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>DensityCalc</t>
   </si>
   <si>
-    <t>before top shell layers</t>
-  </si>
-  <si>
     <t>X-Y Strength</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
   </si>
   <si>
     <t>Infill Combination</t>
-  </si>
-  <si>
-    <t>Total infill material usage</t>
-  </si>
-  <si>
-    <t>Cubic reduced in the center</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -306,18 +294,6 @@
     <t>Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Adaptative</t>
-  </si>
-  <si>
-    <t>Esthetic</t>
-  </si>
-  <si>
     <t>Esthetic pattern with low strength and high print time.</t>
   </si>
   <si>
@@ -335,6 +311,21 @@
   </si>
   <si>
     <t>t prom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % of  total infill volume</t>
+  </si>
+  <si>
+    <t>Same as [Cubic](#cubic) but reduced in the center</t>
+  </si>
+  <si>
+    <t>% of layer before top shell layers</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
 </sst>
 </file>
@@ -387,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -398,14 +389,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -551,22 +583,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,51 +606,53 @@
   <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="18" dataCellStyle="Porcentaje"/>
-    <tableColumn id="21" xr3:uid="{85FC4B7C-12B9-4B99-B32D-798AC5127191}" name="Type"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="20">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="18">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="15" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="17" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="13" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="4" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="Text" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="1" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
@@ -656,7 +678,7 @@
   <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="3" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -982,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,174 +1014,162 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" customWidth="1"/>
+    <col min="25" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
-      </c>
-      <c r="S1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5">
         <v>2</v>
       </c>
+      <c r="H2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I2">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J2">
         <v>4</v>
       </c>
-      <c r="K2">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>59</v>
+      <c r="J2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
         <v>158.77000000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="O2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="P2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="R2">
+      <c r="Q2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="S2" s="2">
+      <c r="R2" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.94559721011333908</v>
       </c>
-      <c r="T2" s="2" t="str">
+      <c r="S2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="U2" s="3">
+      <c r="T2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="V2" s="2">
+      <c r="U2" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1881012132687909</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="2" t="str">
+      <c r="W2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
+      </c>
+      <c r="X2" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Concentric](#concentric)</v>
       </c>
       <c r="Y2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1168,98 +1178,99 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
       <c r="I3">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>59</v>
+      <c r="J3" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
         <v>148.6</v>
       </c>
-      <c r="P3" s="2">
+      <c r="O3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3">
+      <c r="Q3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="S3" s="2">
+      <c r="R3" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93408892763731477</v>
       </c>
-      <c r="T3" s="2" t="str">
+      <c r="S3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="U3" s="3">
+      <c r="T3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="V3" s="2">
+      <c r="U3" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1256976567918875</v>
       </c>
-      <c r="W3" t="str">
+      <c r="V3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="W3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
+      </c>
+      <c r="X3" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Rectilinear](#rectilinear)</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1268,25 +1279,25 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
-- **Horizontal Strength (X-Y):** 0,925
-- **Vertical Strength (Z):** 0,75
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1294,71 +1305,72 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
+      <c r="H4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I4">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J4">
         <v>6</v>
       </c>
-      <c r="K4">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
+      <c r="J4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
         <v>148.87</v>
       </c>
-      <c r="P4" s="2">
+      <c r="O4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R4">
+      <c r="Q4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="S4" s="2">
+      <c r="R4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93217088055797737</v>
       </c>
-      <c r="T4" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="U4" s="3">
+      <c r="T4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="V4" s="2">
+      <c r="U4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1300634613198943</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V4" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
+      </c>
+      <c r="X4" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Grid](#grid)</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1367,97 +1379,98 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
+      <c r="H5" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
       <c r="I5">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>59</v>
+      <c r="J5" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
         <v>148.54</v>
       </c>
-      <c r="P5" s="2">
+      <c r="O5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="S5" s="2">
+      <c r="R5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92833478639930256</v>
       </c>
-      <c r="T5" s="2" t="str">
+      <c r="S5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="U5" s="3">
+      <c r="T5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="V5" s="2">
+      <c r="U5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1322177830650146</v>
       </c>
-      <c r="W5" t="s">
+      <c r="V5" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
+      </c>
+      <c r="X5" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[2D Lattice](#2d-lattice)</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1466,97 +1479,98 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
 Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
-- **Horizontal Strength (X-Y):** 0,925
-- **Vertical Strength (Z):** 0,75
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I6">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>59</v>
+      <c r="J6" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="N6">
-        <v>49</v>
-      </c>
-      <c r="O6">
         <v>154.68</v>
       </c>
-      <c r="P6" s="2">
+      <c r="O6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="S6" s="2">
+      <c r="R6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.8995640802092415</v>
       </c>
-      <c r="T6" s="2" t="str">
+      <c r="S6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U6" s="3">
+      <c r="T6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="V6" s="2">
+      <c r="U6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.2167272496405854</v>
       </c>
-      <c r="W6" t="s">
+      <c r="V6" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
+      </c>
+      <c r="X6" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Line](#line)</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1565,97 +1579,98 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 0,75
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
+      <c r="H7" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I7">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>59</v>
+      <c r="J7" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="O7">
         <v>148.54</v>
       </c>
-      <c r="P7" s="2">
+      <c r="O7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R7">
+      <c r="Q7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="S7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U7" s="3">
+      <c r="T7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="V7" s="2">
+      <c r="U7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1659434191563129</v>
       </c>
-      <c r="W7" t="s">
+      <c r="V7" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Cubic](#cubic)</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1664,25 +1679,25 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1690,71 +1705,72 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
+      <c r="H8" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I8">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>59</v>
+      <c r="J8" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="O8">
         <v>147.55000000000001</v>
       </c>
-      <c r="P8" s="2">
+      <c r="O8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R8">
+      <c r="Q8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="S8" s="2">
+      <c r="R8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="T8" s="2" t="str">
+      <c r="S8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U8" s="3">
+      <c r="T8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="V8" s="2">
+      <c r="U8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.158172556190346</v>
       </c>
-      <c r="W8" t="s">
+      <c r="V8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Triangles](#triangles)</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1763,25 +1779,25 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1789,71 +1805,72 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
+      <c r="H9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I9">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>59</v>
+      <c r="J9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N9">
-        <v>43</v>
-      </c>
-      <c r="O9">
         <v>148.53</v>
       </c>
-      <c r="P9" s="2">
+      <c r="O9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R9">
+      <c r="Q9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="S9" s="2">
+      <c r="R9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.88805579773321708</v>
       </c>
-      <c r="T9" s="2" t="str">
+      <c r="S9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U9" s="3">
+      <c r="T9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="V9" s="2">
+      <c r="U9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1834913931485316</v>
       </c>
-      <c r="W9" t="s">
+      <c r="V9" t="s">
         <v>28</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
+      </c>
+      <c r="X9" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1862,91 +1879,92 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,25
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
+      <c r="H10" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I10">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>59</v>
+      <c r="J10" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N10">
-        <v>49</v>
-      </c>
-      <c r="O10">
         <v>141.77000000000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="O10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="Q10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="S10" s="2">
+      <c r="R10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2448125544899737</v>
       </c>
-      <c r="T10" s="2" t="str">
+      <c r="S10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="U10" s="3">
+      <c r="T10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="V10" s="2">
+      <c r="U10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.8058821871442029</v>
       </c>
-      <c r="W10" t="s">
+      <c r="V10" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
+      </c>
+      <c r="X10" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Gyroid](#gyroid)</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -1955,100 +1973,101 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-High
+- **Print Time:** Normal-High
 - **Material/Time (Higher better):** Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
+      <c r="H11" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I11">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J11">
         <v>6</v>
       </c>
-      <c r="K11">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>59</v>
+      <c r="J11" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N11">
-        <v>29</v>
-      </c>
-      <c r="O11">
         <v>151.01</v>
       </c>
-      <c r="P11" s="2">
+      <c r="O11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R11">
+      <c r="Q11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="S11" s="2">
+      <c r="R11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.3215344376634699</v>
       </c>
-      <c r="T11" s="2" t="str">
+      <c r="S11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="U11" s="3">
+      <c r="T11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="V11" s="2">
+      <c r="U11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.80857144412283</v>
       </c>
-      <c r="W11" t="s">
+      <c r="V11" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[TPMS-D](#tpms-d)</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2057,23 +2076,23 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
 Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** High
+- **Print Time:** High
 - **Material/Time (Higher better):** Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2081,76 +2100,77 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
+      <c r="H12" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I12">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J12">
         <v>6</v>
       </c>
-      <c r="K12">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>59</v>
+      <c r="J12" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N12">
-        <v>36</v>
-      </c>
-      <c r="O12">
         <v>190.54</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R12">
+      <c r="Q12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="S12" s="2">
+      <c r="R12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>2.0254577157802962</v>
       </c>
-      <c r="T12" s="2" t="str">
+      <c r="S12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="U12" s="3">
+      <c r="T12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="V12" s="2">
+      <c r="U12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.6656625993664127</v>
       </c>
-      <c r="W12" t="s">
+      <c r="V12" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Honeycomb](#honeycomb)</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2159,23 +2179,23 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** High
-- **Time:** Ultra-High
+- **Print Time:** Ultra-High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2183,76 +2203,77 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
+      <c r="H13" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
       <c r="I13">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>60</v>
+      <c r="J13" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N13">
-        <v>29</v>
-      </c>
-      <c r="O13">
         <v>97.57</v>
       </c>
-      <c r="P13" s="2">
+      <c r="O13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R13">
+      <c r="Q13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="S13" s="2">
+      <c r="R13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.63103748910200519</v>
       </c>
-      <c r="T13" s="2" t="str">
+      <c r="S13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="U13" s="3">
+      <c r="T13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="V13" s="2">
+      <c r="U13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0940881667956823</v>
       </c>
-      <c r="W13" t="s">
+      <c r="V13" t="s">
         <v>26</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="W13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
+      </c>
+      <c r="X13" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2261,17 +2282,17 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
-- **Horizontal Strength (X-Y):** 1,25
-- **Vertical Strength (Z):** 1,25
-- **Density Calculation:** Cubic reduced in the center
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:** Same as [Cubic](#cubic) but reduced in the center
 - **Material Usage:** Low
-- **Time:** Low
+- **Print Time:** Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 </v>
@@ -2291,70 +2312,71 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14">
+        <v>69</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
+      <c r="H14" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
       <c r="I14">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J14">
         <v>4</v>
       </c>
-      <c r="K14">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>59</v>
+      <c r="J14" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
       </c>
       <c r="M14">
         <v>8</v>
       </c>
       <c r="N14">
-        <v>8</v>
-      </c>
-      <c r="O14">
         <v>148.6</v>
       </c>
-      <c r="P14" s="2">
+      <c r="O14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R14">
+      <c r="Q14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="S14" s="2">
+      <c r="R14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93600697471665206</v>
       </c>
-      <c r="T14" s="2" t="str">
+      <c r="S14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="V14" s="2">
+      <c r="U14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1233908992984614</v>
       </c>
-      <c r="W14" t="s">
+      <c r="V14" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="W14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
+      </c>
+      <c r="X14" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2363,24 +2385,24 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
 Recommended with layer anchoring to improve not perpendicular strength.
-- **Horizontal Strength (X-Y):** 0,925
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal
+- **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="165" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2391,73 +2413,74 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15">
+        <v>78</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
+      <c r="H15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
       <c r="I15">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>59</v>
+      <c r="J15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
         <v>147.52000000000001</v>
       </c>
-      <c r="P15" s="2">
+      <c r="O15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R15">
+      <c r="Q15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="S15" s="2">
+      <c r="R15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92449869224062775</v>
       </c>
-      <c r="T15" s="2" t="str">
+      <c r="S15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U15" s="3">
+      <c r="T15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="V15" s="2">
+      <c r="U15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1291087665609367</v>
       </c>
-      <c r="W15" t="s">
+      <c r="V15" t="s">
         <v>26</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="W15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-honeycomb</v>
+      </c>
+      <c r="X15" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2466,23 +2489,23 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Honeycomb
 Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
-- **Horizontal Strength (X-Y):** 0,925
-- **Vertical Strength (Z):** 0,925
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal-Low
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2495,71 +2518,72 @@
       <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
+      <c r="H16" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
       <c r="I16">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>61</v>
+      <c r="J16" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N16">
-        <v>28</v>
-      </c>
-      <c r="O16">
         <v>123.92</v>
       </c>
-      <c r="P16" s="2">
+      <c r="O16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R16">
+      <c r="Q16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="S16" s="2">
+      <c r="R16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.4346992153443765</v>
       </c>
-      <c r="T16" s="2" t="str">
+      <c r="S16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="U16" s="3">
+      <c r="T16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="V16" s="2">
+      <c r="U16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.61118364015697213</v>
       </c>
-      <c r="W16" t="s">
+      <c r="V16" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
+      </c>
+      <c r="X16" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2568,17 +2592,17 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
-- **Horizontal Strength (X-Y):** 1,075
-- **Vertical Strength (Z):** 1,25
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal-High
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low
-- **Time:** High
+- **Print Time:** High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
@@ -2598,70 +2622,71 @@
         <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17">
+        <v>86</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
+      <c r="H17" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I17">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>59</v>
+      <c r="J17" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>24</v>
-      </c>
-      <c r="O17">
         <v>148.63</v>
       </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R17">
+      <c r="Q17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="S17" s="2">
+      <c r="R17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.5421098517872711</v>
       </c>
-      <c r="T17" s="2" t="str">
+      <c r="S17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="U17" s="3">
+      <c r="T17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="V17" s="2">
+      <c r="U17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.68199680943375651</v>
       </c>
-      <c r="W17" t="s">
+      <c r="V17" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
+      </c>
+      <c r="X17" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2670,24 +2695,24 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** High
+- **Print Time:** High
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2700,71 +2725,72 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
+      <c r="H18" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I18">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>59</v>
+      <c r="J18" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N18">
-        <v>46</v>
-      </c>
-      <c r="O18">
         <v>148.21</v>
       </c>
-      <c r="P18" s="2">
+      <c r="O18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R18">
+      <c r="Q18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="S18" s="2">
+      <c r="R18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.89380993897122929</v>
       </c>
-      <c r="T18" s="2" t="str">
+      <c r="S18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U18" s="3">
+      <c r="T18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="V18" s="2">
+      <c r="U18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1733389952906987</v>
       </c>
-      <c r="W18" t="s">
+      <c r="V18" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
+      </c>
+      <c r="X18" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2773,23 +2799,23 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2797,76 +2823,77 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
         <v>2</v>
       </c>
+      <c r="H19" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I19">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J19">
         <v>4</v>
       </c>
-      <c r="K19">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.075</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>59</v>
+      <c r="J19" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N19">
-        <v>30</v>
-      </c>
-      <c r="O19">
         <v>148.72</v>
       </c>
-      <c r="P19" s="2">
+      <c r="O19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R19">
+      <c r="Q19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="S19" s="2">
+      <c r="R19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.0932868352223191</v>
       </c>
-      <c r="T19" s="2" t="str">
+      <c r="S19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="U19" s="3">
+      <c r="T19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="V19" s="2">
+      <c r="U19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.96255695187019885</v>
       </c>
-      <c r="W19" t="s">
+      <c r="V19" t="s">
         <v>26</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="W19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
+      </c>
+      <c r="X19" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2875,23 +2902,23 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Octagram Spiral
 Esthetic pattern with low strength and high print time.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 1,075
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-High
+- **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2899,76 +2926,77 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
+      <c r="H20" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I20">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>31</v>
+      <c r="J20" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
         <v>49.39</v>
       </c>
-      <c r="P20" s="2">
+      <c r="O20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20">
+      <c r="P20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="S20" s="2">
+      <c r="R20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.32606800348735832</v>
       </c>
-      <c r="T20" s="2" t="str">
+      <c r="S20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="U20" s="3">
+      <c r="T20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="V20" s="2">
+      <c r="U20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0718203998091715</v>
       </c>
-      <c r="W20" t="s">
+      <c r="V20" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="W20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
+      </c>
+      <c r="X20" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Support Cubic](#support-cubic)</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -2977,91 +3005,92 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 0,75
-- **Density Calculation:** before top shell layers
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** % of layer before top shell layers
 - **Material Usage:** Extra-Low
-- **Time:** Extra-Low
+- **Print Time:** Extra-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
+      <c r="H21" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
       <c r="I21">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="J21">
         <v>2</v>
       </c>
-      <c r="K21">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>0.75</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>31</v>
+      <c r="J21" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N21">
-        <v>16</v>
-      </c>
-      <c r="O21">
         <v>12.33</v>
       </c>
-      <c r="P21" s="2">
+      <c r="O21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21">
+      <c r="P21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="S21" s="2">
+      <c r="R21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.14577157802964255</v>
       </c>
-      <c r="T21" s="2" t="str">
+      <c r="S21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="U21" s="3">
+      <c r="T21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="V21" s="2">
+      <c r="U21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.59852376361078963</v>
       </c>
-      <c r="W21" t="s">
+      <c r="V21" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
+      </c>
+      <c r="X21" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Lightning](#lightning)</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3070,91 +3099,92 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
-- **Horizontal Strength (X-Y):** 0,75
-- **Vertical Strength (Z):** 0,75
-- **Density Calculation:** before top shell layers
+- **Horizontal Strength (X-Y):** Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:** % of layer before top shell layers
 - **Material Usage:** Ultra-Low
-- **Time:** Ultra-Low
+- **Print Time:** Ultra-Low
 - **Material/Time (Higher better):** Extra Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
+      <c r="H22" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
       <c r="I22">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>59</v>
+      <c r="J22" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N22">
-        <v>40</v>
-      </c>
-      <c r="O22">
         <v>144.69999999999999</v>
       </c>
-      <c r="P22" s="2">
+      <c r="O22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R22">
+      <c r="Q22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="S22" s="2">
+      <c r="R22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2275501307759371</v>
       </c>
-      <c r="T22" s="2" t="str">
+      <c r="S22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="U22" s="3">
+      <c r="T22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="V22" s="2">
+      <c r="U22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.83410451302470801</v>
       </c>
-      <c r="W22" t="s">
+      <c r="V22" t="s">
         <v>24</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
+      </c>
+      <c r="X22" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Cross Hatch](#cross-hatch)</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3163,91 +3193,92 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
-- **Horizontal Strength (X-Y):** 1,25
-- **Vertical Strength (Z):** 1,25
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-High
+- **Print Time:** Normal-High
 - **Material/Time (Higher better):** Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
+      <c r="H23" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
       <c r="I23">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="J23">
         <v>6</v>
       </c>
-      <c r="K23">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Max %])</f>
-        <v>1.6</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>59</v>
+      <c r="J23" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
         <v>148.55000000000001</v>
       </c>
-      <c r="P23" s="2">
+      <c r="O23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R23">
+      <c r="Q23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="S23" s="2">
+      <c r="R23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92258064516129035</v>
       </c>
-      <c r="T23" s="2" t="str">
+      <c r="S23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="U23" s="3">
+      <c r="T23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="V23" s="2">
+      <c r="U23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1393561309338132</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="W23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
+      </c>
+      <c r="X23" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3256,17 +3287,17 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
-- **Horizontal Strength (X-Y):** 1,6
-- **Vertical Strength (Z):** 1,6
-- **Density Calculation:** Total infill material usage
+- **Horizontal Strength (X-Y):** High
+- **Vertical Strength (Z):** High
+- **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Time:** Normal-Low
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 </v>
@@ -3274,7 +3305,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="P2:P23">
+  <conditionalFormatting sqref="O2:O23">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3286,7 +3317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S23">
+  <conditionalFormatting sqref="R2:R23">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3298,7 +3329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U23">
+  <conditionalFormatting sqref="T2:T23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3310,7 +3341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="U2:U23">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207EB570-29FA-4B00-968A-CB3FC33489BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6190A67-761B-4BA2-BCD4-C6D7D3DAB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -399,6 +399,9 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
@@ -419,28 +422,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -588,6 +569,25 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -606,46 +606,46 @@
   <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="20">
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="18">
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="17">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="17" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="16" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="13" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -678,7 +678,7 @@
   <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,11 +2522,11 @@
         <v>70</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
+        <v>Normal-High</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2598,7 +2598,7 @@
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
-- **Horizontal Strength (X-Y):** Normal
+- **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6190A67-761B-4BA2-BCD4-C6D7D3DAB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2D728-191F-46BB-9A0E-F14B1B1CC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>Infill</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>Current Order</t>
+  </si>
+  <si>
+    <t>Tentative Order</t>
   </si>
 </sst>
 </file>
@@ -602,9 +608,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:Y23">
-  <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AA23">
+  <autoFilter ref="E1:AA23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AA23">
+    <sortCondition ref="E1:E23"/>
+  </sortState>
+  <tableColumns count="23">
+    <tableColumn id="22" xr3:uid="{8D3A2FCE-7458-4DCB-BCE6-4671B3808244}" name="Current Order"/>
+    <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Tentative Order"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
     <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="21" dataCellStyle="Porcentaje"/>
     <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="20"/>
@@ -1002,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,16 +1024,17 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" customWidth="1"/>
+    <col min="26" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1030,148 +1042,160 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>89</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>158.77000000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.94559721011333908</v>
       </c>
-      <c r="S2" s="2" t="str">
+      <c r="U2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1881012132687909</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2" t="str">
+      <c r="Y2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="X2" s="2" t="str">
+      <c r="Z2" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="Y2" s="2" t="str">
+      <c r="AA2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1194,85 +1218,91 @@
 </v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>148.6</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93408892763731477</v>
       </c>
-      <c r="S3" s="2" t="str">
+      <c r="U3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T3" s="3">
+      <c r="V3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1256976567918875</v>
       </c>
-      <c r="V3" t="str">
+      <c r="X3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="W3" s="2" t="str">
+      <c r="Y3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="Z3" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="Y3" s="2" t="str">
+      <c r="AA3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1295,84 +1325,90 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>148.87</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93217088055797737</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="U4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T4" s="3">
+      <c r="V4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1300634613198943</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="2" t="str">
+      <c r="Y4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="Z4" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="Y4" s="2" t="str">
+      <c r="AA4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1395,84 +1431,90 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="J5" t="str">
+      <c r="L5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>148.54</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92833478639930256</v>
       </c>
-      <c r="S5" s="2" t="str">
+      <c r="U5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1322177830650146</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="2" t="str">
+      <c r="Y5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="Z5" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Lattice](#2d-lattice)</v>
       </c>
-      <c r="Y5" s="2" t="str">
+      <c r="AA5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1495,84 +1537,90 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>49</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>154.68</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.8995640802092415</v>
       </c>
-      <c r="S6" s="2" t="str">
+      <c r="U6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.2167272496405854</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="2" t="str">
+      <c r="Y6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="Z6" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="Y6" s="2" t="str">
+      <c r="AA6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1595,84 +1643,90 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>148.54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="U7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1659434191563129</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="Y7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="Z7" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="AA7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1695,84 +1749,90 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>50</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>147.55000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.9014821272885789</v>
       </c>
-      <c r="S8" s="2" t="str">
+      <c r="U8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.158172556190346</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>28</v>
       </c>
-      <c r="W8" s="2" t="str">
+      <c r="Y8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="Z8" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="Y8" s="2" t="str">
+      <c r="AA8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1795,84 +1855,90 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="J9" t="str">
+      <c r="L9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>148.53</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.88805579773321708</v>
       </c>
-      <c r="S9" s="2" t="str">
+      <c r="U9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1834913931485316</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="2" t="str">
+      <c r="Y9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="Z9" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="Y9" s="2" t="str">
+      <c r="AA9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1895,78 +1961,84 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>49</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>141.77000000000001</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2448125544899737</v>
       </c>
-      <c r="S10" s="2" t="str">
+      <c r="U10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.8058821871442029</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="2" t="str">
+      <c r="Y10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="Z10" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Gyroid](#gyroid)</v>
       </c>
-      <c r="Y10" s="2" t="str">
+      <c r="AA10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1989,7 +2061,7 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1999,77 +2071,83 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>29</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>151.01</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.3215344376634699</v>
       </c>
-      <c r="S11" s="2" t="str">
+      <c r="U11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.80857144412283</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>24</v>
       </c>
-      <c r="W11" s="2" t="str">
+      <c r="Y11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="Z11" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="Y11" s="2" t="str">
+      <c r="AA11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2092,7 +2170,7 @@
 </v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2102,77 +2180,83 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="J12" t="str">
+      <c r="L12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>17</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>36</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>190.54</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>2.0254577157802962</v>
       </c>
-      <c r="S12" s="2" t="str">
+      <c r="U12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.6656625993664127</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>25</v>
       </c>
-      <c r="W12" s="2" t="str">
+      <c r="Y12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="Z12" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="Y12" s="2" t="str">
+      <c r="AA12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2195,7 +2279,7 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2205,77 +2289,83 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>29</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>97.57</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.63103748910200519</v>
       </c>
-      <c r="S13" s="2" t="str">
+      <c r="U13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0940881667956823</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>26</v>
       </c>
-      <c r="W13" s="2" t="str">
+      <c r="Y13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="Z13" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="Y13" s="2" t="str">
+      <c r="AA13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2298,7 +2388,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2308,77 +2398,83 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="str">
+      <c r="L14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>148.6</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.93600697471665206</v>
       </c>
-      <c r="S14" s="2" t="str">
+      <c r="U14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="U14" s="2">
+      <c r="W14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1233908992984614</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="2" t="str">
+      <c r="Y14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="Z14" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="Y14" s="2" t="str">
+      <c r="AA14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2402,7 +2498,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2412,77 +2508,83 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15" t="str">
+      <c r="L15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>8</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>147.52000000000001</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92449869224062775</v>
       </c>
-      <c r="S15" s="2" t="str">
+      <c r="U15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1291087665609367</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>26</v>
       </c>
-      <c r="W15" s="2" t="str">
+      <c r="Y15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="Z15" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
-      <c r="Y15" s="2" t="str">
+      <c r="AA15" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2505,7 +2607,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2515,77 +2617,83 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="J16" t="str">
+      <c r="L16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>28</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>123.92</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.4346992153443765</v>
       </c>
-      <c r="S16" s="2" t="str">
+      <c r="U16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T16" s="3">
+      <c r="V16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.61118364015697213</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="2" t="str">
+      <c r="Y16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="Z16" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="Y16" s="2" t="str">
+      <c r="AA16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2608,7 +2716,7 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2618,77 +2726,83 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="H17" t="str">
+      <c r="J17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="J17" t="str">
+      <c r="L17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>24</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>148.63</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.5421098517872711</v>
       </c>
-      <c r="S17" s="2" t="str">
+      <c r="U17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.68199680943375651</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="2" t="str">
+      <c r="Y17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="Z17" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="Y17" s="2" t="str">
+      <c r="AA17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2712,7 +2826,7 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2722,77 +2836,83 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="H18" t="str">
+      <c r="J18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="J18" t="str">
+      <c r="L18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>46</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>148.21</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.89380993897122929</v>
       </c>
-      <c r="S18" s="2" t="str">
+      <c r="U18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="U18" s="2">
+      <c r="W18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1733389952906987</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>28</v>
       </c>
-      <c r="W18" s="2" t="str">
+      <c r="Y18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="Z18" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="Y18" s="2" t="str">
+      <c r="AA18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2815,7 +2935,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2825,77 +2945,83 @@
       <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19" t="str">
+      <c r="J19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="J19" t="str">
+      <c r="L19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>30</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>148.72</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.0932868352223191</v>
       </c>
-      <c r="S19" s="2" t="str">
+      <c r="U19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T19" s="3">
+      <c r="V19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.96255695187019885</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="2" t="str">
+      <c r="Y19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="Z19" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="Y19" s="2" t="str">
+      <c r="AA19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2918,7 +3044,7 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2928,77 +3054,83 @@
       <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="H20" t="str">
+      <c r="J20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="J20" t="str">
+      <c r="L20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>50</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>49.39</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.32606800348735832</v>
       </c>
-      <c r="S20" s="2" t="str">
+      <c r="U20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.0718203998091715</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="2" t="str">
+      <c r="Y20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="Z20" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="Y20" s="2" t="str">
+      <c r="AA20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3021,78 +3153,84 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="H21" t="str">
+      <c r="J21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="J21" t="str">
+      <c r="L21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>12.33</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.14577157802964255</v>
       </c>
-      <c r="S21" s="2" t="str">
+      <c r="U21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="U21" s="2">
+      <c r="W21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.59852376361078963</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>25</v>
       </c>
-      <c r="W21" s="2" t="str">
+      <c r="Y21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="Z21" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="Y21" s="2" t="str">
+      <c r="AA21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3115,78 +3253,84 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="H22" t="str">
+      <c r="J22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="J22" t="str">
+      <c r="L22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>40</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>144.69999999999999</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>1.2275501307759371</v>
       </c>
-      <c r="S22" s="2" t="str">
+      <c r="U22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>0.83410451302470801</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="2" t="str">
+      <c r="Y22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="Z22" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="Y22" s="2" t="str">
+      <c r="AA22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3209,78 +3353,84 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="23" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="J23" t="str">
+      <c r="L23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>148.55000000000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
         <v>0.92258064516129035</v>
       </c>
-      <c r="S23" s="2" t="str">
+      <c r="U23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="U23" s="2">
+      <c r="W23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
         <v>1.1393561309338132</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W23" s="2" t="str">
+      <c r="Y23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="Z23" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="Y23" s="2" t="str">
+      <c r="AA23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3305,7 +3455,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="Q2:Q23">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
+  <conditionalFormatting sqref="T2:T23">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T23">
+  <conditionalFormatting sqref="V2:V23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U23">
+  <conditionalFormatting sqref="W2:W23">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2D728-191F-46BB-9A0E-F14B1B1CC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B55E4E-5732-4942-9A18-ABBF752A4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="5985" yWindow="5805" windowWidth="18015" windowHeight="13905" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>Infill</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Extra Low</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.</t>
   </si>
   <si>
     <t>Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.</t>
@@ -267,9 +261,6 @@
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Material/Time</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>% of layer before top shell layers</t>
   </si>
   <si>
-    <t>Ref</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -332,6 +320,36 @@
   </si>
   <si>
     <t>Tentative Order</t>
+  </si>
+  <si>
+    <t>Zig Zag</t>
+  </si>
+  <si>
+    <t>Coss Zag</t>
+  </si>
+  <si>
+    <t>Locked Zag</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
+  </si>
+  <si>
+    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
+  </si>
+  <si>
+    <t>Print Time</t>
+  </si>
+  <si>
+    <t>Pattern</t>
   </si>
 </sst>
 </file>
@@ -384,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -398,12 +416,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -467,9 +509,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -492,25 +531,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -608,10 +628,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AA23">
-  <autoFilter ref="E1:AA23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AA23">
-    <sortCondition ref="E1:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AA26">
+  <autoFilter ref="E1:AA26" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AA26">
+    <sortCondition ref="E1:E26"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="22" xr3:uid="{8D3A2FCE-7458-4DCB-BCE6-4671B3808244}" name="Current Order"/>
@@ -633,37 +653,41 @@
     <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="9" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="1" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="6" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="4" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
@@ -689,7 +713,7 @@
   <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="2" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1013,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,99 +1060,99 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
       <c r="W1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -1145,7 +1169,7 @@
         <v>Normal</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -1169,8 +1193,8 @@
         <v>493</v>
       </c>
       <c r="T2" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.94559721011333908</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.92917369308600339</v>
       </c>
       <c r="U2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -1181,11 +1205,12 @@
         <v>0.32204868154158217</v>
       </c>
       <c r="W2" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1881012132687909</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1179101798703965</v>
+      </c>
+      <c r="X2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1202,7 +1227,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1218,12 +1243,12 @@
 </v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1235,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1252,7 +1277,7 @@
         <v>Low</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1267,32 +1292,33 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
+      <c r="R3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
       <c r="T3" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93408892763731477</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91786529114175186</v>
       </c>
       <c r="U3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
+        <v>Normal-Low</v>
       </c>
       <c r="V3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
       <c r="W3" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1256976567918875</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0591933211831519</v>
       </c>
       <c r="X3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
+        <v>Normal</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1309,25 +1335,25 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
-- **Material/Time (Higher better):** Normal-High
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1336,13 +1362,13 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1359,7 +1385,7 @@
         <v>High</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -1374,31 +1400,33 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>26</v>
+      <c r="R4" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
       <c r="T4" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93217088055797737</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91598055748437657</v>
       </c>
       <c r="U4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
+        <v>Normal-Low</v>
       </c>
       <c r="V4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
       <c r="W4" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1300634613198943</v>
-      </c>
-      <c r="X4" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0633012012784473</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1415,7 +1443,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1425,7 +1453,7 @@
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
@@ -1433,22 +1461,22 @@
     </row>
     <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1465,7 +1493,7 @@
         <v>Low</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1480,31 +1508,33 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>26</v>
+      <c r="R5" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
       <c r="T5" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92833478639930256</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91221109016962609</v>
       </c>
       <c r="U5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
+        <v>Normal-Low</v>
       </c>
       <c r="V5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
       <c r="W5" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1322177830650146</v>
-      </c>
-      <c r="X5" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0653282492964862</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1521,7 +1551,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1531,7 +1561,7 @@
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
@@ -1539,22 +1569,22 @@
     </row>
     <row r="6" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1571,7 +1601,7 @@
         <v>Low</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -1586,16 +1616,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>26</v>
+      <c r="R6" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
       <c r="T6" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.8995640802092415</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88394008530899715</v>
       </c>
       <c r="U6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -1606,11 +1637,12 @@
         <v>0.3298081023454158</v>
       </c>
       <c r="W6" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.2167272496405854</v>
-      </c>
-      <c r="X6" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1448450378706885</v>
+      </c>
+      <c r="X6" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1627,7 +1659,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1645,22 +1677,22 @@
     </row>
     <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1677,7 +1709,7 @@
         <v>High</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -1692,16 +1724,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>26</v>
+      <c r="R7" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
       <c r="T7" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
       </c>
       <c r="U7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -1712,11 +1745,12 @@
         <v>0.31604255319148933</v>
       </c>
       <c r="W7" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1659434191563129</v>
-      </c>
-      <c r="X7" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0970614311904239</v>
+      </c>
+      <c r="X7" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1733,7 +1767,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1751,7 +1785,7 @@
     </row>
     <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1760,13 +1794,13 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1783,7 +1817,7 @@
         <v>Normal</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1798,16 +1832,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>26</v>
+      <c r="R8" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
       <c r="T8" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
       </c>
       <c r="U8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -1818,11 +1853,12 @@
         <v>0.31393617021276599</v>
       </c>
       <c r="W8" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.158172556190346</v>
-      </c>
-      <c r="X8" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0897496578170667</v>
+      </c>
+      <c r="X8" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1839,7 +1875,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1857,7 +1893,7 @@
     </row>
     <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1866,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1889,7 +1925,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -1904,16 +1940,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>26</v>
+      <c r="R9" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
       <c r="T9" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.88805579773321708</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87263168336474561</v>
       </c>
       <c r="U9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -1924,11 +1961,12 @@
         <v>0.32079913606911448</v>
       </c>
       <c r="W9" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1834913931485316</v>
-      </c>
-      <c r="X9" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1135727002160909</v>
+      </c>
+      <c r="X9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -1945,7 +1983,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1966,13 +2004,13 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1989,7 +2027,7 @@
         <v>High</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2004,16 +2042,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>26</v>
+      <c r="R10" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
       <c r="T10" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2448125544899737</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.223192143636544</v>
       </c>
       <c r="U10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2024,11 +2063,12 @@
         <v>0.21844375963020032</v>
       </c>
       <c r="W10" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.8058821871442029</v>
-      </c>
-      <c r="X10" t="s">
-        <v>24</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.75827201481100404</v>
+      </c>
+      <c r="X10" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2045,7 +2085,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2056,32 +2096,32 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2098,7 +2138,7 @@
         <v>High</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -2113,16 +2153,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>26</v>
+      <c r="R11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
       <c r="T11" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.3215344376634699</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2985814899315544</v>
       </c>
       <c r="U11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2133,11 +2174,12 @@
         <v>0.21917271407837444</v>
       </c>
       <c r="W11" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.80857144412283</v>
-      </c>
-      <c r="X11" t="s">
-        <v>24</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76080239498326518</v>
+      </c>
+      <c r="X11" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2154,7 +2196,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2165,7 +2207,7 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
@@ -2178,19 +2220,19 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -2207,7 +2249,7 @@
         <v>High</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>17</v>
@@ -2222,16 +2264,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>23</v>
+      <c r="R12" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
       </c>
       <c r="S12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
       <c r="T12" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>2.0254577157802962</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.9902787421882751</v>
       </c>
       <c r="U12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2242,11 +2285,12 @@
         <v>0.18043560606060605</v>
       </c>
       <c r="W12" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.6656625993664127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.62633636585837626</v>
+      </c>
+      <c r="X12" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2263,7 +2307,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2274,7 +2318,7 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** High
 - **Print Time:** Ultra-High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
@@ -2287,19 +2331,19 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2316,7 +2360,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2331,16 +2375,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>24</v>
+      <c r="R13" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
       </c>
       <c r="S13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
       <c r="T13" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.63103748910200519</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.62007737327646073</v>
       </c>
       <c r="U13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2351,11 +2396,12 @@
         <v>0.29656534954407293</v>
       </c>
       <c r="W13" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0940881667956823</v>
-      </c>
-      <c r="X13" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0294512670108069</v>
+      </c>
+      <c r="X13" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2372,7 +2418,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2402,13 +2448,13 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2425,7 +2471,7 @@
         <v>Normal</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -2440,31 +2486,33 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>26</v>
+      <c r="R14" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
       <c r="T14" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93600697471665206</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91975002479912704</v>
       </c>
       <c r="U14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
+        <v>Normal-Low</v>
       </c>
       <c r="V14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
       <c r="W14" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1233908992984614</v>
-      </c>
-      <c r="X14" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0570228430659732</v>
+      </c>
+      <c r="X14" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2481,7 +2529,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2492,7 +2540,7 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
@@ -2506,19 +2554,19 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2535,7 +2583,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2550,16 +2598,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>26</v>
+      <c r="R15" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
       <c r="T15" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92449869224062775</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90844162285487551</v>
       </c>
       <c r="U15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2570,11 +2619,12 @@
         <v>0.30605809128630707</v>
       </c>
       <c r="W15" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1291087665609367</v>
-      </c>
-      <c r="X15" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.062402908289779</v>
+      </c>
+      <c r="X15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2591,7 +2641,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2615,19 +2665,19 @@
         <v>1.075</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2644,7 +2694,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>12</v>
@@ -2659,16 +2709,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>27</v>
+      <c r="R16" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
       </c>
       <c r="S16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
       <c r="T16" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.4346992153443765</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.4097807757166949</v>
       </c>
       <c r="U16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2679,11 +2730,12 @@
         <v>0.16566844919786097</v>
       </c>
       <c r="W16" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.61118364015697213</v>
-      </c>
-      <c r="X16" t="s">
-        <v>25</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.57507593248046729</v>
+      </c>
+      <c r="X16" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2700,7 +2752,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2711,7 +2763,7 @@
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
@@ -2724,19 +2776,19 @@
         <v>1.25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2753,7 +2805,7 @@
         <v>Normal</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N17">
         <v>13</v>
@@ -2768,16 +2820,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>26</v>
+      <c r="R17" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
       <c r="T17" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.5421098517872711</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.5153258605297093</v>
       </c>
       <c r="U17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2788,11 +2841,12 @@
         <v>0.18486318407960198</v>
       </c>
       <c r="W17" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.68199680943375651</v>
-      </c>
-      <c r="X17" t="s">
-        <v>25</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.64170557810266515</v>
+      </c>
+      <c r="X17" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2809,7 +2863,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2821,7 +2875,7 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
@@ -2840,13 +2894,13 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2863,7 +2917,7 @@
         <v>Normal</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2878,16 +2932,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>26</v>
+      <c r="R18" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
       <c r="T18" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.89380993897122929</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87828588433687138</v>
       </c>
       <c r="U18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -2898,11 +2953,12 @@
         <v>0.31804721030042921</v>
       </c>
       <c r="W18" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1733389952906987</v>
-      </c>
-      <c r="X18" t="s">
-        <v>28</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1040200890508012</v>
+      </c>
+      <c r="X18" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
       </c>
       <c r="Y18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -2919,7 +2975,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2943,19 +2999,19 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2972,7 +3028,7 @@
         <v>Normal</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>9</v>
@@ -2987,31 +3043,33 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>26</v>
+      <c r="R19" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
       <c r="T19" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.0932868352223191</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.0742981847038984</v>
       </c>
       <c r="U19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
+        <v>Normal</v>
       </c>
       <c r="V19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
       <c r="W19" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.96255695187019885</v>
-      </c>
-      <c r="X19" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.90569069636769506</v>
+      </c>
+      <c r="X19" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
       </c>
       <c r="Y19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -3028,7 +3086,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3038,8 +3096,8 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal-High
-- **Material/Time (Higher better):** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
@@ -3052,19 +3110,19 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3081,7 +3139,7 @@
         <v>Low</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3096,16 +3154,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>80</v>
+      <c r="R20" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-Low</v>
       </c>
       <c r="S20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
       <c r="T20" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.32606800348735832</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.32040472175379425</v>
       </c>
       <c r="U20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -3116,11 +3175,12 @@
         <v>0.29052941176470587</v>
       </c>
       <c r="W20" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0718203998091715</v>
-      </c>
-      <c r="X20" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0084990424703455</v>
+      </c>
+      <c r="X20" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -3137,7 +3197,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3158,13 +3218,13 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -3181,7 +3241,7 @@
         <v>Low</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3196,16 +3256,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>79</v>
+      <c r="R21" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
       </c>
       <c r="S21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
       <c r="T21" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.14577157802964255</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.1432397579605198</v>
       </c>
       <c r="U21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -3216,11 +3277,12 @@
         <v>0.16223684210526315</v>
       </c>
       <c r="W21" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.59852376361078963</v>
-      </c>
-      <c r="X21" t="s">
-        <v>25</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.56316398027570336</v>
+      </c>
+      <c r="X21" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -3237,7 +3299,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3248,7 +3310,7 @@
 - **Density Calculation:** % of layer before top shell layers
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
@@ -3258,13 +3320,13 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3281,7 +3343,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3296,16 +3358,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>26</v>
+      <c r="R22" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
       <c r="T22" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2275501307759371</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2062295407201666</v>
       </c>
       <c r="U22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -3316,11 +3379,12 @@
         <v>0.22609374999999998</v>
       </c>
       <c r="W22" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.83410451302470801</v>
-      </c>
-      <c r="X22" t="s">
-        <v>24</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.78482701286090395</v>
+      </c>
+      <c r="X22" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -3337,7 +3401,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3348,7 +3412,7 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
@@ -3358,13 +3422,13 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -3381,7 +3445,7 @@
         <v>High</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3396,16 +3460,17 @@
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>26</v>
+      <c r="R23" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="S23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
       <c r="T23" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92258064516129035</v>
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90655688919750022</v>
       </c>
       <c r="U23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
@@ -3416,11 +3481,12 @@
         <v>0.30883575883575887</v>
       </c>
       <c r="W23" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1393561309338132</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>26</v>
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0720448755071696</v>
+      </c>
+      <c r="X23" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
       </c>
       <c r="Y23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
@@ -3437,7 +3503,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3453,9 +3519,315 @@
 </v>
       </c>
     </row>
+    <row r="24" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="9">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>149.94</v>
+      </c>
+      <c r="Q24" s="10">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0023564803208824</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S24" s="9">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>496</v>
+      </c>
+      <c r="T24" s="10">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93482789405812916</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V24" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.3022983870967742</v>
+      </c>
+      <c r="W24" s="10">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0493520503677369</v>
+      </c>
+      <c r="X24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y24" s="10" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>zig-zag</v>
+      </c>
+      <c r="Z24" s="10" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AA24" s="10" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Zig Zag
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="9">
+        <v>4</v>
+      </c>
+      <c r="J25" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>149.84</v>
+      </c>
+      <c r="Q25" s="10">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0016879752653129</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S25" s="9">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>494</v>
+      </c>
+      <c r="T25" s="10">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93105842674337869</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.30331983805668017</v>
+      </c>
+      <c r="W25" s="10">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0528977578702527</v>
+      </c>
+      <c r="X25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y25" s="10" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>coss-zag</v>
+      </c>
+      <c r="Z25" s="10" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Coss Zag](#coss-zag)</v>
+      </c>
+      <c r="AA25" s="10" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Coss Zag
+Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K26" s="9">
+        <v>3</v>
+      </c>
+      <c r="L26" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>46</v>
+      </c>
+      <c r="P26">
+        <v>182.32</v>
+      </c>
+      <c r="Q26" s="10">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.2188184173142809</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="S26" s="9">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>946</v>
+      </c>
+      <c r="T26" s="10">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.7829580398769964</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-High</v>
+      </c>
+      <c r="V26" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="W26" s="10">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.6690037639314409</v>
+      </c>
+      <c r="X26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y26" s="10" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>locked-zag</v>
+      </c>
+      <c r="Z26" s="10" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AA26" s="10" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Locked Zag
+Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal-Low
+- **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls
+- **Material Usage:** Normal-High
+- **Print Time:** Extra-High
+- **Material/Time (Higher better):** Low
+![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
+</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q2:Q23">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3467,7 +3839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T23">
+  <conditionalFormatting sqref="T2:T26">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3479,7 +3851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V23">
+  <conditionalFormatting sqref="V2:V26">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3491,7 +3863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W23">
+  <conditionalFormatting sqref="W2:W26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B55E4E-5732-4942-9A18-ABBF752A4A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41064100-E108-4E05-99EC-6DEE0089FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="5805" windowWidth="18015" windowHeight="13905" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -416,36 +416,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -509,6 +485,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -531,6 +510,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -659,28 +657,28 @@
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="8" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="5" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -713,7 +711,7 @@
   <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1039,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,17 +3530,17 @@
       <c r="H24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
@@ -3558,7 +3556,7 @@
       <c r="P24">
         <v>149.94</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0023564803208824</v>
       </c>
@@ -3566,11 +3564,11 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>496</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.93482789405812916</v>
       </c>
@@ -3582,7 +3580,7 @@
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3022983870967742</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0493520503677369</v>
       </c>
@@ -3590,15 +3588,15 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Y24" s="10" t="str">
+      <c r="Y24" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>zig-zag</v>
       </c>
-      <c r="Z24" s="10" t="str">
+      <c r="Z24" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AA24" s="10" t="str">
+      <c r="AA24" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3634,17 +3632,17 @@
       <c r="H25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J25" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
@@ -3660,7 +3658,7 @@
       <c r="P25">
         <v>149.84</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0016879752653129</v>
       </c>
@@ -3668,11 +3666,11 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>494</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.93105842674337869</v>
       </c>
@@ -3684,7 +3682,7 @@
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30331983805668017</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0528977578702527</v>
       </c>
@@ -3692,15 +3690,15 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Y25" s="10" t="str">
+      <c r="Y25" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>coss-zag</v>
       </c>
-      <c r="Z25" s="10" t="str">
+      <c r="Z25" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Coss Zag](#coss-zag)</v>
       </c>
-      <c r="AA25" s="10" t="str">
+      <c r="AA25" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3736,17 +3734,17 @@
       <c r="H26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
@@ -3762,7 +3760,7 @@
       <c r="P26">
         <v>182.32</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2188184173142809</v>
       </c>
@@ -3770,11 +3768,11 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>946</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.7829580398769964</v>
       </c>
@@ -3786,7 +3784,7 @@
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W26" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.6690037639314409</v>
       </c>
@@ -3794,15 +3792,15 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="Y26" s="10" t="str">
+      <c r="Y26" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>locked-zag</v>
       </c>
-      <c r="Z26" s="10" t="str">
+      <c r="Z26" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AA26" s="10" t="str">
+      <c r="AA26" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41064100-E108-4E05-99EC-6DEE0089FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6190A67-761B-4BA2-BCD4-C6D7D3DAB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>Infill</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Extra Low</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.</t>
   </si>
   <si>
     <t>Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.</t>
@@ -267,9 +261,6 @@
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Material/Time</t>
   </si>
   <si>
@@ -322,10 +313,43 @@
     <t>% of layer before top shell layers</t>
   </si>
   <si>
-    <t>Ref</t>
-  </si>
-  <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>Current Order</t>
+  </si>
+  <si>
+    <t>Tentative Order</t>
+  </si>
+  <si>
+    <t>Zig Zag</t>
+  </si>
+  <si>
+    <t>Coss Zag</t>
+  </si>
+  <si>
+    <t>Locked Zag</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
+  </si>
+  <si>
+    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
+  </si>
+  <si>
+    <t>Print Time</t>
+  </si>
+  <si>
+    <t>Pattern</t>
   </si>
 </sst>
 </file>
@@ -602,9 +626,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:Y23">
-  <autoFilter ref="E1:Y23" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AA26">
+  <autoFilter ref="E1:AA26" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AA26">
+    <sortCondition ref="E1:E26"/>
+  </sortState>
+  <tableColumns count="23">
+    <tableColumn id="22" xr3:uid="{8D3A2FCE-7458-4DCB-BCE6-4671B3808244}" name="Current Order"/>
+    <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Tentative Order"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="Infill" totalsRowLabel="Total"/>
     <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="21" dataCellStyle="Porcentaje"/>
     <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="20"/>
@@ -622,27 +651,31 @@
     <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="12" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="9" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Time" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="8" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</calculatedColumnFormula>
+      <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="4" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Ref" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
@@ -652,7 +685,7 @@
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</calculatedColumnFormula>
@@ -1002,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,172 +1046,186 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" customWidth="1"/>
+    <col min="26" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2">
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>158.77000000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="R2" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.94559721011333908</v>
-      </c>
-      <c r="S2" s="2" t="str">
+      <c r="T2" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.92917369308600339</v>
+      </c>
+      <c r="U2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="U2" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1881012132687909</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="2" t="str">
+      <c r="W2" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1179101798703965</v>
+      </c>
+      <c r="X2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="X2" s="2" t="str">
+      <c r="Z2" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="Y2" s="2" t="str">
+      <c r="AA2" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1194,192 +1241,207 @@
 </v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3">
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>148.6</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3">
+      <c r="R3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="R3" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93408892763731477</v>
-      </c>
-      <c r="S3" s="2" t="str">
+      <c r="T3" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91786529114175186</v>
+      </c>
+      <c r="U3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T3" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="U3" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1256976567918875</v>
-      </c>
-      <c r="V3" t="str">
+      <c r="W3" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0591933211831519</v>
+      </c>
+      <c r="X3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="W3" s="2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="Y3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="X3" s="2" t="str">
+      <c r="Z3" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="Y3" s="2" t="str">
+      <c r="AA3" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
-- **Material/Time (Higher better):** Normal-High
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4">
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>148.87</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4">
+      <c r="R4" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="R4" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93217088055797737</v>
-      </c>
-      <c r="S4" s="2" t="str">
+      <c r="T4" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91598055748437657</v>
+      </c>
+      <c r="U4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T4" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="U4" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1300634613198943</v>
-      </c>
-      <c r="V4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="2" t="str">
+      <c r="W4" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0633012012784473</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="X4" s="2" t="str">
+      <c r="Z4" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="Y4" s="2" t="str">
+      <c r="AA4" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1389,97 +1451,105 @@
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="J5" t="str">
+      <c r="L5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>148.54</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
+      <c r="R5" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="R5" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92833478639930256</v>
-      </c>
-      <c r="S5" s="2" t="str">
+      <c r="T5" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91221109016962609</v>
+      </c>
+      <c r="U5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T5" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="U5" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1322177830650146</v>
-      </c>
-      <c r="V5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="2" t="str">
+      <c r="W5" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0653282492964862</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="X5" s="2" t="str">
+      <c r="Z5" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Lattice](#2d-lattice)</v>
       </c>
-      <c r="Y5" s="2" t="str">
+      <c r="AA5" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1489,97 +1559,105 @@
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6">
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>49</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>154.68</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6">
+      <c r="R6" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="R6" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.8995640802092415</v>
-      </c>
-      <c r="S6" s="2" t="str">
+      <c r="T6" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88394008530899715</v>
+      </c>
+      <c r="U6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="U6" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.2167272496405854</v>
-      </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="2" t="str">
+      <c r="W6" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1448450378706885</v>
+      </c>
+      <c r="X6" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="X6" s="2" t="str">
+      <c r="Z6" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="Y6" s="2" t="str">
+      <c r="AA6" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1595,91 +1673,99 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7">
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>148.54</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7">
+      <c r="R7" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R7" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
-      </c>
-      <c r="S7" s="2" t="str">
+      <c r="T7" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
+      </c>
+      <c r="U7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="U7" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1659434191563129</v>
-      </c>
-      <c r="V7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0970614311904239</v>
+      </c>
+      <c r="X7" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="Z7" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="AA7" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1695,91 +1781,99 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8">
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>50</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>147.55000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8">
+      <c r="R8" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="R8" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.9014821272885789</v>
-      </c>
-      <c r="S8" s="2" t="str">
+      <c r="T8" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.88582481896637244</v>
+      </c>
+      <c r="U8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="U8" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.158172556190346</v>
-      </c>
-      <c r="V8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="2" t="str">
+      <c r="W8" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0897496578170667</v>
+      </c>
+      <c r="X8" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="Z8" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="Y8" s="2" t="str">
+      <c r="AA8" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1795,91 +1889,99 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="J9" t="str">
+      <c r="L9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9">
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>148.53</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9">
+      <c r="R9" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="R9" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.88805579773321708</v>
-      </c>
-      <c r="S9" s="2" t="str">
+      <c r="T9" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87263168336474561</v>
+      </c>
+      <c r="U9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="U9" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1834913931485316</v>
-      </c>
-      <c r="V9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="2" t="str">
+      <c r="W9" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1135727002160909</v>
+      </c>
+      <c r="X9" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="Z9" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="Y9" s="2" t="str">
+      <c r="AA9" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1895,85 +1997,93 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10">
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>49</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>141.77000000000001</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10">
+      <c r="R10" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="R10" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2448125544899737</v>
-      </c>
-      <c r="S10" s="2" t="str">
+      <c r="T10" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.223192143636544</v>
+      </c>
+      <c r="U10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="U10" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.8058821871442029</v>
-      </c>
-      <c r="V10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="2" t="str">
+      <c r="W10" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.75827201481100404</v>
+      </c>
+      <c r="X10" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="Z10" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Gyroid](#gyroid)</v>
       </c>
-      <c r="Y10" s="2" t="str">
+      <c r="AA10" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -1984,99 +2094,107 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11">
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>29</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>151.01</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11">
+      <c r="R11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="R11" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.3215344376634699</v>
-      </c>
-      <c r="S11" s="2" t="str">
+      <c r="T11" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2985814899315544</v>
+      </c>
+      <c r="U11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="U11" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.80857144412283</v>
-      </c>
-      <c r="V11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="2" t="str">
+      <c r="W11" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76080239498326518</v>
+      </c>
+      <c r="X11" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="Z11" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="Y11" s="2" t="str">
+      <c r="AA11" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2087,12 +2205,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2100,86 +2218,94 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="J12" t="str">
+      <c r="L12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12">
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12">
         <v>17</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>36</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>190.54</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12">
+      <c r="R12" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>High</v>
+      </c>
+      <c r="S12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="R12" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>2.0254577157802962</v>
-      </c>
-      <c r="S12" s="2" t="str">
+      <c r="T12" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.9902787421882751</v>
+      </c>
+      <c r="U12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="U12" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.6656625993664127</v>
-      </c>
-      <c r="V12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" s="2" t="str">
+      <c r="W12" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.62633636585837626</v>
+      </c>
+      <c r="X12" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="Z12" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="Y12" s="2" t="str">
+      <c r="AA12" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2190,12 +2316,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** High
 - **Print Time:** Ultra-High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2203,86 +2329,94 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13">
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>29</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>97.57</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13">
+      <c r="R13" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="S13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="R13" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.63103748910200519</v>
-      </c>
-      <c r="S13" s="2" t="str">
+      <c r="T13" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.62007737327646073</v>
+      </c>
+      <c r="U13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="U13" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0940881667956823</v>
-      </c>
-      <c r="V13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W13" s="2" t="str">
+      <c r="W13" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0294512670108069</v>
+      </c>
+      <c r="X13" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="Z13" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="Y13" s="2" t="str">
+      <c r="AA13" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2298,7 +2432,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2308,84 +2442,92 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="str">
+      <c r="L14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14">
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>148.6</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14">
+      <c r="R14" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="R14" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.93600697471665206</v>
-      </c>
-      <c r="S14" s="2" t="str">
+      <c r="T14" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.91975002479912704</v>
+      </c>
+      <c r="U14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="T14" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="V14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="U14" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1233908992984614</v>
-      </c>
-      <c r="V14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14" s="2" t="str">
+      <c r="W14" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0570228430659732</v>
+      </c>
+      <c r="X14" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="Z14" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="Y14" s="2" t="str">
+      <c r="AA14" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2396,13 +2538,13 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2410,86 +2552,94 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15" t="str">
+      <c r="L15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15">
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15">
         <v>8</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>147.52000000000001</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15">
+      <c r="R15" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="R15" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92449869224062775</v>
-      </c>
-      <c r="S15" s="2" t="str">
+      <c r="T15" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90844162285487551</v>
+      </c>
+      <c r="U15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="U15" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1291087665609367</v>
-      </c>
-      <c r="V15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="2" t="str">
+      <c r="W15" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.062402908289779</v>
+      </c>
+      <c r="X15" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="Z15" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
-      <c r="Y15" s="2" t="str">
+      <c r="AA15" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2505,7 +2655,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2513,86 +2663,94 @@
         <v>1.075</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16">
+      <c r="H16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="J16" t="str">
+      <c r="L16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16">
+      <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>28</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>123.92</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16">
+      <c r="R16" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="S16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="R16" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.4346992153443765</v>
-      </c>
-      <c r="S16" s="2" t="str">
+      <c r="T16" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.4097807757166949</v>
+      </c>
+      <c r="U16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T16" s="3">
+      <c r="V16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="U16" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.61118364015697213</v>
-      </c>
-      <c r="V16" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="2" t="str">
+      <c r="W16" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.57507593248046729</v>
+      </c>
+      <c r="X16" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="Z16" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="Y16" s="2" t="str">
+      <c r="AA16" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2603,12 +2761,12 @@
 - **Density Calculation:** Unknown
 - **Material Usage:** Normal-Low
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2616,86 +2774,94 @@
         <v>1.25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17">
+      <c r="H17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="H17" t="str">
+      <c r="J17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="J17" t="str">
+      <c r="L17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17">
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>24</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>148.63</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17">
+      <c r="R17" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="R17" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.5421098517872711</v>
-      </c>
-      <c r="S17" s="2" t="str">
+      <c r="T17" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.5153258605297093</v>
+      </c>
+      <c r="U17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="U17" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.68199680943375651</v>
-      </c>
-      <c r="V17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="2" t="str">
+      <c r="W17" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.64170557810266515</v>
+      </c>
+      <c r="X17" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="Z17" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="Y17" s="2" t="str">
+      <c r="AA17" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2707,12 +2873,12 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** High
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2722,84 +2888,92 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18">
+      <c r="H18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="H18" t="str">
+      <c r="J18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="J18" t="str">
+      <c r="L18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18">
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>46</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>148.21</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18">
+      <c r="R18" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="R18" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.89380993897122929</v>
-      </c>
-      <c r="S18" s="2" t="str">
+      <c r="T18" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.87828588433687138</v>
+      </c>
+      <c r="U18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="U18" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1733389952906987</v>
-      </c>
-      <c r="V18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="2" t="str">
+      <c r="W18" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.1040200890508012</v>
+      </c>
+      <c r="X18" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="Y18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="Z18" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="Y18" s="2" t="str">
+      <c r="AA18" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2815,7 +2989,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2823,86 +2997,94 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19">
+      <c r="H19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19" t="str">
+      <c r="J19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="J19" t="str">
+      <c r="L19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19">
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>30</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>148.72</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19">
+      <c r="R19" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="R19" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.0932868352223191</v>
-      </c>
-      <c r="S19" s="2" t="str">
+      <c r="T19" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.0742981847038984</v>
+      </c>
+      <c r="U19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="T19" s="3">
+        <v>Normal</v>
+      </c>
+      <c r="V19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="U19" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.96255695187019885</v>
-      </c>
-      <c r="V19" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19" s="2" t="str">
+      <c r="W19" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.90569069636769506</v>
+      </c>
+      <c r="X19" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="Z19" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="Y19" s="2" t="str">
+      <c r="AA19" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -2912,13 +3094,13 @@
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal-High
-- **Material/Time (Higher better):** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2926,86 +3108,94 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20">
+      <c r="H20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="H20" t="str">
+      <c r="J20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="J20" t="str">
+      <c r="L20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20">
+      <c r="M20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>50</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>49.39</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20">
+      <c r="R20" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-Low</v>
+      </c>
+      <c r="S20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="R20" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.32606800348735832</v>
-      </c>
-      <c r="S20" s="2" t="str">
+      <c r="T20" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.32040472175379425</v>
+      </c>
+      <c r="U20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="U20" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.0718203998091715</v>
-      </c>
-      <c r="V20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="2" t="str">
+      <c r="W20" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0084990424703455</v>
+      </c>
+      <c r="X20" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="Z20" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="Y20" s="2" t="str">
+      <c r="AA20" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3021,85 +3211,93 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="H21" t="str">
+      <c r="J21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="J21" t="str">
+      <c r="L21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21">
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>12.33</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21">
+      <c r="R21" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="S21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="R21" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.14577157802964255</v>
-      </c>
-      <c r="S21" s="2" t="str">
+      <c r="T21" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.1432397579605198</v>
+      </c>
+      <c r="U21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="U21" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.59852376361078963</v>
-      </c>
-      <c r="V21" t="s">
-        <v>25</v>
-      </c>
-      <c r="W21" s="2" t="str">
+      <c r="W21" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.56316398027570336</v>
+      </c>
+      <c r="X21" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="Z21" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="Y21" s="2" t="str">
+      <c r="AA21" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3110,90 +3308,98 @@
 - **Density Calculation:** % of layer before top shell layers
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
-- **Material/Time (Higher better):** Extra Low
+- **Material/Time (Higher better):** Low
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="H22" t="str">
+      <c r="J22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="J22" t="str">
+      <c r="L22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22">
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>40</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>144.69999999999999</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22">
+      <c r="R22" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="R22" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>1.2275501307759371</v>
-      </c>
-      <c r="S22" s="2" t="str">
+      <c r="T22" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2062295407201666</v>
+      </c>
+      <c r="U22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="U22" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>0.83410451302470801</v>
-      </c>
-      <c r="V22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" s="2" t="str">
+      <c r="W22" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.78482701286090395</v>
+      </c>
+      <c r="X22" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Y22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="Z22" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="Y22" s="2" t="str">
+      <c r="AA22" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3204,90 +3410,98 @@
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
-- **Material/Time (Higher better):** Low
+- **Material/Time (Higher better):** Normal-Low
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23">
+    <row r="23" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="J23" t="str">
+      <c r="L23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23">
+      <c r="M23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>148.55000000000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23">
+      <c r="R23" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="R23" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGE(Infill[Total Time])</f>
-        <v>0.92258064516129035</v>
-      </c>
-      <c r="S23" s="2" t="str">
+      <c r="T23" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90655688919750022</v>
+      </c>
+      <c r="U23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="U23" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGE(Infill[g/t])</f>
-        <v>1.1393561309338132</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W23" s="2" t="str">
+      <c r="W23" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0720448755071696</v>
+      </c>
+      <c r="X23" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="Z23" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="Y23" s="2" t="str">
+      <c r="AA23" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
 - **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Time]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
@@ -3303,9 +3517,315 @@
 </v>
       </c>
     </row>
+    <row r="24" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>149.94</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0023564803208824</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S24">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>496</v>
+      </c>
+      <c r="T24" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93482789405812916</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V24" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.3022983870967742</v>
+      </c>
+      <c r="W24" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0493520503677369</v>
+      </c>
+      <c r="X24" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y24" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>zig-zag</v>
+      </c>
+      <c r="Z24" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AA24" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Zig Zag
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>149.84</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.0016879752653129</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="S25">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>494</v>
+      </c>
+      <c r="T25" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.93105842674337869</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="V25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.30331983805668017</v>
+      </c>
+      <c r="W25" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>1.0528977578702527</v>
+      </c>
+      <c r="X25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="Y25" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>coss-zag</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Coss Zag](#coss-zag)</v>
+      </c>
+      <c r="AA25" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Coss Zag
+Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Low
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>46</v>
+      </c>
+      <c r="P26">
+        <v>182.32</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>1.2188184173142809</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="S26">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>946</v>
+      </c>
+      <c r="T26" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.7829580398769964</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Extra-High</v>
+      </c>
+      <c r="V26" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="W26" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.6690037639314409</v>
+      </c>
+      <c r="X26" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Low</v>
+      </c>
+      <c r="Y26" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
+        <v>locked-zag</v>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AA26" s="2" t="str">
+        <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+"</f>
+        <v xml:space="preserve">### Locked Zag
+Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+- **Horizontal Strength (X-Y):** Normal-Low
+- **Vertical Strength (Z):** Normal-Low
+- **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls
+- **Material Usage:** Normal-High
+- **Print Time:** Extra-High
+- **Material/Time (Higher better):** Low
+![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
+</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
+  <conditionalFormatting sqref="T2:T26">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T23">
+  <conditionalFormatting sqref="V2:V26">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U23">
+  <conditionalFormatting sqref="W2:W26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C77CD-4FEB-4443-8ED0-9539E823167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.</t>
   </si>
   <si>
-    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.</t>
-  </si>
-  <si>
-    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.</t>
-  </si>
-  <si>
     <t>Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
 Recommended with layer anchoring to improve not perpendicular strength.</t>
   </si>
   <si>
-    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.</t>
-  </si>
-  <si>
     <t>Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.</t>
   </si>
   <si>
-    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.</t>
-  </si>
-  <si>
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
@@ -277,12 +265,6 @@
   </si>
   <si>
     <t>Ultra-High</t>
-  </si>
-  <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.</t>
-  </si>
-  <si>
-    <t>Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.</t>
   </si>
   <si>
     <t>Esthetic pattern with low strength and high print time.</t>
@@ -325,24 +307,9 @@
     <t>Zig Zag</t>
   </si>
   <si>
-    <t>Coss Zag</t>
-  </si>
-  <si>
     <t>Locked Zag</t>
   </si>
   <si>
-    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
-  </si>
-  <si>
-    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
-  </si>
-  <si>
-    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
-  </si>
-  <si>
     <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
   </si>
   <si>
@@ -350,6 +317,40 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>Cross Zag</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.</t>
+  </si>
+  <si>
+    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
+  </si>
+  <si>
+    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.</t>
+  </si>
+  <si>
+    <t>Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1065,10 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1100,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
@@ -1109,28 +1110,28 @@
         <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="V1" t="s">
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
         <v>43</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>Normal</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -1258,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1275,7 +1276,7 @@
         <v>Low</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1338,7 +1339,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1383,7 +1384,7 @@
         <v>High</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -1457,7 +1458,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1491,7 +1492,7 @@
         <v>Low</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1554,7 +1555,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
-Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
+Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1599,7 +1600,7 @@
         <v>Low</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -1707,7 +1708,7 @@
         <v>High</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -1815,7 +1816,7 @@
         <v>Normal</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1923,7 +1924,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -1997,7 +1998,7 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -2025,7 +2026,7 @@
         <v>High</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2088,7 +2089,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
-Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
+Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2099,12 +2100,12 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -2119,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2136,7 +2137,7 @@
         <v>High</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -2199,7 +2200,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
-Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
+Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2218,7 +2219,7 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2230,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -2247,7 +2248,7 @@
         <v>High</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>17</v>
@@ -2329,7 +2330,7 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2341,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2358,7 +2359,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2452,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2469,7 +2470,7 @@
         <v>Normal</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -2544,7 +2545,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2561,10 +2562,10 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2581,7 +2582,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2644,7 +2645,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
@@ -2675,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2755,7 +2756,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
-This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
+This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:** Unknown
@@ -2786,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2803,7 +2804,7 @@
         <v>Normal</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>13</v>
@@ -2898,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2915,7 +2916,7 @@
         <v>Normal</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2997,7 +2998,7 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3009,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -3026,7 +3027,7 @@
         <v>Normal</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>9</v>
@@ -3108,7 +3109,7 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3120,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3137,7 +3138,7 @@
         <v>Low</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3222,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -3239,7 +3240,7 @@
         <v>Low</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3313,7 +3314,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>21</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3341,7 +3342,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3405,6 +3406,7 @@
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:**  % of  total infill volume
@@ -3426,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -3443,7 +3445,7 @@
         <v>High</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3525,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -3545,7 +3547,7 @@
         <v>Low</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -3608,7 +3610,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Zig Zag
-Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -3627,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -3647,7 +3649,7 @@
         <v>Low</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -3692,11 +3694,11 @@
       </c>
       <c r="Y25" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
-        <v>coss-zag</v>
+        <v>cross-zag</v>
       </c>
       <c r="Z25" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Coss Zag](#coss-zag)</v>
+        <v>[Cross Zag](#cross-zag)</v>
       </c>
       <c r="AA25" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3709,15 +3711,15 @@
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
-        <v xml:space="preserve">### Coss Zag
-Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+        <v xml:space="preserve">### Cross Zag
+Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
-![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
     </row>
@@ -3729,10 +3731,10 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -3749,7 +3751,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>15</v>
@@ -3812,7 +3814,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Locked Zag
-Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C77CD-4FEB-4443-8ED0-9539E823167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA49AC-1CB2-4B38-920C-5F200A994927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
   </si>
   <si>
-    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.</t>
-  </si>
-  <si>
     <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2100,7 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="255" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2200,7 +2200,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
-Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
+Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2565,7 +2565,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2676,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -3325,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3530,7 +3530,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -3632,7 +3632,7 @@
         <v>93</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -3734,7 +3734,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26">
         <v>3</v>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36A0C1-CA40-4C90-A458-7C2666F59840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA49AC-1CB2-4B38-920C-5F200A994927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.</t>
   </si>
   <si>
-    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.</t>
-  </si>
-  <si>
-    <t>Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.</t>
-  </si>
-  <si>
     <t>Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
 Recommended with layer anchoring to improve not perpendicular strength.</t>
   </si>
   <si>
-    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.</t>
-  </si>
-  <si>
     <t>Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.</t>
   </si>
   <si>
-    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.</t>
-  </si>
-  <si>
     <t>[Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.</t>
   </si>
   <si>
@@ -277,12 +265,6 @@
   </si>
   <si>
     <t>Ultra-High</t>
-  </si>
-  <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.</t>
-  </si>
-  <si>
-    <t>Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.</t>
   </si>
   <si>
     <t>Esthetic pattern with low strength and high print time.</t>
@@ -325,24 +307,9 @@
     <t>Zig Zag</t>
   </si>
   <si>
-    <t>Coss Zag</t>
-  </si>
-  <si>
     <t>Locked Zag</t>
   </si>
   <si>
-    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.</t>
-  </si>
-  <si>
-    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.</t>
-  </si>
-  <si>
-    <t>Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.</t>
-  </si>
-  <si>
-    <t>Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
-  </si>
-  <si>
     <t>Same as [Zig Zag](#zig-zag) but increasing near walls</t>
   </si>
   <si>
@@ -350,6 +317,40 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>Cross Zag</t>
+  </si>
+  <si>
+    <t>Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.</t>
+  </si>
+  <si>
+    <t>Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.</t>
+  </si>
+  <si>
+    <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
+  </si>
+  <si>
+    <t>Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.</t>
+  </si>
+  <si>
+    <t>Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.</t>
+  </si>
+  <si>
+    <t>Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.</t>
+  </si>
+  <si>
+    <t>Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1065,10 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1100,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
@@ -1109,28 +1110,28 @@
         <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="V1" t="s">
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
         <v>43</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="120" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>Normal</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -1258,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1275,7 +1276,7 @@
         <v>Low</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1338,7 +1339,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Rectilinear
-Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Considere using new [Zig Zag](#zig-zag) infill instead.
+Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1383,7 +1384,7 @@
         <v>High</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -1457,7 +1458,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1491,7 +1492,7 @@
         <v>Low</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1554,7 +1555,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Lattice
-Low-strength pattern with good flexibility. Angle 1 and angle 2 TBD.
+Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -1599,7 +1600,7 @@
         <v>Low</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -1707,7 +1708,7 @@
         <v>High</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -1815,7 +1816,7 @@
         <v>Normal</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1923,7 +1924,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -1997,7 +1998,7 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -2025,7 +2026,7 @@
         <v>High</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2088,7 +2089,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Gyroid
-Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure.
+Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2099,12 +2100,12 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -2119,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -2136,7 +2137,7 @@
         <v>High</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -2199,7 +2200,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### TPMS-D
-Triply Periodic Minimal Surface - D. Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions.
+Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
@@ -2218,7 +2219,7 @@
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2230,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -2247,7 +2248,7 @@
         <v>High</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>17</v>
@@ -2329,7 +2330,7 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2341,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -2358,7 +2359,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2452,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2469,7 +2470,7 @@
         <v>Normal</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -2544,7 +2545,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2561,10 +2562,10 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -2581,7 +2582,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2644,7 +2645,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 2D Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve interlayer point of contact and reduce the risk of delamination.
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
@@ -2675,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2755,7 +2756,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### 3D Honeycomb
-This infill tries to generate a printable honeycomb structure by printing squares and octagons mantaining a vertical angle high enough to mantian contact with the previous layer.
+This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:** Unknown
@@ -2786,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -2803,7 +2804,7 @@
         <v>Normal</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>13</v>
@@ -2898,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2915,7 +2916,7 @@
         <v>Normal</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2997,7 +2998,7 @@
         <v>1.85</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3009,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -3026,7 +3027,7 @@
         <v>Normal</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>9</v>
@@ -3108,7 +3109,7 @@
         <v>9.99</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3120,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3137,7 +3138,7 @@
         <v>Low</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3222,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -3239,7 +3240,7 @@
         <v>Low</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3313,7 +3314,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>21</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3341,7 +3342,7 @@
         <v>Normal-High</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3405,6 +3406,7 @@
 "</f>
         <v xml:space="preserve">### Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
+Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
 - **Density Calculation:**  % of  total infill volume
@@ -3426,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -3443,7 +3445,7 @@
         <v>High</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3525,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -3545,7 +3547,7 @@
         <v>Low</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -3608,7 +3610,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Zig Zag
-Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infil Y axis for models with two symmetric parts.
+Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
@@ -3627,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -3647,7 +3649,7 @@
         <v>Low</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -3692,11 +3694,11 @@
       </c>
       <c r="Y25" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[Infill]])," ","-")</f>
-        <v>coss-zag</v>
+        <v>cross-zag</v>
       </c>
       <c r="Z25" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[Infill]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Coss Zag](#coss-zag)</v>
+        <v>[Cross Zag](#cross-zag)</v>
       </c>
       <c r="AA25" s="2" t="str">
         <f>"### "&amp;Infill[[#This Row],[Infill]]&amp;"
@@ -3709,15 +3711,15 @@
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
-        <v xml:space="preserve">### Coss Zag
-Similar to [Zig Zag](#zig-zag) but displacing each lager with Infill shift step parammeter.
+        <v xml:space="preserve">### Cross Zag
+Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
-![infill-top-coss-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-coss-zag.png?raw=true)
+![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
     </row>
@@ -3729,10 +3731,10 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -3749,7 +3751,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>15</v>
@@ -3812,7 +3814,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
 "</f>
         <v xml:space="preserve">### Locked Zag
-Adaptative version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
+Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:** Same as [Zig Zag](#zig-zag) but increasing near walls

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9EEAD-08FE-4216-8DEC-3A63CFA316B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C59A5-7D81-4F43-8A31-44709A915841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
   <si>
     <t>Concentric</t>
   </si>
@@ -440,12 +440,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Prints lines in a uniform direction for a smoother visual surface.</t>
-  </si>
-  <si>
-    <t>Similar to Monotonic but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
-  </si>
-  <si>
     <t>zig-zag</t>
   </si>
   <si>
@@ -666,6 +660,12 @@
   </si>
   <si>
     <t>OldOrder</t>
+  </si>
+  <si>
+    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
+  </si>
+  <si>
+    <t>[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,28 +1452,28 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K1" t="s">
         <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
         <v>41</v>
@@ -1530,10 +1530,10 @@
         <v>42</v>
       </c>
       <c r="AE1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG1" t="s">
         <v>89</v>
@@ -1542,13 +1542,13 @@
         <v>84</v>
       </c>
       <c r="AI1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="105" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>91</v>
@@ -1648,7 +1648,7 @@
         <v>rectilinear</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF2" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -1722,7 +1722,7 @@
         <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>64</v>
@@ -1790,7 +1790,7 @@
         <v>aligned-rectilinear</v>
       </c>
       <c r="AE3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -1865,7 +1865,7 @@
         <v>127</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>97</v>
@@ -1933,7 +1933,7 @@
         <v>zig-zag</v>
       </c>
       <c r="AE4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2007,7 +2007,7 @@
         <v>128</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>98</v>
@@ -2075,7 +2075,7 @@
         <v>cross-zag</v>
       </c>
       <c r="AE5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2149,7 +2149,7 @@
         <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>99</v>
@@ -2217,7 +2217,7 @@
         <v>locked-zag</v>
       </c>
       <c r="AE6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2291,7 +2291,7 @@
         <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>58</v>
@@ -2359,7 +2359,7 @@
         <v>line</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2427,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
         <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>57</v>
@@ -2501,7 +2501,7 @@
         <v>grid</v>
       </c>
       <c r="AE8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2566,29 +2566,40 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
         <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" t="e">
+        <v>208</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" t="e">
+        <v>Normal-Low</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R9" s="2"/>
+        <v>Low</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
       <c r="V9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
@@ -2599,34 +2610,34 @@
       </c>
       <c r="X9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Y9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
+        <v>0.90467215554012503</v>
       </c>
       <c r="Z9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
-      </c>
-      <c r="AA9" s="3" t="e">
-        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9" s="2" t="e">
-        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC9" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AD9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic</v>
       </c>
       <c r="AE9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2676,29 +2687,40 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K10" t="s">
         <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" t="e">
+        <v>207</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" t="e">
+        <v>Normal-Low</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R10" s="2"/>
+        <v>Low</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
       <c r="V10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
@@ -2709,34 +2731,34 @@
       </c>
       <c r="X10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Y10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
+        <v>0.90467215554012503</v>
       </c>
       <c r="Z10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
-      </c>
-      <c r="AA10" s="3" t="e">
-        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="2" t="e">
-        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="AD10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic-line</v>
       </c>
       <c r="AE10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2798,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
         <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>60</v>
@@ -2872,7 +2894,7 @@
         <v>triangles</v>
       </c>
       <c r="AE11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2943,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
         <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>61</v>
@@ -3017,7 +3039,7 @@
         <v>tri-hexagon</v>
       </c>
       <c r="AE12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3094,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>59</v>
@@ -3162,7 +3184,7 @@
         <v>cubic</v>
       </c>
       <c r="AE13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3239,7 +3261,7 @@
         <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>63</v>
@@ -3307,7 +3329,7 @@
         <v>adaptive-cubic</v>
       </c>
       <c r="AE14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3384,7 +3406,7 @@
         <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>68</v>
@@ -3452,7 +3474,7 @@
         <v>quarter-cubic</v>
       </c>
       <c r="AE15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3523,13 +3545,13 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K16" t="s">
         <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>66</v>
@@ -3597,7 +3619,7 @@
         <v>support-cubic</v>
       </c>
       <c r="AE16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3668,13 +3690,13 @@
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
         <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>67</v>
@@ -3742,7 +3764,7 @@
         <v>lightning</v>
       </c>
       <c r="AE17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3819,7 +3841,7 @@
         <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>62</v>
@@ -3887,7 +3909,7 @@
         <v>honeycomb</v>
       </c>
       <c r="AE18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3964,7 +3986,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>95</v>
@@ -4032,7 +4054,7 @@
         <v>3d-honeycomb</v>
       </c>
       <c r="AE19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4109,7 +4131,7 @@
         <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>94</v>
@@ -4177,7 +4199,7 @@
         <v>2d-honeycomb</v>
       </c>
       <c r="AE20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4239,13 +4261,13 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
         <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>92</v>
@@ -4313,7 +4335,7 @@
         <v>2d-lattice</v>
       </c>
       <c r="AE21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4375,13 +4397,13 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
         <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>96</v>
@@ -4449,7 +4471,7 @@
         <v>cross-hatch</v>
       </c>
       <c r="AE22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4512,13 +4534,13 @@
         <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
         <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>100</v>
@@ -4586,7 +4608,7 @@
         <v>tpms-d</v>
       </c>
       <c r="AE23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4648,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
         <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>93</v>
@@ -4722,7 +4744,7 @@
         <v>gyroid</v>
       </c>
       <c r="AE24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4784,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
         <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>56</v>
@@ -4858,7 +4880,7 @@
         <v>concentric</v>
       </c>
       <c r="AE25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF25" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4920,13 +4942,13 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s">
         <v>118</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>76</v>
@@ -4994,7 +5016,7 @@
         <v>hilbert-curve</v>
       </c>
       <c r="AE26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -5057,13 +5079,13 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K27" t="s">
         <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>65</v>
@@ -5131,7 +5153,7 @@
         <v>archimedean-chords</v>
       </c>
       <c r="AE27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -5193,13 +5215,13 @@
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s">
         <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>75</v>
@@ -5267,7 +5289,7 @@
         <v>octagram-spiral</v>
       </c>
       <c r="AE28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C59A5-7D81-4F43-8A31-44709A915841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932860C-A094-4F2F-8095-75715BF224A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -440,9 +440,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>zig-zag</t>
-  </si>
-  <si>
     <t>concentric</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.</t>
+  </si>
+  <si>
+    <t>rectilinear</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,28 +1452,28 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" t="s">
-        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
         <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
         <v>41</v>
@@ -1530,10 +1530,10 @@
         <v>42</v>
       </c>
       <c r="AE1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG1" t="s">
         <v>89</v>
@@ -1542,13 +1542,13 @@
         <v>84</v>
       </c>
       <c r="AI1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK1" t="s">
         <v>165</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="105" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>91</v>
@@ -1648,7 +1648,7 @@
         <v>rectilinear</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF2" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -1682,11 +1682,11 @@
       </c>
       <c r="AI2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "zig-zag", ipRectilinear },</v>
+        <v xml:space="preserve"> { "rectilinear", ipRectilinear },</v>
       </c>
       <c r="AJ2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("zig-zag");</v>
+        <v>def-&gt;enum_values.push_back("rectilinear");</v>
       </c>
       <c r="AK2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
@@ -1722,7 +1722,7 @@
         <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>64</v>
@@ -1790,7 +1790,7 @@
         <v>aligned-rectilinear</v>
       </c>
       <c r="AE3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF3" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -1865,7 +1865,7 @@
         <v>127</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>97</v>
@@ -1933,7 +1933,7 @@
         <v>zig-zag</v>
       </c>
       <c r="AE4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2007,7 +2007,7 @@
         <v>128</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>98</v>
@@ -2075,7 +2075,7 @@
         <v>cross-zag</v>
       </c>
       <c r="AE5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2149,7 +2149,7 @@
         <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>99</v>
@@ -2217,7 +2217,7 @@
         <v>locked-zag</v>
       </c>
       <c r="AE6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2291,7 +2291,7 @@
         <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>58</v>
@@ -2359,7 +2359,7 @@
         <v>line</v>
       </c>
       <c r="AE7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2427,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
         <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>57</v>
@@ -2501,7 +2501,7 @@
         <v>grid</v>
       </c>
       <c r="AE8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2566,19 +2566,19 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
         <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -2637,7 +2637,7 @@
         <v>monotonic</v>
       </c>
       <c r="AE9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2687,19 +2687,19 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
         <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>monotonic-line</v>
       </c>
       <c r="AE10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2820,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
         <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>60</v>
@@ -2894,7 +2894,7 @@
         <v>triangles</v>
       </c>
       <c r="AE11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -2965,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
         <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>61</v>
@@ -3039,7 +3039,7 @@
         <v>tri-hexagon</v>
       </c>
       <c r="AE12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3116,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>59</v>
@@ -3184,7 +3184,7 @@
         <v>cubic</v>
       </c>
       <c r="AE13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3261,7 +3261,7 @@
         <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>63</v>
@@ -3329,7 +3329,7 @@
         <v>adaptive-cubic</v>
       </c>
       <c r="AE14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3406,7 +3406,7 @@
         <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>68</v>
@@ -3474,7 +3474,7 @@
         <v>quarter-cubic</v>
       </c>
       <c r="AE15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3545,13 +3545,13 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K16" t="s">
         <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>66</v>
@@ -3619,7 +3619,7 @@
         <v>support-cubic</v>
       </c>
       <c r="AE16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3690,13 +3690,13 @@
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
         <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>67</v>
@@ -3764,7 +3764,7 @@
         <v>lightning</v>
       </c>
       <c r="AE17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3841,7 +3841,7 @@
         <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>62</v>
@@ -3909,7 +3909,7 @@
         <v>honeycomb</v>
       </c>
       <c r="AE18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -3986,7 +3986,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>95</v>
@@ -4054,7 +4054,7 @@
         <v>3d-honeycomb</v>
       </c>
       <c r="AE19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4131,7 +4131,7 @@
         <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>94</v>
@@ -4199,7 +4199,7 @@
         <v>2d-honeycomb</v>
       </c>
       <c r="AE20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4261,13 +4261,13 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
         <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>92</v>
@@ -4335,7 +4335,7 @@
         <v>2d-lattice</v>
       </c>
       <c r="AE21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4397,13 +4397,13 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
         <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>96</v>
@@ -4471,7 +4471,7 @@
         <v>cross-hatch</v>
       </c>
       <c r="AE22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4534,13 +4534,13 @@
         <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
         <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>100</v>
@@ -4608,7 +4608,7 @@
         <v>tpms-d</v>
       </c>
       <c r="AE23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4670,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s">
         <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>93</v>
@@ -4744,7 +4744,7 @@
         <v>gyroid</v>
       </c>
       <c r="AE24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4806,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
         <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>56</v>
@@ -4880,7 +4880,7 @@
         <v>concentric</v>
       </c>
       <c r="AE25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF25" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -4942,13 +4942,13 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
         <v>118</v>
       </c>
       <c r="L26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>76</v>
@@ -5016,7 +5016,7 @@
         <v>hilbert-curve</v>
       </c>
       <c r="AE26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -5079,13 +5079,13 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
         <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>65</v>
@@ -5153,7 +5153,7 @@
         <v>archimedean-chords</v>
       </c>
       <c r="AE27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
@@ -5215,13 +5215,13 @@
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s">
         <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>75</v>
@@ -5289,7 +5289,7 @@
         <v>octagram-spiral</v>
       </c>
       <c r="AE28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932860C-A094-4F2F-8095-75715BF224A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144B92D-6041-4F78-91EA-B288316198C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
   <si>
     <t>Concentric</t>
   </si>
@@ -653,12 +653,6 @@
     <t>Cubic / Support</t>
   </si>
   <si>
-    <t>NewOrder</t>
-  </si>
-  <si>
-    <t>OldOrder</t>
-  </si>
-  <si>
     <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
   </si>
   <si>
@@ -666,6 +660,9 @@
   </si>
   <si>
     <t>rectilinear</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -972,11 +969,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AK31">
-  <autoFilter ref="E1:AK31" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <tableColumns count="33">
-    <tableColumn id="22" xr3:uid="{8D3A2FCE-7458-4DCB-BCE6-4671B3808244}" name="OldOrder"/>
-    <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="NewOrder"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AJ31">
+  <autoFilter ref="E1:AJ31" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AJ31">
+    <sortCondition ref="E1:E31"/>
+  </sortState>
+  <tableColumns count="32">
+    <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Order"/>
     <tableColumn id="27" xr3:uid="{6EDDF2A1-C22E-40EB-B691-74F6EDAEF4D3}" name="Is Infill"/>
     <tableColumn id="28" xr3:uid="{B77876BB-7641-40A4-87A8-999F2ECFE38D}" name="Is Surface"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="name" totalsRowLabel="Total"/>
@@ -1396,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,44 +1406,43 @@
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" customWidth="1"/>
-    <col min="33" max="33" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="50.42578125" customWidth="1"/>
-    <col min="35" max="35" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" customWidth="1"/>
+    <col min="32" max="32" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="50.42578125" customWidth="1"/>
+    <col min="34" max="34" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1452,106 +1450,103 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L1" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Z1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="AA1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AC1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="AD1" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="AE1" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="AG1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AH1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="AI1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1559,106 +1554,351 @@
         <v>50</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2">
+        <v>157</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="O2" t="str">
+      <c r="N2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="P2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="W2">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>480</v>
+      </c>
+      <c r="X2" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90467215554012503</v>
+      </c>
+      <c r="Y2" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="AC2" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
+        <v>monotonic</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
+        <v>![param_monotonic.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg.svg?raw=true)</v>
+      </c>
+      <c r="AF2" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Monotonic](#monotonic)</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+","")</f>
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
+        <v xml:space="preserve"> { "monotonic", ipMonotonic },</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
+        <v>def-&gt;enum_values.push_back("monotonic");</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
+        <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="U3" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="W3">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>480</v>
+      </c>
+      <c r="X3" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>0.90467215554012503</v>
+      </c>
+      <c r="Y3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Ultra-Low</v>
+      </c>
+      <c r="AC3" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
+        <v>monotonic-line</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
+        <v>![param_monotonicline.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg.svg?raw=true)</v>
+      </c>
+      <c r="AF3" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>[Monotonic line](#monotonic-line)</v>
+      </c>
+      <c r="AG3" s="2" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+","")</f>
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
+        <v xml:space="preserve"> { "monotonicline", ipMonotonicLine },</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
+        <v>def-&gt;enum_values.push_back("monotonicline");</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
+        <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>Low</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="U2">
+      <c r="T4">
         <v>148.6</v>
       </c>
-      <c r="V2" s="2">
+      <c r="U4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="W2" s="2" t="str">
+      <c r="V4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X2">
+      <c r="W4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="X4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.91786529114175186</v>
       </c>
-      <c r="Z2" s="2" t="str">
+      <c r="Y4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="Z4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AA4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0591933211831519</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AB4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD2" s="2" t="str">
+      <c r="AC4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AD4" t="s">
         <v>178</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AE4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zig-zag.svg?raw=true)</v>
       </c>
-      <c r="AG2" s="2" t="str">
+      <c r="AF4" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="AH2" s="2" t="str">
+      <c r="AG4" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1680,127 +1920,124 @@
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AH4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "rectilinear", ipRectilinear },</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AI4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("rectilinear");</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AJ4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Rectilinear"));</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G3" t="b">
+    <row r="5" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I5" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J5" t="s">
         <v>115</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K5" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N3">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="O3" t="str">
+      <c r="N5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P3">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="P5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S3">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="T3">
+      <c r="S5">
         <v>8</v>
       </c>
-      <c r="U3">
+      <c r="T5">
         <v>148.6</v>
       </c>
-      <c r="V3" s="2">
+      <c r="U5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="W3" s="2" t="str">
+      <c r="V5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X3">
+      <c r="W5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="X5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.91975002479912704</v>
       </c>
-      <c r="Z3" s="2" t="str">
+      <c r="Y5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="Z5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AA5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0570228430659732</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AB5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD3" s="2" t="str">
+      <c r="AC5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD5" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AE5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
       </c>
-      <c r="AG3" s="2" t="str">
+      <c r="AF5" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="AH3" s="2" t="str">
+      <c r="AG5" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1823,127 +2060,124 @@
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AH5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "alignedrectilinear", ipAlignedRectilinear },</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AI5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("alignedrectilinear");</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AJ5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Aligned Rectilinear"));</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>2.1</v>
-      </c>
-      <c r="G4" t="b">
+    <row r="6" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="b">
+      <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H6" t="s">
         <v>85</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J6" t="s">
         <v>127</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K6" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N4">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="O4" t="str">
+      <c r="N6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P4">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="P6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S4">
+      <c r="R6">
         <v>8</v>
       </c>
-      <c r="T4">
+      <c r="S6">
         <v>16</v>
       </c>
-      <c r="U4">
+      <c r="T6">
         <v>149.94</v>
       </c>
-      <c r="V4" s="2">
+      <c r="U6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0023564803208824</v>
       </c>
-      <c r="W4" s="2" t="str">
+      <c r="V6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X4">
+      <c r="W6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>496</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="X6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.93482789405812916</v>
       </c>
-      <c r="Z4" s="2" t="str">
+      <c r="Y6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="Z6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3022983870967742</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AA6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0493520503677369</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AB6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD4" s="2" t="str">
+      <c r="AC6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>zig-zag</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD6" t="s">
         <v>199</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AE6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
       </c>
-      <c r="AG4" s="2" t="str">
+      <c r="AF6" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AH4" s="2" t="str">
+      <c r="AG6" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1965,127 +2199,124 @@
 ![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
 </v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AH6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "zigzag", ipZigZag },</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AI6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("zigzag");</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AJ6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Zig Zag"));</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G5" t="b">
+    <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I7" t="s">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J7" t="s">
         <v>128</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K7" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N5">
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="O5" t="str">
+      <c r="N7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="P5">
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="P7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S5">
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="T5">
+      <c r="S7">
         <v>14</v>
       </c>
-      <c r="U5">
+      <c r="T7">
         <v>149.84</v>
       </c>
-      <c r="V5" s="2">
+      <c r="U7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0016879752653129</v>
       </c>
-      <c r="W5" s="2" t="str">
+      <c r="V7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X5">
+      <c r="W7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>494</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="X7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.93105842674337869</v>
       </c>
-      <c r="Z5" s="2" t="str">
+      <c r="Y7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="Z7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30331983805668017</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AA7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0528977578702527</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AB7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD5" s="2" t="str">
+      <c r="AC7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-zag</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD7" t="s">
         <v>202</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AE7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
       </c>
-      <c r="AG5" s="2" t="str">
+      <c r="AF7" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cross Zag](#cross-zag)</v>
       </c>
-      <c r="AH5" s="2" t="str">
+      <c r="AG7" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2107,127 +2338,124 @@
 ![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AH7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosszag", ipCrossZag },</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AI7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosszag");</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AJ7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Zag"));</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G6" t="b">
+    <row r="8" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="H6" t="b">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H8" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I8" t="s">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J8" t="s">
         <v>129</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K8" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="N6">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="O6" t="str">
+      <c r="N8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P6">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="P8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S6">
+      <c r="R8">
         <v>15</v>
       </c>
-      <c r="T6">
+      <c r="S8">
         <v>46</v>
       </c>
-      <c r="U6">
+      <c r="T8">
         <v>182.32</v>
       </c>
-      <c r="V6" s="2">
+      <c r="U8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2188184173142809</v>
       </c>
-      <c r="W6" s="2" t="str">
+      <c r="V8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="X6">
+      <c r="W8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>946</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="X8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.7829580398769964</v>
       </c>
-      <c r="Z6" s="2" t="str">
+      <c r="Y8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-High</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="Z8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AA8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.6690037639314409</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="AB8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD6" s="2" t="str">
+      <c r="AC8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>locked-zag</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD8" t="s">
         <v>200</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AE8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
       </c>
-      <c r="AG6" s="2" t="str">
+      <c r="AF8" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AH6" s="2" t="str">
+      <c r="AG8" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2249,127 +2477,124 @@
 ![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
 </v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AH8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lockedzag", ipLockedZag },</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AI8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lockedzag");</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AJ8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Locked Zag"));</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="b">
+    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="H7" t="b">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I9" t="s">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J9" t="s">
         <v>105</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K9" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N7">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="O7" t="str">
+      <c r="N9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P7">
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="P9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S7">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="T7">
+      <c r="S9">
         <v>49</v>
       </c>
-      <c r="U7">
+      <c r="T9">
         <v>154.68</v>
       </c>
-      <c r="V7" s="2">
+      <c r="U9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="V9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X7">
+      <c r="W9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="X9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.88394008530899715</v>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Y9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="Z9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AA9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.1448450378706885</v>
       </c>
-      <c r="AC7" t="str">
+      <c r="AB9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AC9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD9" t="s">
         <v>181</v>
       </c>
-      <c r="AF7" t="str">
+      <c r="AE9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AF9" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AG9" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2391,127 +2616,118 @@
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 </v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AH9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "line", ipLine },</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AI9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("line");</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AJ9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Line"));</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8" t="str">
+      <c r="N10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P8">
+      <c r="O10">
         <v>6</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="P10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S8">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="T8">
+      <c r="S10">
         <v>6</v>
       </c>
-      <c r="U8">
+      <c r="T10">
         <v>148.87</v>
       </c>
-      <c r="V8" s="2">
+      <c r="U10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="W8" s="2" t="str">
+      <c r="V10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X8">
+      <c r="W10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="X10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.91598055748437657</v>
       </c>
-      <c r="Z8" s="2" t="str">
+      <c r="Y10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="Z10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AA10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0633012012784473</v>
       </c>
-      <c r="AC8" t="str">
+      <c r="AB10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD8" s="2" t="str">
+      <c r="AC10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AD10" t="s">
         <v>179</v>
       </c>
-      <c r="AF8" t="str">
+      <c r="AE10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
       </c>
-      <c r="AG8" s="2" t="str">
+      <c r="AF10" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="AH8" s="2" t="str">
+      <c r="AG10" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2533,378 +2749,127 @@
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AH10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "grid", ipGrid },</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AI10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("grid");</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="AJ10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Grid"));</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
+    <row r="11" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
+      <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9" t="str">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>High</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="R9" s="2" t="s">
+        <v>Normal</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="U11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="str">
+        <v>0.9863792094927718</v>
+      </c>
+      <c r="V11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="X9">
+        <v>Normal</v>
+      </c>
+      <c r="W11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="Y9" s="2">
+        <v>470</v>
+      </c>
+      <c r="X11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Z9" s="2" t="str">
+        <v>0.88582481896637244</v>
+      </c>
+      <c r="Y11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA9" s="3">
-        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AD9" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>monotonic</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF9" t="str">
-        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonic.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg.svg?raw=true)</v>
-      </c>
-      <c r="AG9" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Monotonic](#monotonic)</v>
-      </c>
-      <c r="AH9" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
-"&amp;Infill[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-","")</f>
-        <v/>
-      </c>
-      <c r="AI9" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "monotonic", ipMonotonic },</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("monotonic");</v>
-      </c>
-      <c r="AK9" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="75" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>0.1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="V10" s="2">
-        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="X10">
-        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="Y10" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Z10" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="AA10" s="3">
-        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AD10" s="2" t="str">
-        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>monotonic-line</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF10" t="str">
-        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonicline.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg.svg?raw=true)</v>
-      </c>
-      <c r="AG10" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Monotonic line](#monotonic-line)</v>
-      </c>
-      <c r="AH10" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
-"&amp;Infill[[#This Row],[Desc]]&amp;"
-- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
-- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
-- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
-- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
-- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
-- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
-","")</f>
-        <v/>
-      </c>
-      <c r="AI10" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "monotonicline", ipMonotonicLine },</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("monotonicline");</v>
-      </c>
-      <c r="AK10" t="str">
-        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Normal</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>50</v>
-      </c>
-      <c r="U11">
-        <v>147.55000000000001</v>
-      </c>
-      <c r="V11" s="2">
-        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0.9863792094927718</v>
-      </c>
-      <c r="W11" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="X11">
-        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>470</v>
-      </c>
-      <c r="Y11" s="2">
-        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Z11" s="2" t="str">
-        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="AA11" s="3">
+      <c r="Z11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AA11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0897496578170667</v>
       </c>
-      <c r="AC11" t="str">
+      <c r="AB11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD11" s="2" t="str">
+      <c r="AC11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>183</v>
       </c>
-      <c r="AF11" t="str">
+      <c r="AE11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
       </c>
-      <c r="AG11" s="2" t="str">
+      <c r="AF11" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="AH11" s="2" t="str">
+      <c r="AG11" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2926,20 +2891,20 @@
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 </v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AH11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "triangles", ipTriangles },</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AI11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("triangles");</v>
       </c>
-      <c r="AK11" t="str">
+      <c r="AJ11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Triangles"));</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2950,106 +2915,103 @@
         <v>71</v>
       </c>
       <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>7.1</v>
+        <v>10</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N12">
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="O12" t="str">
+      <c r="N12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P12">
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="P12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
       <c r="S12">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="T12">
-        <v>43</v>
-      </c>
-      <c r="U12">
         <v>148.53</v>
       </c>
-      <c r="V12" s="2">
+      <c r="U12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="W12" s="2" t="str">
+      <c r="V12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X12">
+      <c r="W12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="X12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.87263168336474561</v>
       </c>
-      <c r="Z12" s="2" t="str">
+      <c r="Y12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="Z12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AA12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.1135727002160909</v>
       </c>
-      <c r="AC12" t="str">
+      <c r="AB12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD12" s="2" t="str">
+      <c r="AC12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>184</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="AE12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
       </c>
-      <c r="AG12" s="2" t="str">
+      <c r="AF12" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="AH12" s="2" t="str">
+      <c r="AG12" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3071,20 +3033,20 @@
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 </v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AH12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tri-hexagon", ipStars },</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AI12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tri-hexagon");</v>
       </c>
-      <c r="AK12" t="str">
+      <c r="AJ12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Tri-hexagon"));</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3095,106 +3057,103 @@
         <v>72</v>
       </c>
       <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
         <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <v>6</v>
       </c>
-      <c r="O13" t="str">
+      <c r="N13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P13">
+      <c r="O13">
         <v>6</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="P13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
       <c r="S13">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="T13">
-        <v>50</v>
-      </c>
-      <c r="U13">
         <v>148.54</v>
       </c>
-      <c r="V13" s="2">
+      <c r="U13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="W13" s="2" t="str">
+      <c r="V13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X13">
+      <c r="W13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="X13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.88582481896637244</v>
       </c>
-      <c r="Z13" s="2" t="str">
+      <c r="Y13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="Z13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AA13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0970614311904239</v>
       </c>
-      <c r="AC13" t="str">
+      <c r="AB13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD13" s="2" t="str">
+      <c r="AC13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>182</v>
       </c>
-      <c r="AF13" t="str">
+      <c r="AE13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
       </c>
-      <c r="AG13" s="2" t="str">
+      <c r="AF13" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="AH13" s="2" t="str">
+      <c r="AG13" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3216,20 +3175,20 @@
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AH13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "cubic", ipCubic },</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AI13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("cubic");</v>
       </c>
-      <c r="AK13" t="str">
+      <c r="AJ13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cubic"));</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3242,104 +3201,101 @@
       <c r="E14">
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>8.1</v>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14" t="str">
+      <c r="N14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="P14">
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="P14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
       <c r="S14">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="T14">
-        <v>29</v>
-      </c>
-      <c r="U14">
         <v>97.57</v>
       </c>
-      <c r="V14" s="2">
+      <c r="U14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="W14" s="2" t="str">
+      <c r="V14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="X14">
+      <c r="W14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="X14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.62007737327646073</v>
       </c>
-      <c r="Z14" s="2" t="str">
+      <c r="Y14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="Z14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AA14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0294512670108069</v>
       </c>
-      <c r="AC14" t="str">
+      <c r="AB14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD14" s="2" t="str">
+      <c r="AC14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" t="str">
+      <c r="AE14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
       </c>
-      <c r="AG14" s="2" t="str">
+      <c r="AF14" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="AH14" s="2" t="str">
+      <c r="AG14" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3361,20 +3317,20 @@
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AH14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "adaptivecubic", ipAdaptiveCubic },</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AI14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("adaptivecubic");</v>
       </c>
-      <c r="AK14" t="str">
+      <c r="AJ14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Adaptive Cubic"));</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3385,106 +3341,103 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>8.1999999999999993</v>
+        <v>13</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="O15" t="str">
+      <c r="N15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P15">
+      <c r="O15">
         <v>6</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="P15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
       <c r="S15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
         <v>148.55000000000001</v>
       </c>
-      <c r="V15" s="2">
+      <c r="U15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="W15" s="2" t="str">
+      <c r="V15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X15">
+      <c r="W15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="X15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.90655688919750022</v>
       </c>
-      <c r="Z15" s="2" t="str">
+      <c r="Y15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="Z15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AA15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0720448755071696</v>
       </c>
-      <c r="AC15" t="str">
+      <c r="AB15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD15" s="2" t="str">
+      <c r="AC15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>198</v>
       </c>
-      <c r="AF15" t="str">
+      <c r="AE15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
       </c>
-      <c r="AG15" s="2" t="str">
+      <c r="AF15" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="AH15" s="2" t="str">
+      <c r="AG15" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3506,20 +3459,20 @@
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AH15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "quartercubic", ipQuarterCubic },</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AI15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("quartercubic");</v>
       </c>
-      <c r="AK15" t="str">
+      <c r="AJ15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Quarter Cubic"));</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3530,106 +3483,103 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>8.3000000000000007</v>
+        <v>14</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" t="s">
         <v>150</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="O16" t="str">
+      <c r="N16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P16">
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="P16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
       <c r="S16">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="T16">
-        <v>50</v>
-      </c>
-      <c r="U16">
         <v>49.39</v>
       </c>
-      <c r="V16" s="2">
+      <c r="U16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="W16" s="2" t="str">
+      <c r="V16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="X16">
+      <c r="W16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="X16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.32040472175379425</v>
       </c>
-      <c r="Z16" s="2" t="str">
+      <c r="Y16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="Z16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AA16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0084990424703455</v>
       </c>
-      <c r="AC16" t="str">
+      <c r="AB16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD16" s="2" t="str">
+      <c r="AC16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>195</v>
       </c>
-      <c r="AF16" t="str">
+      <c r="AE16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
       </c>
-      <c r="AG16" s="2" t="str">
+      <c r="AF16" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="AH16" s="2" t="str">
+      <c r="AG16" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3651,20 +3601,20 @@
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AH16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "supportcubic", ipSupportCubic },</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AI16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("supportcubic");</v>
       </c>
-      <c r="AK16" t="str">
+      <c r="AJ16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Support Cubic"));</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3675,106 +3625,103 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>8.4</v>
+        <v>15</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N17">
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="O17" t="str">
+      <c r="N17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P17">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="P17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
       <c r="S17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="T17">
-        <v>16</v>
-      </c>
-      <c r="U17">
         <v>12.33</v>
       </c>
-      <c r="V17" s="2">
+      <c r="U17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="W17" s="2" t="str">
+      <c r="V17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="X17">
+      <c r="W17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="X17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.1432397579605198</v>
       </c>
-      <c r="Z17" s="2" t="str">
+      <c r="Y17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="Z17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AA17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.56316398027570336</v>
       </c>
-      <c r="AC17" t="str">
+      <c r="AB17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD17" s="2" t="str">
+      <c r="AC17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>196</v>
       </c>
-      <c r="AF17" t="str">
+      <c r="AE17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
       </c>
-      <c r="AG17" s="2" t="str">
+      <c r="AF17" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="AH17" s="2" t="str">
+      <c r="AG17" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3796,20 +3743,20 @@
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AH17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lightning", ipLightning },</v>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AI17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lightning");</v>
       </c>
-      <c r="AK17" t="str">
+      <c r="AJ17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lightning"));</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3820,106 +3767,103 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" t="s">
         <v>142</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <v>6</v>
       </c>
-      <c r="O18" t="str">
+      <c r="N18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P18">
+      <c r="O18">
         <v>6</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="P18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
       <c r="S18">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="T18">
-        <v>36</v>
-      </c>
-      <c r="U18">
         <v>190.54</v>
       </c>
-      <c r="V18" s="2">
+      <c r="U18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="W18" s="2" t="str">
+      <c r="V18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="X18">
+      <c r="W18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="X18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.9902787421882751</v>
       </c>
-      <c r="Z18" s="2" t="str">
+      <c r="Y18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="Z18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AA18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.62633636585837626</v>
       </c>
-      <c r="AC18" t="str">
+      <c r="AB18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD18" s="2" t="str">
+      <c r="AC18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>187</v>
       </c>
-      <c r="AF18" t="str">
+      <c r="AE18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
       </c>
-      <c r="AG18" s="2" t="str">
+      <c r="AF18" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="AH18" s="2" t="str">
+      <c r="AG18" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3941,20 +3885,20 @@
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AI18" t="str">
+      <c r="AH18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "honeycomb", ipHoneycomb },</v>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AI18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("honeycomb");</v>
       </c>
-      <c r="AK18" t="str">
+      <c r="AJ18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Honeycomb"));</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -3967,104 +3911,101 @@
       <c r="E19">
         <v>17</v>
       </c>
-      <c r="F19">
-        <v>9.1</v>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" t="s">
         <v>146</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N19">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="O19" t="str">
+      <c r="N19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="P19">
+      <c r="O19">
         <v>5</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="P19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="R19">
+        <v>12</v>
+      </c>
       <c r="S19">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="T19">
-        <v>28</v>
-      </c>
-      <c r="U19">
         <v>123.92</v>
       </c>
-      <c r="V19" s="2">
+      <c r="U19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="W19" s="2" t="str">
+      <c r="V19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="X19">
+      <c r="W19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="X19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.4097807757166949</v>
       </c>
-      <c r="Z19" s="2" t="str">
+      <c r="Y19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="Z19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AA19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.57507593248046729</v>
       </c>
-      <c r="AC19" t="str">
+      <c r="AB19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD19" s="2" t="str">
+      <c r="AC19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>191</v>
       </c>
-      <c r="AF19" t="str">
+      <c r="AE19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AG19" s="2" t="str">
+      <c r="AF19" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="AH19" s="2" t="str">
+      <c r="AG19" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4086,20 +4027,20 @@
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AI19" t="str">
+      <c r="AH19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "3dhoneycomb", ip3DHoneycomb },</v>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AI19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("3dhoneycomb");</v>
       </c>
-      <c r="AK19" t="str">
+      <c r="AJ19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("3D Honeycomb"));</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4110,106 +4051,103 @@
         <v>74</v>
       </c>
       <c r="E20">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>9.1999999999999993</v>
+        <v>18</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" t="s">
         <v>145</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N20">
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="O20" t="str">
+      <c r="N20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P20">
+      <c r="O20">
         <v>3</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="P20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
       <c r="S20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
         <v>147.52000000000001</v>
       </c>
-      <c r="V20" s="2">
+      <c r="U20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="W20" s="2" t="str">
+      <c r="V20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X20">
+      <c r="W20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="X20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.90844162285487551</v>
       </c>
-      <c r="Z20" s="2" t="str">
+      <c r="Y20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="Z20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AA20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.062402908289779</v>
       </c>
-      <c r="AC20" t="str">
+      <c r="AB20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD20" s="2" t="str">
+      <c r="AC20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>190</v>
       </c>
-      <c r="AF20" t="str">
+      <c r="AE20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_2dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AG20" s="2" t="str">
+      <c r="AF20" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
-      <c r="AH20" s="2" t="str">
+      <c r="AG20" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4231,121 +4169,118 @@
 ![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AI20" t="str">
+      <c r="AH20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "2dhoneycomb", ip2DHoneycomb },</v>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AI20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("2dhoneycomb");</v>
       </c>
-      <c r="AK20" t="str">
+      <c r="AJ20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("2D Honeycomb"));</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>9.3000000000000007</v>
+        <v>19</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
       <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" t="s">
-        <v>135</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21" t="str">
+      <c r="N21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="P21">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="P21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
       <c r="S21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
         <v>148.54</v>
       </c>
-      <c r="V21" s="2">
+      <c r="U21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="W21" s="2" t="str">
+      <c r="V21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X21">
+      <c r="W21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="X21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.91221109016962609</v>
       </c>
-      <c r="Z21" s="2" t="str">
+      <c r="Y21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="Z21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AA21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.0653282492964862</v>
       </c>
-      <c r="AC21" t="str">
+      <c r="AB21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AD21" s="2" t="str">
+      <c r="AC21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>180</v>
       </c>
-      <c r="AF21" t="str">
+      <c r="AE21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_2dlattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dlattice.svg?raw=true)</v>
       </c>
-      <c r="AG21" s="2" t="str">
+      <c r="AF21" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[2D Lattice](#2d-lattice)</v>
       </c>
-      <c r="AH21" s="2" t="str">
+      <c r="AG21" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4367,121 +4302,118 @@
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
       </c>
-      <c r="AI21" t="str">
+      <c r="AH21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "2dlattice", ip2DLattice },</v>
       </c>
-      <c r="AJ21" t="str">
+      <c r="AI21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("2dlattice");</v>
       </c>
-      <c r="AK21" t="str">
+      <c r="AJ21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("2D Lattice"));</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="E22">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>10.1</v>
+        <v>20</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N22">
+      <c r="M22">
         <v>5</v>
       </c>
-      <c r="O22" t="str">
+      <c r="N22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="P22">
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="P22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
       <c r="S22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T22">
-        <v>40</v>
-      </c>
-      <c r="U22">
         <v>144.69999999999999</v>
       </c>
-      <c r="V22" s="2">
+      <c r="U22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="W22" s="2" t="str">
+      <c r="V22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X22">
+      <c r="W22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="X22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.2062295407201666</v>
       </c>
-      <c r="Z22" s="2" t="str">
+      <c r="Y22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="Z22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AA22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.78482701286090395</v>
       </c>
-      <c r="AC22" t="str">
+      <c r="AB22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AD22" s="2" t="str">
+      <c r="AC22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>197</v>
       </c>
-      <c r="AF22" t="str">
+      <c r="AE22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
       </c>
-      <c r="AG22" s="2" t="str">
+      <c r="AF22" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="AH22" s="2" t="str">
+      <c r="AG22" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4504,121 +4436,118 @@
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
-      <c r="AI22" t="str">
+      <c r="AH22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosshatch", ipCrossHatch },</v>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AI22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosshatch");</v>
       </c>
-      <c r="AK22" t="str">
+      <c r="AJ22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Hatch"));</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="150" x14ac:dyDescent="0.25">
       <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10.199999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" t="s">
         <v>141</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N23">
+      <c r="M23">
         <v>6</v>
       </c>
-      <c r="O23" t="str">
+      <c r="N23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P23">
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="P23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R23">
+        <v>11</v>
+      </c>
       <c r="S23">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>29</v>
-      </c>
-      <c r="U23">
         <v>151.01</v>
       </c>
-      <c r="V23" s="2">
+      <c r="U23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="W23" s="2" t="str">
+      <c r="V23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X23">
+      <c r="W23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="X23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.2985814899315544</v>
       </c>
-      <c r="Z23" s="2" t="str">
+      <c r="Y23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="Z23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AA23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.76080239498326518</v>
       </c>
-      <c r="AC23" t="str">
+      <c r="AB23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AD23" s="2" t="str">
+      <c r="AC23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>186</v>
       </c>
-      <c r="AF23" t="str">
+      <c r="AE23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
       </c>
-      <c r="AG23" s="2" t="str">
+      <c r="AF23" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="AH23" s="2" t="str">
+      <c r="AG23" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4640,121 +4569,118 @@
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AH23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tpmsd", ipTpmsD },</v>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AI23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tpmsd");</v>
       </c>
-      <c r="AK23" t="str">
+      <c r="AJ23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-D"));</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="210" x14ac:dyDescent="0.25">
       <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>10.3</v>
+        <v>22</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
         <v>0</v>
       </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N24">
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="O24" t="str">
+      <c r="N24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="P24">
+      <c r="O24">
         <v>6</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="P24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
       <c r="S24">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="T24">
-        <v>49</v>
-      </c>
-      <c r="U24">
         <v>141.77000000000001</v>
       </c>
-      <c r="V24" s="2">
+      <c r="U24" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.94773961728085576</v>
       </c>
-      <c r="W24" s="2" t="str">
+      <c r="V24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X24">
+      <c r="W24">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>649</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="X24" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.223192143636544</v>
       </c>
-      <c r="Z24" s="2" t="str">
+      <c r="Y24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="Z24" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21844375963020032</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AA24" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.75827201481100404</v>
       </c>
-      <c r="AC24" t="str">
+      <c r="AB24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AD24" s="2" t="str">
+      <c r="AC24" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>gyroid</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>185</v>
       </c>
-      <c r="AF24" t="str">
+      <c r="AE24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
       </c>
-      <c r="AG24" s="2" t="str">
+      <c r="AF24" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Gyroid](#gyroid)</v>
       </c>
-      <c r="AH24" s="2" t="str">
+      <c r="AG24" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4776,121 +4702,118 @@
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
-      <c r="AI24" t="str">
+      <c r="AH24" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "gyroid", ipGyroid },</v>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AI24" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("gyroid");</v>
       </c>
-      <c r="AK24" t="str">
+      <c r="AJ24" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Gyroid"));</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="b">
         <v>1</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="b">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="5">
+      <c r="M25" s="5">
         <v>2</v>
       </c>
-      <c r="O25" t="str">
+      <c r="N25" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P25">
+      <c r="O25">
         <v>4</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="P25" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
       <c r="S25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T25">
-        <v>13</v>
-      </c>
-      <c r="U25">
         <v>158.77000000000001</v>
       </c>
-      <c r="V25" s="2">
+      <c r="U25" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="W25" s="2" t="str">
+      <c r="V25" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X25">
+      <c r="W25">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="X25" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.92917369308600339</v>
       </c>
-      <c r="Z25" s="2" t="str">
+      <c r="Y25" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="Z25" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AA25" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.1179101798703965</v>
       </c>
-      <c r="AC25" t="str">
+      <c r="AB25" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD25" s="2" t="str">
+      <c r="AC25" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>177</v>
       </c>
-      <c r="AF25" t="str">
+      <c r="AE25" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
       </c>
-      <c r="AG25" s="2" t="str">
+      <c r="AF25" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="AH25" s="2" t="str">
+      <c r="AG25" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4912,121 +4835,118 @@
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 </v>
       </c>
-      <c r="AI25" t="str">
+      <c r="AH25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "concentric", ipConcentric },</v>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AI25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("concentric");</v>
       </c>
-      <c r="AK25" t="str">
+      <c r="AJ25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Concentric"));</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="180" x14ac:dyDescent="0.25">
       <c r="E26">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>11.1</v>
+        <v>24</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
+      <c r="H26" t="s">
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N26">
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="O26" t="str">
+      <c r="N26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P26">
+      <c r="O26">
         <v>4</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="P26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R26">
+        <v>13</v>
+      </c>
       <c r="S26">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="T26">
-        <v>24</v>
-      </c>
-      <c r="U26">
         <v>148.63</v>
       </c>
-      <c r="V26" s="2">
+      <c r="U26" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="W26" s="2" t="str">
+      <c r="V26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X26">
+      <c r="W26">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="X26" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.5153258605297093</v>
       </c>
-      <c r="Z26" s="2" t="str">
+      <c r="Y26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="Z26" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AA26" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.64170557810266515</v>
       </c>
-      <c r="AC26" t="str">
+      <c r="AB26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD26" s="2" t="str">
+      <c r="AC26" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>192</v>
       </c>
-      <c r="AF26" t="str">
+      <c r="AE26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
       </c>
-      <c r="AG26" s="2" t="str">
+      <c r="AF26" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="AH26" s="2" t="str">
+      <c r="AG26" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5049,121 +4969,118 @@
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
-      <c r="AI26" t="str">
+      <c r="AH26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "hilbertcurve", ipHilbertCurve },</v>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AI26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("hilbertcurve");</v>
       </c>
-      <c r="AK26" t="str">
+      <c r="AJ26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Hilbert Curve"));</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="120" x14ac:dyDescent="0.25">
       <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>11.2</v>
+        <v>25</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" t="s">
         <v>148</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N27">
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="O27" t="str">
+      <c r="N27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P27">
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="P27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
       <c r="S27">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="T27">
-        <v>46</v>
-      </c>
-      <c r="U27">
         <v>148.21</v>
       </c>
-      <c r="V27" s="2">
+      <c r="U27" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="W27" s="2" t="str">
+      <c r="V27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X27">
+      <c r="W27">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="X27" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0.87828588433687138</v>
       </c>
-      <c r="Z27" s="2" t="str">
+      <c r="Y27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="Z27" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AA27" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>1.1040200890508012</v>
       </c>
-      <c r="AC27" t="str">
+      <c r="AB27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AD27" s="2" t="str">
+      <c r="AC27" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>193</v>
       </c>
-      <c r="AF27" t="str">
+      <c r="AE27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
       </c>
-      <c r="AG27" s="2" t="str">
+      <c r="AF27" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="AH27" s="2" t="str">
+      <c r="AG27" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5185,121 +5102,118 @@
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
       </c>
-      <c r="AI27" t="str">
+      <c r="AH27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "archimedeanchords", ipArchimedeanChords },</v>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AI27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("archimedeanchords");</v>
       </c>
-      <c r="AK27" t="str">
+      <c r="AJ27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Archimedean Chords"));</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>11.3</v>
+        <v>26</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="b">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N28">
+      <c r="M28">
         <v>2</v>
       </c>
-      <c r="O28" t="str">
+      <c r="N28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="P28">
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="P28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
       <c r="S28">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="T28">
-        <v>30</v>
-      </c>
-      <c r="U28">
         <v>148.72</v>
       </c>
-      <c r="V28" s="2">
+      <c r="U28" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="W28" s="2" t="str">
+      <c r="V28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X28">
+      <c r="W28">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="X28" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.0742981847038984</v>
       </c>
-      <c r="Z28" s="2" t="str">
+      <c r="Y28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="Z28" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AA28" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.90569069636769506</v>
       </c>
-      <c r="AC28" t="str">
+      <c r="AB28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AD28" s="2" t="str">
+      <c r="AC28" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AD28" t="s">
         <v>194</v>
       </c>
-      <c r="AF28" t="str">
+      <c r="AE28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
       </c>
-      <c r="AG28" s="2" t="str">
+      <c r="AF28" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="AH28" s="2" t="str">
+      <c r="AG28" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5321,90 +5235,87 @@
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
-      <c r="AI28" t="str">
+      <c r="AH28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "octagramspiral", ipOctagramSpiral },</v>
       </c>
-      <c r="AJ28" t="str">
+      <c r="AI28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("octagramspiral");</v>
       </c>
-      <c r="AK28" t="str">
+      <c r="AJ28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Octagram Spiral"));</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="F29">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="O29" t="e">
+      <c r="L29" s="8"/>
+      <c r="N29" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" t="e">
+      <c r="P29" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="V29" s="2">
+      <c r="Q29" s="2"/>
+      <c r="U29" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="W29" s="2" t="str">
+      <c r="V29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="X29">
+      <c r="W29">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="X29" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="2" t="str">
+      <c r="Y29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="AA29" s="3" t="e">
+      <c r="Z29" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="2" t="e">
+      <c r="AA29" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="2" t="e">
+      <c r="AB29" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="2" t="str">
+      <c r="AC29" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AF29" t="str">
+      <c r="AE29" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AG29" s="2" t="str">
+      <c r="AF29" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH29" s="2" t="str">
+      <c r="AG29" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5417,90 +5328,87 @@
 ","")</f>
         <v/>
       </c>
-      <c r="AI29" t="str">
+      <c r="AH29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AJ29" t="str">
+      <c r="AI29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AK29" t="str">
+      <c r="AJ29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E30">
-        <v>29</v>
-      </c>
-      <c r="F30">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="O30" t="e">
+      <c r="L30" s="8"/>
+      <c r="N30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" t="e">
+      <c r="P30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="V30" s="2">
+      <c r="Q30" s="2"/>
+      <c r="U30" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="2" t="str">
+      <c r="V30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="X30">
+      <c r="W30">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="X30" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="2" t="str">
+      <c r="Y30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="AA30" s="3" t="e">
+      <c r="Z30" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="2" t="e">
+      <c r="AA30" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="2" t="e">
+      <c r="AB30" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="2" t="str">
+      <c r="AC30" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AF30" t="str">
+      <c r="AE30" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AG30" s="2" t="str">
+      <c r="AF30" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH30" s="2" t="str">
+      <c r="AG30" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5513,90 +5421,87 @@
 ","")</f>
         <v/>
       </c>
-      <c r="AI30" t="str">
+      <c r="AH30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AJ30" t="str">
+      <c r="AI30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AK30" t="str">
+      <c r="AJ30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="O31" t="e">
+      <c r="L31" s="8"/>
+      <c r="N31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" t="e">
+      <c r="P31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="V31" s="2">
+      <c r="Q31" s="2"/>
+      <c r="U31" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="W31" s="2" t="str">
+      <c r="V31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="X31">
+      <c r="W31">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="X31" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="2" t="str">
+      <c r="Y31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="AA31" s="3" t="e">
+      <c r="Z31" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="2" t="e">
+      <c r="AA31" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="2" t="e">
+      <c r="AB31" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="2" t="str">
+      <c r="AC31" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AF31" t="str">
+      <c r="AE31" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AG31" s="2" t="str">
+      <c r="AF31" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH31" s="2" t="str">
+      <c r="AG31" s="2" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5609,22 +5514,22 @@
 ","")</f>
         <v/>
       </c>
-      <c r="AI31" t="str">
+      <c r="AH31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AJ31" t="str">
+      <c r="AI31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AK31" t="str">
+      <c r="AJ31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="V2:V31">
+  <conditionalFormatting sqref="U2:U31">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5636,7 +5541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y31">
+  <conditionalFormatting sqref="X2:X31">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5648,7 +5553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA31">
+  <conditionalFormatting sqref="Z2:Z31">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5660,7 +5565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB31">
+  <conditionalFormatting sqref="AA2:AA31">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144B92D-6041-4F78-91EA-B288316198C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BE5E4-0477-4562-81CA-E1D6663BBB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="193">
   <si>
     <t>Concentric</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>Quarter Cubic</t>
@@ -566,96 +563,12 @@
     <t>SVG</t>
   </si>
   <si>
-    <t>param_monotonic.svg</t>
-  </si>
-  <si>
-    <t>param_monotonicline.svg</t>
-  </si>
-  <si>
-    <t>param_concentric</t>
-  </si>
-  <si>
-    <t>param_zig-zag</t>
-  </si>
-  <si>
-    <t>param_grid</t>
-  </si>
-  <si>
-    <t>param_2dlattice</t>
-  </si>
-  <si>
-    <t>param_line</t>
-  </si>
-  <si>
-    <t>param_cubic</t>
-  </si>
-  <si>
-    <t>param_triangles</t>
-  </si>
-  <si>
-    <t>param_tri-hexagon</t>
-  </si>
-  <si>
-    <t>param_gyroid</t>
-  </si>
-  <si>
-    <t>param_tpmsd</t>
-  </si>
-  <si>
-    <t>param_honeycomb</t>
-  </si>
-  <si>
-    <t>param_adaptivecubic</t>
-  </si>
-  <si>
-    <t>param_alignedrectilinear</t>
-  </si>
-  <si>
-    <t>param_2dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_3dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_hilbertcurve</t>
-  </si>
-  <si>
-    <t>param_archimedeanchords</t>
-  </si>
-  <si>
-    <t>param_octagramspiral</t>
-  </si>
-  <si>
-    <t>param_supportcubic</t>
-  </si>
-  <si>
-    <t>param_lightning</t>
-  </si>
-  <si>
-    <t>param_crosshatch</t>
-  </si>
-  <si>
-    <t>param_quartercubic</t>
-  </si>
-  <si>
-    <t>param_zigzag</t>
-  </si>
-  <si>
-    <t>param_lockedzag</t>
-  </si>
-  <si>
     <t>SVG Link</t>
   </si>
   <si>
-    <t>param_crosszag</t>
-  </si>
-  <si>
     <t>Cubic / Support</t>
   </si>
   <si>
-    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
-  </si>
-  <si>
     <t>[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.</t>
   </si>
   <si>
@@ -663,6 +576,48 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>ipTpmsFK</t>
+  </si>
+  <si>
+    <t>tpmsfk</t>
+  </si>
+  <si>
+    <t>TPMS-FK</t>
+  </si>
+  <si>
+    <t>nameMD</t>
+  </si>
+  <si>
+    <t>20mm x 20mm x 20mm</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.</t>
+  </si>
+  <si>
+    <t>Is Ironing</t>
+  </si>
+  <si>
+    <t>Infill Image</t>
+  </si>
+  <si>
+    <t>10mm x 10mm x 10mm</t>
+  </si>
+  <si>
+    <t>100% Image</t>
+  </si>
+  <si>
+    <t>100% Cube</t>
+  </si>
+  <si>
+    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.</t>
+  </si>
+  <si>
+    <t>53.13mm x 53.13mm x 53.13mm</t>
+  </si>
+  <si>
+    <t>Applies to</t>
   </si>
 </sst>
 </file>
@@ -715,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -729,24 +684,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -789,6 +734,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -807,7 +768,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -969,68 +929,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AJ31">
-  <autoFilter ref="E1:AJ31" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AJ31">
-    <sortCondition ref="E1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AL32">
+  <autoFilter ref="E1:AL32" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AL32">
+    <sortCondition ref="E1:E32"/>
   </sortState>
-  <tableColumns count="32">
+  <tableColumns count="34">
     <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Order"/>
     <tableColumn id="27" xr3:uid="{6EDDF2A1-C22E-40EB-B691-74F6EDAEF4D3}" name="Is Infill"/>
     <tableColumn id="28" xr3:uid="{B77876BB-7641-40A4-87A8-999F2ECFE38D}" name="Is Surface"/>
+    <tableColumn id="22" xr3:uid="{2AFD1782-FD71-43C4-B799-04BFBE937492}" name="Is Ironing"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="name" totalsRowLabel="Total"/>
     <tableColumn id="32" xr3:uid="{A02F4DC8-DB89-4104-8C6F-95945DF0135D}" name="Group"/>
     <tableColumn id="24" xr3:uid="{6521A458-B14C-427C-865F-121955BAA369}" name="ip"/>
     <tableColumn id="25" xr3:uid="{956F45F2-2962-4E6E-81C2-F10A02B550B8}" name="infill"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="26" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="24">
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="27" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="25">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="22">
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="22" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="17" dataCellStyle="Porcentaje">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="15" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="13" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="14" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="6">
+    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="8">
       <calculatedColumnFormula>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="1" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="4" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="2" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1038,16 +1005,18 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="7" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D6607BDC-D4C6-47C9-9EE3-9567C17CAC8B}" name="Param"/>
     <tableColumn id="2" xr3:uid="{2F1A7E11-D2B5-49D3-AA97-1EB89A9A7CDE}" name="Value"/>
@@ -1067,11 +1036,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:C20" totalsRowShown="0">
-  <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A16:C25" totalsRowShown="0">
+  <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="4" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1395,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,40 +1378,41 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.42578125" customWidth="1"/>
-    <col min="34" max="34" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="50.42578125" customWidth="1"/>
+    <col min="35" max="35" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1450,108 +1420,114 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>84</v>
-      </c>
       <c r="AH1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="AI1" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s">
         <v>165</v>
       </c>
+      <c r="AK1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1562,90 +1538,109 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>160</v>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="str">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="U2" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>53</v>
+      </c>
+      <c r="U2">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="V2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="str">
+        <v>0.99827859948190867</v>
+      </c>
+      <c r="W2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W2">
+        <v>Normal</v>
+      </c>
+      <c r="X2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X2" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y2" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y2" s="2" t="str">
+        <v>0.87710721510451795</v>
+      </c>
+      <c r="Z2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
+        <v>0.31570824524312902</v>
+      </c>
+      <c r="AB2" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="str">
+        <v>1.1101963814393199</v>
+      </c>
+      <c r="AC2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC2" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic</v>
       </c>
-      <c r="AD2" t="s">
-        <v>175</v>
-      </c>
       <c r="AE2" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonic</v>
+      </c>
+      <c r="AF2" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonic.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF2" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic](#monotonic)</v>
       </c>
-      <c r="AG2" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH2" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI2" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1653,24 +1648,38 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH2" t="str">
+        <v xml:space="preserve">## Monotonic
+[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic.png?raw=true)
+</v>
+      </c>
+      <c r="AJ2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonic", ipMonotonic },</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonic");</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AL2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1686,90 +1695,109 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>161</v>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="str">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="U3" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>147.77000000000001</v>
+      </c>
+      <c r="V3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="str">
+        <v>0.98784992061502463</v>
+      </c>
+      <c r="W3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W3">
+        <v>Normal</v>
+      </c>
+      <c r="X3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X3" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y3" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y3" s="2" t="str">
+        <v>1.0032029669588671</v>
+      </c>
+      <c r="Z3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="Z3" s="3">
+        <v>Normal</v>
+      </c>
+      <c r="AA3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
+        <v>0.27314232902033275</v>
+      </c>
+      <c r="AB3" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="str">
+        <v>0.96051221298561007</v>
+      </c>
+      <c r="AC3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC3" s="2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="AD3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic-line</v>
       </c>
-      <c r="AD3" t="s">
-        <v>176</v>
-      </c>
       <c r="AE3" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonicline</v>
+      </c>
+      <c r="AF3" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonicline.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF3" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AG3" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic line](#monotonic-line)</v>
       </c>
-      <c r="AG3" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH3" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI3" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1777,24 +1805,38 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH3" t="str">
+        <v xml:space="preserve">## Monotonic line
+[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic-line.png?raw=true)
+</v>
+      </c>
+      <c r="AJ3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonicline", ipMonotonicLine },</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonicline");</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AL3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1810,96 +1852,110 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4">
+      <c r="R4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>148.6</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91786529114175186</v>
-      </c>
-      <c r="Y4" s="2" t="str">
+        <v>0.90306810519217806</v>
+      </c>
+      <c r="Z4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0591933211831519</v>
-      </c>
-      <c r="AB4" t="str">
+        <v>1.073009905838558</v>
+      </c>
+      <c r="AC4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC4" s="2" t="str">
+      <c r="AD4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="AD4" t="s">
-        <v>178</v>
-      </c>
       <c r="AE4" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_rectilinear</v>
+      </c>
+      <c r="AF4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zig-zag.svg?raw=true)</v>
-      </c>
-      <c r="AF4" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AG4" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="AG4" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH4" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI4" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1907,9 +1963,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Rectilinear
+        <v xml:space="preserve">## Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
@@ -1917,28 +1975,33 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AJ4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "rectilinear", ipRectilinear },</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AK4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("rectilinear");</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AL4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Rectilinear"));</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1949,96 +2012,109 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
       <c r="K5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
+      <c r="R5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
         <v>148.6</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91975002479912704</v>
-      </c>
-      <c r="Y5" s="2" t="str">
+        <v>0.90492245448415376</v>
+      </c>
+      <c r="Z5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0570228430659732</v>
-      </c>
-      <c r="AB5" t="str">
+        <v>1.0708111150479054</v>
+      </c>
+      <c r="AC5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC5" s="2" t="str">
+      <c r="AD5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="AD5" t="s">
-        <v>189</v>
-      </c>
       <c r="AE5" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_alignedrectilinear</v>
+      </c>
+      <c r="AF5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
       </c>
-      <c r="AF5" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG5" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="AG5" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH5" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI5" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2046,9 +2122,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Aligned Rectilinear
+        <v xml:space="preserve">## Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
 Recommended with layer anchoring to improve not perpendicular strength.
 - **Horizontal Strength (X-Y):** Normal-Low
@@ -2057,23 +2135,27 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AJ5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "alignedrectilinear", ipAlignedRectilinear },</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AK5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("alignedrectilinear");</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AL5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Aligned Rectilinear"));</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2089,96 +2171,107 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>85</v>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
       <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6">
+      <c r="R6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6">
         <v>8</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>149.94</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0023564803208824</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>496</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93482789405812916</v>
-      </c>
-      <c r="Y6" s="2" t="str">
+        <v>0.91975724881995957</v>
+      </c>
+      <c r="Z6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z6" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3022983870967742</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0493520503677369</v>
-      </c>
-      <c r="AB6" t="str">
+        <v>1.0630402611478378</v>
+      </c>
+      <c r="AC6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC6" s="2" t="str">
+      <c r="AD6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>zig-zag</v>
       </c>
-      <c r="AD6" t="s">
-        <v>199</v>
-      </c>
       <c r="AE6" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_zigzag</v>
+      </c>
+      <c r="AF6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
       </c>
-      <c r="AF6" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG6" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AG6" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH6" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI6" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2186,35 +2279,39 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Zig Zag
+        <v xml:space="preserve">## Zig Zag
 Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AJ6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "zigzag", ipZigZag },</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AK6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("zigzag");</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AL6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Zig Zag"));</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -2228,96 +2325,107 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
       <c r="K7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7">
+      <c r="R7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>149.84</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0016879752653129</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>494</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93105842674337869</v>
-      </c>
-      <c r="Y7" s="2" t="str">
+        <v>0.91604855023600817</v>
+      </c>
+      <c r="Z7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z7" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30331983805668017</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0528977578702527</v>
-      </c>
-      <c r="AB7" t="str">
+        <v>1.0666322204222369</v>
+      </c>
+      <c r="AC7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AD7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-zag</v>
       </c>
-      <c r="AD7" t="s">
-        <v>202</v>
-      </c>
       <c r="AE7" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosszag</v>
+      </c>
+      <c r="AF7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
       </c>
-      <c r="AF7" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG7" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Zag](#cross-zag)</v>
       </c>
-      <c r="AG7" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH7" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI7" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2325,33 +2433,37 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Zag
+        <v xml:space="preserve">## Cross Zag
 Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH7" t="str">
+      <c r="AJ7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosszag", ipCrossZag },</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AK7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosszag");</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AL7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Zag"));</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2367,96 +2479,107 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>86</v>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
       <c r="K8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8">
+      <c r="R8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8">
         <v>15</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>46</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>182.32</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2188184173142809</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>946</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.7829580398769964</v>
-      </c>
-      <c r="Y8" s="2" t="str">
+        <v>1.7542144302090359</v>
+      </c>
+      <c r="Z8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-High</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.6690037639314409</v>
-      </c>
-      <c r="AB8" t="str">
+        <v>0.67773054397648413</v>
+      </c>
+      <c r="AC8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC8" s="2" t="str">
+      <c r="AD8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>locked-zag</v>
       </c>
-      <c r="AD8" t="s">
-        <v>200</v>
-      </c>
       <c r="AE8" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lockedzag</v>
+      </c>
+      <c r="AF8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
       </c>
-      <c r="AF8" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG8" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AG8" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH8" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI8" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2464,9 +2587,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Locked Zag
+        <v xml:space="preserve">## Locked Zag
 Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
@@ -2474,25 +2599,27 @@
 - **Material Usage:** Normal-High
 - **Print Time:** Extra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH8" t="str">
+      <c r="AJ8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lockedzag", ipLockedZag },</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AK8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lockedzag");</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AL8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Locked Zag"));</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2506,96 +2633,107 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9">
+      <c r="R9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>49</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>154.68</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88394008530899715</v>
-      </c>
-      <c r="Y9" s="2" t="str">
+        <v>0.86968981793661504</v>
+      </c>
+      <c r="Z9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1448450378706885</v>
-      </c>
-      <c r="AB9" t="str">
+        <v>1.1597789012804325</v>
+      </c>
+      <c r="AC9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC9" s="2" t="str">
+      <c r="AD9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="AD9" t="s">
-        <v>181</v>
-      </c>
       <c r="AE9" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_line</v>
+      </c>
+      <c r="AF9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
       </c>
-      <c r="AF9" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG9" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="AG9" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH9" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI9" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2603,9 +2741,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Line
+        <v xml:space="preserve">## Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -2613,23 +2753,31 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 </v>
       </c>
-      <c r="AH9" t="str">
+      <c r="AJ9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "line", ipLine },</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AK9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("line");</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AL9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Line"));</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
       <c r="E10">
         <v>8</v>
       </c>
@@ -2639,96 +2787,107 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>169</v>
-      </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10">
+      <c r="R10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>148.87</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91598055748437657</v>
-      </c>
-      <c r="Y10" s="2" t="str">
+        <v>0.90121375590020236</v>
+      </c>
+      <c r="Z10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0633012012784473</v>
-      </c>
-      <c r="AB10" t="str">
+        <v>1.0771713709328861</v>
+      </c>
+      <c r="AC10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC10" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="AD10" t="s">
-        <v>179</v>
-      </c>
       <c r="AE10" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_grid</v>
+      </c>
+      <c r="AF10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
       </c>
-      <c r="AF10" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG10" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="AG10" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH10" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI10" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2736,41 +2895,42 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Grid
+        <v xml:space="preserve">## Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AJ10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "grid", ipGrid },</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AK10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("grid");</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AL10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Grid"));</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2781,96 +2941,107 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11">
+      <c r="R11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>50</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>147.55000000000001</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y11" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0897496578170667</v>
-      </c>
-      <c r="AB11" t="str">
+        <v>1.1039648327991096</v>
+      </c>
+      <c r="AC11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC11" s="2" t="str">
+      <c r="AD11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="AD11" t="s">
-        <v>183</v>
-      </c>
       <c r="AE11" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_triangles</v>
+      </c>
+      <c r="AF11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
       </c>
-      <c r="AF11" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG11" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="AG11" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH11" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI11" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2878,9 +3049,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Triangles
+        <v xml:space="preserve">## Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal
@@ -2888,31 +3061,30 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 </v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AJ11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "triangles", ipTriangles },</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AK11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("triangles");</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AL11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Triangles"));</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
+    <row r="12" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2923,96 +3095,107 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
-        <v>169</v>
-      </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12">
+      <c r="R12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>43</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>148.53</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87263168336474561</v>
-      </c>
-      <c r="Y12" s="2" t="str">
+        <v>0.85856372218476062</v>
+      </c>
+      <c r="Z12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1135727002160909</v>
-      </c>
-      <c r="AB12" t="str">
+        <v>1.1280986334662162</v>
+      </c>
+      <c r="AC12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC12" s="2" t="str">
+      <c r="AD12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="AD12" t="s">
-        <v>184</v>
-      </c>
       <c r="AE12" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tri-hexagon</v>
+      </c>
+      <c r="AF12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
       </c>
-      <c r="AF12" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG12" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="AG12" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH12" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI12" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3020,9 +3203,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Tri-hexagon
+        <v xml:space="preserve">## Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal-High
@@ -3030,32 +3215,25 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 </v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AJ12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tri-hexagon", ipStars },</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AK12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tri-hexagon");</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AL12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Tri-hexagon"));</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
+    <row r="13" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>11</v>
       </c>
@@ -3065,96 +3243,107 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>5</v>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13">
+      <c r="R13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>50</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>148.54</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="W13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y13" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0970614311904239</v>
-      </c>
-      <c r="AB13" t="str">
+        <v>1.111371984167941</v>
+      </c>
+      <c r="AC13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC13" s="2" t="str">
+      <c r="AD13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="AD13" t="s">
-        <v>182</v>
-      </c>
       <c r="AE13" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_cubic</v>
+      </c>
+      <c r="AF13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
       </c>
-      <c r="AF13" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG13" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="AG13" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH13" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI13" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3162,9 +3351,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cubic
+        <v xml:space="preserve">## Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3172,32 +3363,25 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AJ13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "cubic", ipCubic },</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AK13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("cubic");</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AL13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cubic"));</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>12</v>
       </c>
@@ -3207,96 +3391,107 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
       <c r="K14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14">
+      <c r="R14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>29</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>97.57</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="W14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.62007737327646073</v>
-      </c>
-      <c r="Y14" s="2" t="str">
+        <v>0.61008091706001355</v>
+      </c>
+      <c r="Z14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0294512670108069</v>
-      </c>
-      <c r="AB14" t="str">
+        <v>1.0428798831990038</v>
+      </c>
+      <c r="AC14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC14" s="2" t="str">
+      <c r="AD14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="AD14" t="s">
-        <v>188</v>
-      </c>
       <c r="AE14" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_adaptivecubic</v>
+      </c>
+      <c r="AF14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
       </c>
-      <c r="AF14" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG14" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="AG14" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH14" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI14" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3304,9 +3499,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Adaptive Cubic
+        <v xml:space="preserve">## Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -3314,32 +3511,25 @@
 - **Material Usage:** Low
 - **Print Time:** Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH14" t="str">
+      <c r="AJ14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "adaptivecubic", ipAdaptiveCubic },</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AK14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("adaptivecubic");</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AL14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Adaptive Cubic"));</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>13</v>
       </c>
@@ -3349,96 +3539,107 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>43</v>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
       <c r="K15" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15">
+      <c r="R15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>148.55000000000001</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="W15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90655688919750022</v>
-      </c>
-      <c r="Y15" s="2" t="str">
+        <v>0.89194200944032376</v>
+      </c>
+      <c r="Z15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0720448755071696</v>
-      </c>
-      <c r="AB15" t="str">
+        <v>1.0860291015031323</v>
+      </c>
+      <c r="AC15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC15" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="AD15" t="s">
-        <v>198</v>
-      </c>
       <c r="AE15" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_quartercubic</v>
+      </c>
+      <c r="AF15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
       </c>
-      <c r="AF15" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG15" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="AG15" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH15" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI15" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3446,41 +3647,45 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Quarter Cubic
+        <v xml:space="preserve">## Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH15" t="str">
+      <c r="AJ15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "quartercubic", ipQuarterCubic },</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AK15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("quartercubic");</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AL15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Quarter Cubic"));</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.075</v>
+    <row r="16" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3491,96 +3696,107 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
-        <v>203</v>
-      </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16">
+      <c r="R16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>50</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>49.39</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.32040472175379425</v>
-      </c>
-      <c r="Y16" s="2" t="str">
+        <v>0.31523937963587323</v>
+      </c>
+      <c r="Z16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0084990424703455</v>
-      </c>
-      <c r="AB16" t="str">
+        <v>1.0216543486042844</v>
+      </c>
+      <c r="AC16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC16" s="2" t="str">
+      <c r="AD16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="AD16" t="s">
-        <v>195</v>
-      </c>
       <c r="AE16" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_supportcubic</v>
+      </c>
+      <c r="AF16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
       </c>
-      <c r="AF16" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG16" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="AG16" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH16" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI16" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3588,9 +3804,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Support Cubic
+        <v xml:space="preserve">## Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3598,31 +3816,33 @@
 - **Material Usage:** Extra-Low
 - **Print Time:** Extra-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AJ16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "supportcubic", ipSupportCubic },</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AK16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("supportcubic");</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AL16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Support Cubic"));</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17" s="7">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3633,96 +3853,107 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
-        <v>173</v>
-      </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17">
+      <c r="R17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>12.33</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.1432397579605198</v>
-      </c>
-      <c r="Y17" s="2" t="str">
+        <v>0.1409305461901551</v>
+      </c>
+      <c r="Z17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.56316398027570336</v>
-      </c>
-      <c r="AB17" t="str">
+        <v>0.57051013952042295</v>
+      </c>
+      <c r="AC17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC17" s="2" t="str">
+      <c r="AD17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="AD17" t="s">
-        <v>196</v>
-      </c>
       <c r="AE17" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lightning</v>
+      </c>
+      <c r="AF17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
       </c>
-      <c r="AF17" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG17" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="AG17" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH17" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI17" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3730,9 +3961,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Lightning
+        <v xml:space="preserve">## Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3740,31 +3973,33 @@
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
-      <c r="AH17" t="str">
+      <c r="AJ17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lightning", ipLightning },</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AK17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lightning");</v>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AL17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lightning"));</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -3775,96 +4010,107 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18">
         <v>6</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18">
+      <c r="R18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18">
         <v>17</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>36</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>190.54</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.9902787421882751</v>
-      </c>
-      <c r="Y18" s="2" t="str">
+        <v>1.9581928523263656</v>
+      </c>
+      <c r="Z18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.62633636585837626</v>
-      </c>
-      <c r="AB18" t="str">
+        <v>0.63450657355188322</v>
+      </c>
+      <c r="AC18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC18" s="2" t="str">
+      <c r="AD18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="AD18" t="s">
-        <v>187</v>
-      </c>
       <c r="AE18" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_honeycomb</v>
+      </c>
+      <c r="AF18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
       </c>
-      <c r="AF18" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG18" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="AG18" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH18" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI18" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3872,9 +4118,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Honeycomb
+        <v xml:space="preserve">## Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3882,31 +4130,33 @@
 - **Material Usage:** High
 - **Print Time:** Ultra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH18" t="str">
+      <c r="AJ18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "honeycomb", ipHoneycomb },</v>
       </c>
-      <c r="AI18" t="str">
+      <c r="AK18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("honeycomb");</v>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AL18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Honeycomb"));</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7">
-        <v>1.85</v>
+        <v>0.75</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -3917,96 +4167,107 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
-        <v>117</v>
-      </c>
       <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19">
+      <c r="R19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>28</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>123.92</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="W19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.4097807757166949</v>
-      </c>
-      <c r="Y19" s="2" t="str">
+        <v>1.3870532703978422</v>
+      </c>
+      <c r="Z19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.57507593248046729</v>
-      </c>
-      <c r="AB19" t="str">
+        <v>0.58257747648145064</v>
+      </c>
+      <c r="AC19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC19" s="2" t="str">
+      <c r="AD19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="AD19" t="s">
-        <v>191</v>
-      </c>
       <c r="AE19" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_3dhoneycomb</v>
+      </c>
+      <c r="AF19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AF19" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG19" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="AG19" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH19" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI19" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4014,9 +4275,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 3D Honeycomb
+        <v xml:space="preserve">## 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -4024,31 +4287,33 @@
 - **Material Usage:** Normal-Low
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH19" t="str">
+      <c r="AJ19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "3dhoneycomb", ip3DHoneycomb },</v>
       </c>
-      <c r="AI19" t="str">
+      <c r="AK19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("3dhoneycomb");</v>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AL19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("3D Honeycomb"));</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="165" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7">
-        <v>9.99</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4059,96 +4324,107 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>70</v>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
       <c r="K20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20">
+      <c r="R20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>147.52000000000001</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="W20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90844162285487551</v>
-      </c>
-      <c r="Y20" s="2" t="str">
+        <v>0.89379635873229946</v>
+      </c>
+      <c r="Z20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.062402908289779</v>
-      </c>
-      <c r="AB20" t="str">
+        <v>1.0762613602144371</v>
+      </c>
+      <c r="AC20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC20" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>2d-honeycomb</v>
       </c>
-      <c r="AD20" t="s">
-        <v>190</v>
-      </c>
       <c r="AE20" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_2dhoneycomb</v>
+      </c>
+      <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_2dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AF20" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG20" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[2D Honeycomb](#2d-honeycomb)</v>
       </c>
-      <c r="AG20" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH20" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI20" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4156,33 +4432,46 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Honeycomb
+        <v xml:space="preserve">## 2D Honeycomb
 Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AJ20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "2dhoneycomb", ip2DHoneycomb },</v>
       </c>
-      <c r="AI20" t="str">
+      <c r="AK20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("2dhoneycomb");</v>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AL20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("2D Honeycomb"));</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.075</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
       <c r="E21">
         <v>19</v>
       </c>
@@ -4192,96 +4481,107 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
-        <v>170</v>
-      </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21">
+      <c r="R21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>148.54</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91221109016962609</v>
-      </c>
-      <c r="Y21" s="2" t="str">
+        <v>0.89750505731625085</v>
+      </c>
+      <c r="Z21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AB21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0653282492964862</v>
-      </c>
-      <c r="AB21" t="str">
+        <v>1.079224860658951</v>
+      </c>
+      <c r="AC21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC21" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>2d-lattice</v>
       </c>
-      <c r="AD21" t="s">
-        <v>180</v>
-      </c>
       <c r="AE21" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_2dlattice</v>
+      </c>
+      <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_2dlattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dlattice.svg?raw=true)</v>
       </c>
-      <c r="AF21" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG21" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[2D Lattice](#2d-lattice)</v>
       </c>
-      <c r="AG21" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH21" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI21" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4289,33 +4589,46 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Lattice
+        <v xml:space="preserve">## 2D Lattice
 Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
 </v>
       </c>
-      <c r="AH21" t="str">
+      <c r="AJ21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "2dlattice", ip2DLattice },</v>
       </c>
-      <c r="AI21" t="str">
+      <c r="AK21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("2dlattice");</v>
       </c>
-      <c r="AJ21" t="str">
+      <c r="AL21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("2D Lattice"));</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
       <c r="E22">
         <v>20</v>
       </c>
@@ -4325,96 +4638,107 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" t="s">
-        <v>171</v>
-      </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22">
+        <v>124</v>
+      </c>
+      <c r="L22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22">
         <v>5</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22">
+      <c r="R22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22">
         <v>10</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>40</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>144.69999999999999</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2062295407201666</v>
-      </c>
-      <c r="Y22" s="2" t="str">
+        <v>1.1867835468644641</v>
+      </c>
+      <c r="Z22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AB22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.78482701286090395</v>
-      </c>
-      <c r="AB22" t="str">
+        <v>0.79506464242878072</v>
+      </c>
+      <c r="AC22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC22" s="2" t="str">
+      <c r="AD22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="AD22" t="s">
-        <v>197</v>
-      </c>
       <c r="AE22" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosshatch</v>
+      </c>
+      <c r="AF22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
       </c>
-      <c r="AF22" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG22" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="AG22" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH22" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI22" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4422,9 +4746,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Hatch
+        <v xml:space="preserve">## Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
 Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
@@ -4433,23 +4759,34 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AJ22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosshatch", ipCrossHatch },</v>
       </c>
-      <c r="AI22" t="str">
+      <c r="AK22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosshatch");</v>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AL22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Hatch"));</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
       <c r="E23">
         <v>21</v>
       </c>
@@ -4459,96 +4796,107 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
-        <v>171</v>
-      </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23">
+        <v>109</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23">
         <v>6</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23">
+      <c r="R23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23">
         <v>11</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>29</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>151.01</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="W23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2985814899315544</v>
-      </c>
-      <c r="Y23" s="2" t="str">
+        <v>1.2776466621712745</v>
+      </c>
+      <c r="Z23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AB23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.76080239498326518</v>
-      </c>
-      <c r="AB23" t="str">
+        <v>0.77072663684364651</v>
+      </c>
+      <c r="AC23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC23" s="2" t="str">
+      <c r="AD23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="AD23" t="s">
-        <v>186</v>
-      </c>
       <c r="AE23" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsd</v>
+      </c>
+      <c r="AF23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
       </c>
-      <c r="AF23" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG23" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="AG23" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH23" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI23" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4556,9 +4904,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### TPMS-D
+        <v xml:space="preserve">## TPMS-D
 Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4566,23 +4916,34 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AJ23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tpmsd", ipTpmsD },</v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AK23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tpmsd");</v>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AL23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-D"));</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
       <c r="E24">
         <v>22</v>
       </c>
@@ -4592,96 +4953,107 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>8</v>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24" t="str">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5</v>
+      </c>
+      <c r="O24" s="9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="P24" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
+        <v>Normal-High</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
         <v>49</v>
       </c>
-      <c r="T24">
-        <v>141.77000000000001</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="U24">
+        <v>149.02000000000001</v>
+      </c>
+      <c r="V24" s="10">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0.94773961728085576</v>
-      </c>
-      <c r="V24" s="2" t="str">
+        <v>0.99620623380964324</v>
+      </c>
+      <c r="W24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W24">
+      <c r="X24" s="9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>649</v>
-      </c>
-      <c r="X24" s="2">
+        <v>769</v>
+      </c>
+      <c r="Y24" s="10">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.223192143636544</v>
-      </c>
-      <c r="Y24" s="2" t="str">
+        <v>1.4259946055293324</v>
+      </c>
+      <c r="Z24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="Z24" s="3">
+        <v>High</v>
+      </c>
+      <c r="AA24" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0.21844375963020032</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0.1937841352405722</v>
+      </c>
+      <c r="AB24" s="10">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.75827201481100404</v>
-      </c>
-      <c r="AB24" t="str">
+        <v>0.68144702891351949</v>
+      </c>
+      <c r="AC24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="AC24" s="2" t="str">
+        <v>Low</v>
+      </c>
+      <c r="AD24" s="10" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>gyroid</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>185</v>
+        <v>tpms-fk</v>
       </c>
       <c r="AE24" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsfk</v>
+      </c>
+      <c r="AF24" s="9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
-      </c>
-      <c r="AF24" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Gyroid](#gyroid)</v>
-      </c>
-      <c r="AG24" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
+      </c>
+      <c r="AG24" s="10" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AH24" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI24" s="10" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4689,9 +5061,168 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Gyroid
+        <v xml:space="preserve">## TPMS-FK
+Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** High
+- **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-tpms-fk](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-fk.png?raw=true)
+</v>
+      </c>
+      <c r="AJ24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
+        <v xml:space="preserve"> { "tpmsfk", ipTpmsFK },</v>
+      </c>
+      <c r="AK24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
+        <v>def-&gt;enum_values.push_back("tpmsfk");</v>
+      </c>
+      <c r="AL24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
+        <v>def-&gt;enum_labels.push_back(L("TPMS-FK"));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>49</v>
+      </c>
+      <c r="U25">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="V25" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0.94773961728085576</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="X25">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>649</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2034726904922455</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.21844375963020032</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76816324927683211</v>
+      </c>
+      <c r="AC25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AD25" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
+        <v>gyroid</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_gyroid</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AG25" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AH25" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI25" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
+","")</f>
+        <v xml:space="preserve">## Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4699,122 +5230,138 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AJ25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "gyroid", ipGyroid },</v>
       </c>
-      <c r="AI24" t="str">
+      <c r="AK25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("gyroid");</v>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AL25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Gyroid"));</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25" t="b">
+    <row r="26" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="5">
         <v>2</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R25">
+      <c r="R26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26">
         <v>8</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>13</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>158.77000000000001</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V26" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="W26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y26" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.92917369308600339</v>
-      </c>
-      <c r="Y25" s="2" t="str">
+        <v>0.91419420094403236</v>
+      </c>
+      <c r="Z26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z25" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA26" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB26" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1179101798703965</v>
-      </c>
-      <c r="AB25" t="str">
+        <v>1.1324926931174273</v>
+      </c>
+      <c r="AC26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC25" s="2" t="str">
+      <c r="AD26" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="AD25" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE25" t="str">
+      <c r="AE26" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_concentric</v>
+      </c>
+      <c r="AF26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
       </c>
-      <c r="AF25" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG26" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="AG25" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH26" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI26" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4822,132 +5369,152 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Concentric
+        <v xml:space="preserve">## Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 </v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AJ26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "concentric", ipConcentric },</v>
       </c>
-      <c r="AI25" t="str">
+      <c r="AK26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("concentric");</v>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AL26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Concentric"));</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="180" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" t="b">
+    <row r="27" spans="1:38" ht="180" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
         <v>14</v>
       </c>
-      <c r="I26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26">
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>4</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26">
+      <c r="R27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27">
         <v>13</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>24</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>148.63</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V27" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="W27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y27" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.5153258605297093</v>
-      </c>
-      <c r="Y26" s="2" t="str">
+        <v>1.4908968307484829</v>
+      </c>
+      <c r="Z27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA27" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AB27" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.64170557810266515</v>
-      </c>
-      <c r="AB26" t="str">
+        <v>0.6500762685766176</v>
+      </c>
+      <c r="AC27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC26" s="2" t="str">
+      <c r="AD27" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="AD26" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE26" t="str">
+      <c r="AE27" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_hilbertcurve</v>
+      </c>
+      <c r="AF27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
       </c>
-      <c r="AF26" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG27" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="AG26" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH27" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI27" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4955,9 +5522,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Hilbert Curve
+        <v xml:space="preserve">## Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
 - **Horizontal Strength (X-Y):** Low
@@ -4966,122 +5535,139 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AJ27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "hilbertcurve", ipHilbertCurve },</v>
       </c>
-      <c r="AI26" t="str">
+      <c r="AK27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("hilbertcurve");</v>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AL27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Hilbert Curve"));</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27" t="b">
+    <row r="28" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27">
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>4</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27">
+      <c r="R28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>46</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>148.21</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V28" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="W28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y28" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87828588433687138</v>
-      </c>
-      <c r="Y27" s="2" t="str">
+        <v>0.86412677006068783</v>
+      </c>
+      <c r="Z28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA28" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AB28" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1040200890508012</v>
-      </c>
-      <c r="AB27" t="str">
+        <v>1.1184214138293607</v>
+      </c>
+      <c r="AC28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC27" s="2" t="str">
+      <c r="AD28" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="AD27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE27" t="str">
+      <c r="AE28" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_archimedeanchords</v>
+      </c>
+      <c r="AF28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
       </c>
-      <c r="AF27" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG28" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="AG27" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH28" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI28" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5089,9 +5675,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Archimedean Chords
+        <v xml:space="preserve">## Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5099,122 +5687,139 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AJ28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "archimedeanchords", ipArchimedeanChords },</v>
       </c>
-      <c r="AI27" t="str">
+      <c r="AK28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("archimedeanchords");</v>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AL28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Archimedean Chords"));</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>26</v>
-      </c>
-      <c r="F28" t="b">
+    <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>16</v>
       </c>
-      <c r="I28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28">
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R28">
+      <c r="R29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29">
         <v>9</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>30</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>148.72</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V29" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="W29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y29" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.0742981847038984</v>
-      </c>
-      <c r="Y28" s="2" t="str">
+        <v>1.0569790964261632</v>
+      </c>
+      <c r="Z29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AA29" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB29" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.90569069636769506</v>
-      </c>
-      <c r="AB28" t="str">
+        <v>0.91750492510924353</v>
+      </c>
+      <c r="AC29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC28" s="2" t="str">
+      <c r="AD29" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="AD28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE28" t="str">
+      <c r="AE29" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_octagramspiral</v>
+      </c>
+      <c r="AF29" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
       </c>
-      <c r="AF28" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG29" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="AG28" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH29" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI29" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5222,9 +5827,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Octagram Spiral
+        <v xml:space="preserve">## Octagram Spiral
 Esthetic pattern with low strength and high print time.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5232,91 +5839,105 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
-      <c r="AH28" t="str">
+      <c r="AJ29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "octagramspiral", ipOctagramSpiral },</v>
       </c>
-      <c r="AI28" t="str">
+      <c r="AK29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("octagramspiral");</v>
       </c>
-      <c r="AJ28" t="str">
+      <c r="AL29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Octagram Spiral"));</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="N29" t="e">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="O30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" t="e">
+      <c r="Q30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="U29" s="2">
+      <c r="R30" s="2"/>
+      <c r="V30" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="W30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y30" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="2" t="str">
+      <c r="Z30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z29" s="3" t="e">
+      <c r="AA30" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="2" t="e">
+      <c r="AB30" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="2" t="e">
+      <c r="AC30" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="2" t="str">
+      <c r="AD30" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE29" t="str">
+      <c r="AF30" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF29" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG30" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG29" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH30" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI30" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5324,92 +5945,104 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH29" t="str">
+      <c r="AJ30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI29" t="str">
+      <c r="AK30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ29" t="str">
+      <c r="AL30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>101</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="N30" t="e">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="O31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" t="e">
+      <c r="Q31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="2"/>
-      <c r="U30" s="2">
+      <c r="R31" s="2"/>
+      <c r="V31" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="W31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W30">
+      <c r="X31">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y31" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="2" t="str">
+      <c r="Z31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z30" s="3" t="e">
+      <c r="AA31" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="2" t="e">
+      <c r="AB31" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="2" t="e">
+      <c r="AC31" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="2" t="str">
+      <c r="AD31" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE30" t="str">
+      <c r="AF31" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF30" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG31" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG30" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH31" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI31" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5417,92 +6050,104 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH30" t="str">
+      <c r="AJ31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI30" t="str">
+      <c r="AK31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ30" t="str">
+      <c r="AL31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>102</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="N31" t="e">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="O32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" t="e">
+      <c r="Q32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="U31" s="2">
+      <c r="R32" s="2"/>
+      <c r="V32" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="W32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W31">
+      <c r="X32">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y32" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="2" t="str">
+      <c r="Z32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z31" s="3" t="e">
+      <c r="AA32" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="2" t="e">
+      <c r="AB32" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="2" t="e">
+      <c r="AC32" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="2" t="str">
+      <c r="AD32" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE31" t="str">
+      <c r="AF32" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF31" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG32" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG31" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH32" s="5" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI32" s="2" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5510,27 +6155,29 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH31" t="str">
+      <c r="AJ32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI31" t="str">
+      <c r="AK32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ31" t="str">
+      <c r="AL32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="U2:U31">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="V2:V32">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5541,8 +6188,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X31">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="Y2:Y32">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5553,8 +6200,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z31">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="AA2:AA32">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5565,8 +6212,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA31">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="AB2:AB32">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BE5E4-0477-4562-81CA-E1D6663BBB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05B65A-2F9C-49E4-AE7D-66DB48051586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>2D Lattice</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Material/Time</t>
   </si>
   <si>
-    <t>2D Honeycomb</t>
-  </si>
-  <si>
     <t>Ultra-Low</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t>ipGrid</t>
   </si>
   <si>
-    <t>ip2DLattice</t>
-  </si>
-  <si>
     <t>ipLine</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>ipAlignedRectilinear</t>
   </si>
   <si>
-    <t>ip2DHoneycomb</t>
-  </si>
-  <si>
     <t>ip3DHoneycomb</t>
   </si>
   <si>
@@ -443,9 +431,6 @@
     <t>grid</t>
   </si>
   <si>
-    <t>2dlattice</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -473,9 +458,6 @@
     <t>alignedrectilinear</t>
   </si>
   <si>
-    <t>2dhoneycomb</t>
-  </si>
-  <si>
     <t>3dhoneycomb</t>
   </si>
   <si>
@@ -548,9 +530,6 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
     <t>TPMS</t>
   </si>
   <si>
@@ -618,6 +597,27 @@
   </si>
   <si>
     <t>Applies to</t>
+  </si>
+  <si>
+    <t>ipLateralLattice</t>
+  </si>
+  <si>
+    <t>ipLateralHoneycomb</t>
+  </si>
+  <si>
+    <t>Lateral Honeycomb</t>
+  </si>
+  <si>
+    <t>Lateral Lattice</t>
+  </si>
+  <si>
+    <t>Lateral</t>
+  </si>
+  <si>
+    <t>lateral-honeycomb</t>
+  </si>
+  <si>
+    <t>lateral-lattice</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -684,8 +684,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +691,22 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -734,22 +747,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -768,6 +765,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -980,23 +978,23 @@
     <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="9" dataCellStyle="Porcentaje"/>
-    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="8">
+    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="7">
       <calculatedColumnFormula>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="6" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="5" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="4" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1010,13 +1008,13 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="5" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="1" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1040,7 +1038,7 @@
   <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1366,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,120 +1412,120 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="AI1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" t="s">
         <v>158</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1542,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -1571,7 +1569,7 @@
         <v>Normal</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S2">
         <v>7</v>
@@ -1681,10 +1679,10 @@
     </row>
     <row r="3" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1699,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -1728,7 +1726,7 @@
         <v>Normal</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S3">
         <v>9</v>
@@ -1838,7 +1836,7 @@
     </row>
     <row r="4" spans="1:38" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1862,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -1885,7 +1883,7 @@
         <v>Low</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -1998,10 +1996,10 @@
     </row>
     <row r="5" spans="1:38" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2016,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -2045,7 +2043,7 @@
         <v>Normal</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S5">
         <v>8</v>
@@ -2157,10 +2155,10 @@
     </row>
     <row r="6" spans="1:38" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2175,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -2204,7 +2202,7 @@
         <v>Low</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -2311,10 +2309,10 @@
     </row>
     <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2329,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -2358,7 +2356,7 @@
         <v>Low</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2483,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -2512,7 +2510,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S8">
         <v>15</v>
@@ -2619,7 +2617,7 @@
     </row>
     <row r="9" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2637,19 +2635,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -2666,7 +2664,7 @@
         <v>Low</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -2773,10 +2771,10 @@
     </row>
     <row r="10" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -2794,16 +2792,16 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>6</v>
@@ -2820,7 +2818,7 @@
         <v>High</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -2927,10 +2925,10 @@
     </row>
     <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2945,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -2974,7 +2972,7 @@
         <v>Normal</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S11">
         <v>7</v>
@@ -3081,10 +3079,10 @@
     </row>
     <row r="12" spans="1:38" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3099,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -3128,7 +3126,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -3247,19 +3245,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>6</v>
@@ -3276,7 +3274,7 @@
         <v>High</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S13">
         <v>7</v>
@@ -3395,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -3424,7 +3422,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -3543,19 +3541,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>6</v>
@@ -3572,7 +3570,7 @@
         <v>High</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -3679,13 +3677,13 @@
     </row>
     <row r="16" spans="1:38" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3700,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -3729,7 +3727,7 @@
         <v>Low</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S16">
         <v>2</v>
@@ -3842,7 +3840,7 @@
         <v>0.15</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3857,19 +3855,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -3886,7 +3884,7 @@
         <v>Low</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -3999,7 +3997,7 @@
         <v>0.4</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -4014,19 +4012,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>6</v>
@@ -4043,7 +4041,7 @@
         <v>High</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S18">
         <v>17</v>
@@ -4156,7 +4154,7 @@
         <v>0.75</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -4171,19 +4169,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -4200,7 +4198,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S19">
         <v>12</v>
@@ -4313,7 +4311,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4328,19 +4326,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -4357,7 +4355,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -4402,19 +4400,19 @@
       </c>
       <c r="AD20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-honeycomb</v>
+        <v>lateral-honeycomb</v>
       </c>
       <c r="AE20" t="str">
         <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
-        <v>param_2dhoneycomb</v>
+        <v>param_lateral-honeycomb</v>
       </c>
       <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dhoneycomb.svg?raw=true)</v>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
       </c>
       <c r="AG20" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
-        <v>[2D Honeycomb](#2d-honeycomb)</v>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
       </c>
       <c r="AH20" s="5" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
@@ -4436,7 +4434,7 @@
 "&amp;Infill[[#This Row],[Applies to]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">## 2D Honeycomb
+        <v xml:space="preserve">## Lateral Honeycomb
 Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
@@ -4446,20 +4444,20 @@
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
   - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
+![infill-top-lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-honeycomb.png?raw=true)
 </v>
       </c>
       <c r="AJ20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dhoneycomb", ip2DHoneycomb },</v>
+        <v xml:space="preserve"> { "lateral-honeycomb", ipLateralHoneycomb },</v>
       </c>
       <c r="AK20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dhoneycomb");</v>
+        <v>def-&gt;enum_values.push_back("lateral-honeycomb");</v>
       </c>
       <c r="AL20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Honeycomb"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Honeycomb"));</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="120" x14ac:dyDescent="0.25">
@@ -4470,7 +4468,7 @@
         <v>1.075</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -4485,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -4514,7 +4512,7 @@
         <v>Low</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S21">
         <v>8</v>
@@ -4559,19 +4557,19 @@
       </c>
       <c r="AD21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-lattice</v>
+        <v>lateral-lattice</v>
       </c>
       <c r="AE21" t="str">
         <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
-        <v>param_2dlattice</v>
+        <v>param_lateral-lattice</v>
       </c>
       <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dlattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dlattice.svg?raw=true)</v>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
       </c>
       <c r="AG21" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
-        <v>[2D Lattice](#2d-lattice)</v>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
       </c>
       <c r="AH21" s="5" t="str">
         <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
@@ -4593,7 +4591,7 @@
 "&amp;Infill[[#This Row],[Applies to]]&amp;"
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">## 2D Lattice
+        <v xml:space="preserve">## Lateral Lattice
 Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
@@ -4603,20 +4601,20 @@
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
   - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
+![infill-top-lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-lattice.png?raw=true)
 </v>
       </c>
       <c r="AJ21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dlattice", ip2DLattice },</v>
+        <v xml:space="preserve"> { "lateral-lattice", ipLateralLattice },</v>
       </c>
       <c r="AK21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dlattice");</v>
+        <v>def-&gt;enum_values.push_back("lateral-lattice");</v>
       </c>
       <c r="AL21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Lattice"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Lattice"));</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="105" x14ac:dyDescent="0.25">
@@ -4627,7 +4625,7 @@
         <v>1.25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -4642,19 +4640,19 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -4671,7 +4669,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S22">
         <v>10</v>
@@ -4785,7 +4783,7 @@
         <v>1.6</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -4800,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23">
         <v>6</v>
@@ -4829,7 +4827,7 @@
         <v>High</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S23">
         <v>11</v>
@@ -4942,7 +4940,7 @@
         <v>1.85</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -4957,36 +4955,36 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="9">
+        <v>177</v>
+      </c>
+      <c r="N24">
         <v>5</v>
       </c>
-      <c r="O24" s="9" t="str">
+      <c r="O24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24">
         <v>5</v>
       </c>
-      <c r="Q24" s="9" t="str">
+      <c r="Q24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S24">
         <v>12</v>
@@ -4997,7 +4995,7 @@
       <c r="U24">
         <v>149.02000000000001</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99620623380964324</v>
       </c>
@@ -5005,11 +5003,11 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>769</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>1.4259946055293324</v>
       </c>
@@ -5021,7 +5019,7 @@
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.1937841352405722</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>0.68144702891351949</v>
       </c>
@@ -5029,7 +5027,7 @@
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AD24" s="10" t="str">
+      <c r="AD24" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tpms-fk</v>
       </c>
@@ -5037,11 +5035,11 @@
         <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
         <v>param_tpmsfk</v>
       </c>
-      <c r="AF24" s="9" t="str">
+      <c r="AF24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
       </c>
-      <c r="AG24" s="10" t="str">
+      <c r="AG24" s="2" t="str">
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-FK](#tpms-fk)</v>
       </c>
@@ -5052,7 +5050,7 @@
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI24" s="10" t="str">
+      <c r="AI24" s="2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5099,7 +5097,7 @@
         <v>9.99</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -5114,19 +5112,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N25">
         <v>6</v>
@@ -5143,7 +5141,7 @@
         <v>High</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S25">
         <v>10</v>
@@ -5265,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N26" s="5">
         <v>2</v>
@@ -5291,7 +5289,7 @@
         <v>Normal</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S26">
         <v>8</v>
@@ -5416,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -5445,7 +5443,7 @@
         <v>Normal</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S27">
         <v>13</v>
@@ -5569,19 +5567,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -5598,7 +5596,7 @@
         <v>Normal</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S28">
         <v>7</v>
@@ -5721,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -5750,7 +5748,7 @@
         <v>Normal</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S29">
         <v>9</v>
@@ -5873,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M30" s="8"/>
       <c r="O30" t="e">
@@ -5978,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M31" s="8"/>
       <c r="O31" t="e">
@@ -6083,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M32" s="8"/>
       <c r="O32" t="e">

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05B65A-2F9C-49E4-AE7D-66DB48051586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F288D4-B9A1-47D5-A3F9-DAAC4F36020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="194">
   <si>
     <t>Concentric</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
   </si>
   <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
-  </si>
-  <si>
     <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
   </si>
   <si>
@@ -618,6 +615,12 @@
   </si>
   <si>
     <t>lateral-lattice</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -684,14 +687,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -704,6 +722,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -941,60 +971,59 @@
     <tableColumn id="32" xr3:uid="{A02F4DC8-DB89-4104-8C6F-95945DF0135D}" name="Group"/>
     <tableColumn id="24" xr3:uid="{6521A458-B14C-427C-865F-121955BAA369}" name="ip"/>
     <tableColumn id="25" xr3:uid="{956F45F2-2962-4E6E-81C2-F10A02B550B8}" name="infill"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="27" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="25">
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="34" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="23">
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="22" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="29" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="25" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="15" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="22" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="21" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="17" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="16" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="7">
+    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="15" dataCellStyle="Porcentaje"/>
+    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="14">
       <calculatedColumnFormula>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="6" dataCellStyle="Porcentaje">
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1008,13 +1037,13 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="12" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1038,8 +1067,38 @@
   <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="9" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}" name="Tabla4" displayName="Tabla4" ref="AN1:AT32" totalsRowShown="0">
+  <autoFilter ref="AN1:AT32" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="8">
+      <calculatedColumnFormula>Infill[[#This Row],[SVG Link]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="7">
+      <calculatedColumnFormula>Infill[[#This Row],[Pattern]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="6">
+      <calculatedColumnFormula>Infill[[#This Row],[Applies to]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="5">
+      <calculatedColumnFormula>Infill[[#This Row],[X-Y Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="4">
+      <calculatedColumnFormula>Infill[[#This Row],[Z Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="3">
+      <calculatedColumnFormula>Infill[[#This Row],[Material/Time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="2">
+      <calculatedColumnFormula>Infill[[#This Row],[Print Time]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,55 +1421,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="139.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="50.42578125" customWidth="1"/>
-    <col min="35" max="35" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1418,28 +1484,28 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" t="s">
         <v>40</v>
@@ -1493,34 +1559,55 @@
         <v>67</v>
       </c>
       <c r="AD1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF1" t="s">
         <v>166</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>167</v>
       </c>
       <c r="AG1" t="s">
         <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
         <v>81</v>
       </c>
       <c r="AJ1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
         <v>157</v>
       </c>
-      <c r="AL1" t="s">
-        <v>158</v>
+      <c r="AN1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1540,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -1628,16 +1715,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic](#monotonic)</v>
       </c>
-      <c r="AH2" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH2" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI2" s="2" t="str">
+      <c r="AI2" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1676,8 +1761,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
       </c>
+      <c r="AN2" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic](#monotonic)</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS2" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT2" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1697,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -1785,16 +1899,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic line](#monotonic-line)</v>
       </c>
-      <c r="AH3" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH3" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI3" s="2" t="str">
+      <c r="AI3" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1833,8 +1945,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
       </c>
+      <c r="AN3" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic line](#monotonic-line)</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1860,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>88</v>
@@ -1942,17 +2083,15 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="AH4" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH4" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
-      <c r="AI4" s="2" t="str">
+      <c r="AI4" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1974,8 +2113,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
@@ -1993,8 +2131,38 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Rectilinear"));</v>
       </c>
+      <c r="AN4" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Rectilinear](#rectilinear)</v>
+      </c>
+      <c r="AP4" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR4" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2020,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>62</v>
@@ -2102,16 +2270,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="AH5" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH5" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI5" s="2" t="str">
+      <c r="AI5" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2134,8 +2300,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
@@ -2152,8 +2317,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Aligned Rectilinear"));</v>
       </c>
+      <c r="AN5" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
+      </c>
+      <c r="AP5" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR5" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2179,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -2261,14 +2455,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AH6" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH6" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI6" s="2" t="str">
+      <c r="AI6" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2306,8 +2499,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Zig Zag"));</v>
       </c>
+      <c r="AN6" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AP6" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR6" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS6" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT6" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2333,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -2415,14 +2636,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Zag](#cross-zag)</v>
       </c>
-      <c r="AH7" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH7" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2460,8 +2680,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Zag"));</v>
       </c>
+      <c r="AN7" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Zag](#cross-zag)</v>
+      </c>
+      <c r="AP7" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR7" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT7" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2487,13 +2735,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -2569,14 +2817,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AH8" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH8" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI8" s="2" t="str">
+      <c r="AI8" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2614,8 +2861,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Locked Zag"));</v>
       </c>
+      <c r="AN8" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AP8" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR8" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT8" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-High</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2641,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>56</v>
@@ -2723,14 +2998,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="AH9" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH9" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI9" s="2" t="str">
+      <c r="AI9" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2768,13 +3042,41 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Line"));</v>
       </c>
+      <c r="AN9" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Line](#line)</v>
+      </c>
+      <c r="AP9" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR9" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT9" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -2792,13 +3094,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>55</v>
@@ -2877,14 +3179,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="AH10" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH10" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI10" s="2" t="str">
+      <c r="AI10" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -2922,13 +3223,41 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Grid"));</v>
       </c>
+      <c r="AN10" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Grid](#grid)</v>
+      </c>
+      <c r="AP10" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR10" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT10" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2946,13 +3275,13 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>58</v>
@@ -3031,14 +3360,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="AH11" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH11" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI11" s="2" t="str">
+      <c r="AI11" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3076,13 +3404,41 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Triangles"));</v>
       </c>
+      <c r="AN11" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Triangles](#triangles)</v>
+      </c>
+      <c r="AP11" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR11" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT11" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3100,13 +3456,13 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>59</v>
@@ -3185,14 +3541,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="AH12" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH12" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI12" s="2" t="str">
+      <c r="AI12" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3230,8 +3585,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Tri-hexagon"));</v>
       </c>
+      <c r="AN12" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Tri-hexagon](#tri-hexagon)</v>
+      </c>
+      <c r="AP12" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR12" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT12" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>11</v>
       </c>
@@ -3251,10 +3634,10 @@
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>57</v>
@@ -3333,14 +3716,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="AH13" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH13" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI13" s="2" t="str">
+      <c r="AI13" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3378,8 +3760,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cubic"));</v>
       </c>
+      <c r="AN13" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cubic](#cubic)</v>
+      </c>
+      <c r="AP13" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR13" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS13" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT13" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>12</v>
       </c>
@@ -3399,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>61</v>
@@ -3481,14 +3891,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="AH14" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH14" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI14" s="2" t="str">
+      <c r="AI14" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3526,8 +3935,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Adaptive Cubic"));</v>
       </c>
+      <c r="AN14" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Adaptive Cubic](#adaptive-cubic)</v>
+      </c>
+      <c r="AP14" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR14" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS14" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Low</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>13</v>
       </c>
@@ -3547,10 +3984,10 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>66</v>
@@ -3629,14 +4066,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="AH15" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH15" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI15" s="2" t="str">
+      <c r="AI15" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3674,8 +4110,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Quarter Cubic"));</v>
       </c>
+      <c r="AN15" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Quarter Cubic](#quarter-cubic)</v>
+      </c>
+      <c r="AP15" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR15" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS15" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT15" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3701,13 +4165,13 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>64</v>
@@ -3786,14 +4250,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="AH16" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH16" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI16" s="2" t="str">
+      <c r="AI16" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3831,8 +4294,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Support Cubic"));</v>
       </c>
+      <c r="AN16" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Support Cubic](#support-cubic)</v>
+      </c>
+      <c r="AP16" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR16" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS16" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT16" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-Low</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3858,13 +4349,13 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>65</v>
@@ -3943,14 +4434,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="AH17" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH17" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI17" s="2" t="str">
+      <c r="AI17" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -3988,8 +4478,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lightning"));</v>
       </c>
+      <c r="AN17" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lightning](#lightning)</v>
+      </c>
+      <c r="AP17" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR17" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS17" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT17" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4018,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>60</v>
@@ -4100,14 +4618,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="AH18" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH18" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI18" s="2" t="str">
+      <c r="AI18" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4145,8 +4662,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Honeycomb"));</v>
       </c>
+      <c r="AN18" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO18" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Honeycomb](#honeycomb)</v>
+      </c>
+      <c r="AP18" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR18" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS18" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT18" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-High</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4175,13 +4720,13 @@
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -4257,14 +4802,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="AH19" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH19" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI19" s="2" t="str">
+      <c r="AI19" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4302,8 +4846,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("3D Honeycomb"));</v>
       </c>
+      <c r="AN19" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO19" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[3D Honeycomb](#3d-honeycomb)</v>
+      </c>
+      <c r="AP19" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR19" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS19" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT19" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4326,19 +4898,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
         <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -4414,14 +4986,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
       </c>
-      <c r="AH20" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH20" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI20" s="2" t="str">
+      <c r="AI20" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4435,7 +5006,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v xml:space="preserve">## Lateral Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
@@ -4459,8 +5030,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lateral Honeycomb"));</v>
       </c>
+      <c r="AN20" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO20" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
+      </c>
+      <c r="AP20" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR20" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS20" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT20" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4483,16 +5082,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
         <v>189</v>
       </c>
-      <c r="J21" t="s">
-        <v>190</v>
-      </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>89</v>
@@ -4571,14 +5170,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lateral Lattice](#lateral-lattice)</v>
       </c>
-      <c r="AH21" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH21" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI21" s="2" t="str">
+      <c r="AI21" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4616,8 +5214,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lateral Lattice"));</v>
       </c>
+      <c r="AN21" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
+      </c>
+      <c r="AO21" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
+      </c>
+      <c r="AP21" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR21" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS21" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT21" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4643,16 +5269,16 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -4728,14 +5354,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="AH22" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH22" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI22" s="2" t="str">
+      <c r="AI22" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4774,8 +5399,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Hatch"));</v>
       </c>
+      <c r="AN22" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
+      </c>
+      <c r="AO22" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Hatch](#cross-hatch)</v>
+      </c>
+      <c r="AP22" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR22" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS22" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT22" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -4801,16 +5454,16 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23">
         <v>6</v>
@@ -4886,14 +5539,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="AH23" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH23" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI23" s="2" t="str">
+      <c r="AI23" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -4931,8 +5583,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-D"));</v>
       </c>
+      <c r="AN23" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
+      </c>
+      <c r="AO23" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-D](#tpms-d)</v>
+      </c>
+      <c r="AP23" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ23" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR23" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS23" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -4955,19 +5635,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
         <v>172</v>
       </c>
-      <c r="L24" t="s">
-        <v>173</v>
-      </c>
       <c r="M24" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -5043,14 +5723,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-FK](#tpms-fk)</v>
       </c>
-      <c r="AH24" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH24" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI24" s="2" t="str">
+      <c r="AI24" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5088,8 +5767,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-FK"));</v>
       </c>
+      <c r="AN24" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
+      </c>
+      <c r="AO24" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AP24" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ24" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR24" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS24" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -5115,13 +5822,13 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>90</v>
@@ -5200,14 +5907,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Gyroid](#gyroid)</v>
       </c>
-      <c r="AH25" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH25" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
       </c>
-      <c r="AI25" s="2" t="str">
+      <c r="AI25" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5245,8 +5951,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Gyroid"));</v>
       </c>
+      <c r="AN25" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AP25" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ25" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR25" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS25" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>24</v>
       </c>
@@ -5263,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>54</v>
@@ -5348,17 +6082,15 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="AH26" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH26" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
-      <c r="AI26" s="2" t="str">
+      <c r="AI26" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5380,8 +6112,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
@@ -5399,8 +6130,38 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Concentric"));</v>
       </c>
+      <c r="AN26" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Concentric](#concentric)</v>
+      </c>
+      <c r="AP26" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR26" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS26" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT26" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>25</v>
       </c>
@@ -5417,13 +6178,13 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>73</v>
@@ -5502,16 +6263,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="AH27" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH27" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI27" s="2" t="str">
+      <c r="AI27" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5534,8 +6293,7 @@
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
@@ -5552,8 +6310,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Hilbert Curve"));</v>
       </c>
+      <c r="AN27" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Hilbert Curve](#hilbert-curve)</v>
+      </c>
+      <c r="AP27" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ27" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR27" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS27" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT27" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>26</v>
       </c>
@@ -5570,13 +6357,13 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>63</v>
@@ -5655,16 +6442,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="AH28" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH28" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI28" s="2" t="str">
+      <c r="AI28" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5686,8 +6471,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
@@ -5704,8 +6488,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Archimedean Chords"));</v>
       </c>
+      <c r="AN28" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
+      </c>
+      <c r="AO28" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Archimedean Chords](#archimedean-chords)</v>
+      </c>
+      <c r="AP28" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR28" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS28" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT28" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>27</v>
       </c>
@@ -5722,13 +6535,13 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>72</v>
@@ -5807,16 +6620,14 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="AH29" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH29" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
-      <c r="AI29" s="2" t="str">
+      <c r="AI29" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5838,8 +6649,7 @@
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-Low
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
@@ -5856,8 +6666,37 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Octagram Spiral"));</v>
       </c>
+      <c r="AN29" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
+      </c>
+      <c r="AO29" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Octagram Spiral](#octagram-spiral)</v>
+      </c>
+      <c r="AP29" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR29" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS29" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT29" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>28</v>
       </c>
@@ -5871,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="8"/>
       <c r="O30" t="e">
@@ -5927,14 +6766,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH30" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH30" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>
       </c>
-      <c r="AI30" s="2" t="str">
+      <c r="AI30" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -5961,8 +6799,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN30" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP30" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ30" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR30" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS30" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>29</v>
       </c>
@@ -5976,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M31" s="8"/>
       <c r="O31" t="e">
@@ -6032,14 +6898,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH31" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH31" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>
       </c>
-      <c r="AI31" s="2" t="str">
+      <c r="AI31" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -6066,8 +6931,36 @@
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN31" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP31" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ31" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR31" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS31" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>30</v>
       </c>
@@ -6081,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M32" s="8"/>
       <c r="O32" t="e">
@@ -6137,14 +7030,13 @@
         <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AH32" s="5" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <c r="AH32" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>
       </c>
-      <c r="AI32" s="2" t="str">
+      <c r="AI32" s="8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -6170,6 +7062,34 @@
       <c r="AL32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
+      </c>
+      <c r="AN32" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP32" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ32" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR32" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS32" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
       </c>
     </row>
   </sheetData>
@@ -6224,10 +7144,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F288D4-B9A1-47D5-A3F9-DAAC4F36020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9342C-2BC8-4E65-A1F6-5FE50430102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
@@ -703,10 +703,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -737,6 +733,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1019,11 +1019,11 @@
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="0" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="12" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1037,13 +1037,13 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="12" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1067,7 +1067,7 @@
   <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="8" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1078,25 +1078,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}" name="Tabla4" displayName="Tabla4" ref="AN1:AT32" totalsRowShown="0">
   <autoFilter ref="AN1:AT32" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="7">
       <calculatedColumnFormula>Infill[[#This Row],[SVG Link]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="6">
       <calculatedColumnFormula>Infill[[#This Row],[Pattern]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="5">
       <calculatedColumnFormula>Infill[[#This Row],[Applies to]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="4">
       <calculatedColumnFormula>Infill[[#This Row],[X-Y Strength]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="3">
       <calculatedColumnFormula>Infill[[#This Row],[Z Strength]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="2">
       <calculatedColumnFormula>Infill[[#This Row],[Material/Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="1">
       <calculatedColumnFormula>Infill[[#This Row],[Print Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1423,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1716,10 +1716,10 @@
         <v>[Monotonic](#monotonic)</v>
       </c>
       <c r="AH2" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI2" s="8" t="str">
@@ -1744,7 +1744,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic.png?raw=true)
 </v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="AP2" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ2" t="str">
@@ -1900,10 +1900,10 @@
         <v>[Monotonic line](#monotonic-line)</v>
       </c>
       <c r="AH3" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI3" s="8" t="str">
@@ -1928,7 +1928,7 @@
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal
 - **Applies to:**
-  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-monotonic-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic-line.png?raw=true)
 </v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="AP3" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ3" t="str">
@@ -2084,10 +2084,10 @@
         <v>[Rectilinear](#rectilinear)</v>
       </c>
       <c r="AH4" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
@@ -2113,7 +2113,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
@@ -2141,7 +2141,7 @@
       </c>
       <c r="AP4" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
@@ -2271,10 +2271,10 @@
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
       <c r="AH5" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI5" s="8" t="str">
@@ -2300,7 +2300,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="AP5" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ5" t="str">
@@ -2456,7 +2456,7 @@
         <v>[Zig Zag](#zig-zag)</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -2637,7 +2637,7 @@
         <v>[Cross Zag](#cross-zag)</v>
       </c>
       <c r="AH7" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -2818,7 +2818,7 @@
         <v>[Locked Zag](#locked-zag)</v>
       </c>
       <c r="AH8" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -2999,7 +2999,7 @@
         <v>[Line](#line)</v>
       </c>
       <c r="AH9" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -3180,7 +3180,7 @@
         <v>[Grid](#grid)</v>
       </c>
       <c r="AH10" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -3361,7 +3361,7 @@
         <v>[Triangles](#triangles)</v>
       </c>
       <c r="AH11" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -3542,7 +3542,7 @@
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
       <c r="AH12" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -3717,7 +3717,7 @@
         <v>[Cubic](#cubic)</v>
       </c>
       <c r="AH13" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -3892,7 +3892,7 @@
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
       <c r="AH14" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4067,7 +4067,7 @@
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
       <c r="AH15" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4251,7 +4251,7 @@
         <v>[Support Cubic](#support-cubic)</v>
       </c>
       <c r="AH16" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4435,7 +4435,7 @@
         <v>[Lightning](#lightning)</v>
       </c>
       <c r="AH17" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4619,7 +4619,7 @@
         <v>[Honeycomb](#honeycomb)</v>
       </c>
       <c r="AH18" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4803,7 +4803,7 @@
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
       <c r="AH19" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -4987,7 +4987,7 @@
         <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
       </c>
       <c r="AH20" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5171,7 +5171,7 @@
         <v>[Lateral Lattice](#lateral-lattice)</v>
       </c>
       <c r="AH21" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5355,7 +5355,7 @@
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
       <c r="AH22" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5540,7 +5540,7 @@
         <v>[TPMS-D](#tpms-d)</v>
       </c>
       <c r="AH23" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5724,7 +5724,7 @@
         <v>[TPMS-FK](#tpms-fk)</v>
       </c>
       <c r="AH24" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5908,7 +5908,7 @@
         <v>[Gyroid](#gyroid)</v>
       </c>
       <c r="AH25" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
@@ -5980,7 +5980,7 @@
         <v>Normal-High</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="270" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>24</v>
       </c>
@@ -6083,10 +6083,10 @@
         <v>[Concentric](#concentric)</v>
       </c>
       <c r="AH26" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
@@ -6112,7 +6112,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
@@ -6140,7 +6140,7 @@
       </c>
       <c r="AP26" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
   - **[Ironing](quality_settings_ironing)**</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>Normal-Low</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="270" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>25</v>
       </c>
@@ -6264,10 +6264,10 @@
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
       <c r="AH27" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI27" s="8" t="str">
@@ -6293,7 +6293,7 @@
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="AP27" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ27" t="str">
@@ -6340,7 +6340,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>26</v>
       </c>
@@ -6443,10 +6443,10 @@
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
       <c r="AH28" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI28" s="8" t="str">
@@ -6471,7 +6471,7 @@
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="AP28" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ28" t="str">
@@ -6518,7 +6518,7 @@
         <v>Normal-Low</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>27</v>
       </c>
@@ -6621,10 +6621,10 @@
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
       <c r="AH29" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AI29" s="8" t="str">
@@ -6649,7 +6649,7 @@
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-Low
 - **Applies to:**
-  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="AP29" t="str">
         <f>Infill[[#This Row],[Applies to]]</f>
-        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
   - **[Surface](strength_settings_top_bottom_shells)**</v>
       </c>
       <c r="AQ29" t="str">
@@ -6767,7 +6767,7 @@
         <v>[](#)</v>
       </c>
       <c r="AH30" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>
@@ -6899,7 +6899,7 @@
         <v>[](#)</v>
       </c>
       <c r="AH31" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>
@@ -7031,7 +7031,7 @@
         <v>[](#)</v>
       </c>
       <c r="AH32" s="10" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_top_bottom_shells#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</f>
         <v/>

--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F144B92D-6041-4F78-91EA-B288316198C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9342C-2BC8-4E65-A1F6-5FE50430102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="194">
   <si>
     <t>Concentric</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>2D Lattice</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>Quarter Cubic</t>
@@ -249,9 +243,6 @@
     <t>Material/Time</t>
   </si>
   <si>
-    <t>2D Honeycomb</t>
-  </si>
-  <si>
     <t>Ultra-Low</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).</t>
   </si>
   <si>
-    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
-  </si>
-  <si>
     <t>This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>ipGrid</t>
   </si>
   <si>
-    <t>ip2DLattice</t>
-  </si>
-  <si>
     <t>ipLine</t>
   </si>
   <si>
@@ -389,9 +374,6 @@
     <t>ipAlignedRectilinear</t>
   </si>
   <si>
-    <t>ip2DHoneycomb</t>
-  </si>
-  <si>
     <t>ip3DHoneycomb</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>grid</t>
   </si>
   <si>
-    <t>2dlattice</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -476,9 +455,6 @@
     <t>alignedrectilinear</t>
   </si>
   <si>
-    <t>2dhoneycomb</t>
-  </si>
-  <si>
     <t>3dhoneycomb</t>
   </si>
   <si>
@@ -551,9 +527,6 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
     <t>TPMS</t>
   </si>
   <si>
@@ -566,96 +539,12 @@
     <t>SVG</t>
   </si>
   <si>
-    <t>param_monotonic.svg</t>
-  </si>
-  <si>
-    <t>param_monotonicline.svg</t>
-  </si>
-  <si>
-    <t>param_concentric</t>
-  </si>
-  <si>
-    <t>param_zig-zag</t>
-  </si>
-  <si>
-    <t>param_grid</t>
-  </si>
-  <si>
-    <t>param_2dlattice</t>
-  </si>
-  <si>
-    <t>param_line</t>
-  </si>
-  <si>
-    <t>param_cubic</t>
-  </si>
-  <si>
-    <t>param_triangles</t>
-  </si>
-  <si>
-    <t>param_tri-hexagon</t>
-  </si>
-  <si>
-    <t>param_gyroid</t>
-  </si>
-  <si>
-    <t>param_tpmsd</t>
-  </si>
-  <si>
-    <t>param_honeycomb</t>
-  </si>
-  <si>
-    <t>param_adaptivecubic</t>
-  </si>
-  <si>
-    <t>param_alignedrectilinear</t>
-  </si>
-  <si>
-    <t>param_2dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_3dhoneycomb</t>
-  </si>
-  <si>
-    <t>param_hilbertcurve</t>
-  </si>
-  <si>
-    <t>param_archimedeanchords</t>
-  </si>
-  <si>
-    <t>param_octagramspiral</t>
-  </si>
-  <si>
-    <t>param_supportcubic</t>
-  </si>
-  <si>
-    <t>param_lightning</t>
-  </si>
-  <si>
-    <t>param_crosshatch</t>
-  </si>
-  <si>
-    <t>param_quartercubic</t>
-  </si>
-  <si>
-    <t>param_zigzag</t>
-  </si>
-  <si>
-    <t>param_lockedzag</t>
-  </si>
-  <si>
     <t>SVG Link</t>
   </si>
   <si>
-    <t>param_crosszag</t>
-  </si>
-  <si>
     <t>Cubic / Support</t>
   </si>
   <si>
-    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams.</t>
-  </si>
-  <si>
     <t>[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.</t>
   </si>
   <si>
@@ -663,6 +552,75 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>ipTpmsFK</t>
+  </si>
+  <si>
+    <t>tpmsfk</t>
+  </si>
+  <si>
+    <t>TPMS-FK</t>
+  </si>
+  <si>
+    <t>nameMD</t>
+  </si>
+  <si>
+    <t>20mm x 20mm x 20mm</t>
+  </si>
+  <si>
+    <t>Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.</t>
+  </si>
+  <si>
+    <t>Is Ironing</t>
+  </si>
+  <si>
+    <t>Infill Image</t>
+  </si>
+  <si>
+    <t>10mm x 10mm x 10mm</t>
+  </si>
+  <si>
+    <t>100% Image</t>
+  </si>
+  <si>
+    <t>100% Cube</t>
+  </si>
+  <si>
+    <t>[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.</t>
+  </si>
+  <si>
+    <t>53.13mm x 53.13mm x 53.13mm</t>
+  </si>
+  <si>
+    <t>Applies to</t>
+  </si>
+  <si>
+    <t>ipLateralLattice</t>
+  </si>
+  <si>
+    <t>ipLateralHoneycomb</t>
+  </si>
+  <si>
+    <t>Lateral Honeycomb</t>
+  </si>
+  <si>
+    <t>Lateral Lattice</t>
+  </si>
+  <si>
+    <t>Lateral</t>
+  </si>
+  <si>
+    <t>lateral-honeycomb</t>
+  </si>
+  <si>
+    <t>lateral-lattice</t>
+  </si>
+  <si>
+    <t>Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -715,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -729,12 +687,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -749,6 +736,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -969,68 +957,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AJ31">
-  <autoFilter ref="E1:AJ31" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AJ31">
-    <sortCondition ref="E1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}" name="Infill" displayName="Infill" ref="E1:AL32">
+  <autoFilter ref="E1:AL32" xr:uid="{14E0E815-2798-4AE1-A846-B8CADCC14BD7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:AL32">
+    <sortCondition ref="E1:E32"/>
   </sortState>
-  <tableColumns count="32">
+  <tableColumns count="34">
     <tableColumn id="23" xr3:uid="{061A8DA1-BAF1-41F8-8DD1-5E8F3141DA90}" name="Order"/>
     <tableColumn id="27" xr3:uid="{6EDDF2A1-C22E-40EB-B691-74F6EDAEF4D3}" name="Is Infill"/>
     <tableColumn id="28" xr3:uid="{B77876BB-7641-40A4-87A8-999F2ECFE38D}" name="Is Surface"/>
+    <tableColumn id="22" xr3:uid="{2AFD1782-FD71-43C4-B799-04BFBE937492}" name="Is Ironing"/>
     <tableColumn id="1" xr3:uid="{3D89DC5A-8AB2-4952-BD08-8DD7EDC3072E}" name="name" totalsRowLabel="Total"/>
     <tableColumn id="32" xr3:uid="{A02F4DC8-DB89-4104-8C6F-95945DF0135D}" name="Group"/>
     <tableColumn id="24" xr3:uid="{6521A458-B14C-427C-865F-121955BAA369}" name="ip"/>
     <tableColumn id="25" xr3:uid="{956F45F2-2962-4E6E-81C2-F10A02B550B8}" name="infill"/>
-    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="26" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="24">
+    <tableColumn id="18" xr3:uid="{0AF02225-407A-4366-B524-2DC6A8FF6278}" name="Desc" dataDxfId="34" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{EDA17F6B-F438-45F7-B1D4-D47E28684329}" name="XY-N" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{94F205F5-D170-40A1-8C5F-879C636804AA}" name="X-Y Strength" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="22">
+    <tableColumn id="20" xr3:uid="{E9317962-9E1D-4D5B-9028-66E03DB4FC89}" name="Z-N" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{D6A80A00-4E52-418C-9F58-C091734E73D4}" name="Z Strength" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="15" xr3:uid="{A5F7A5DA-C5EE-4BAA-9BF1-1AF83AB88E06}" name="DensityCalc" dataDxfId="29" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{CC2FB322-5D42-4375-BC4F-16927902366E}" name="hs"/>
     <tableColumn id="2" xr3:uid="{0B06FA91-5EDF-466A-8753-FFCA36B0EFB0}" name="min"/>
-    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="3" xr3:uid="{E842218B-6949-43A1-A35A-6C35A7D812BB}" name="g" totalsRowFunction="average" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{55891199-0C82-4B3C-B416-4BE5775CD688}" name="% Effective" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/(997.25*0.15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="17" dataCellStyle="Porcentaje">
+    <tableColumn id="11" xr3:uid="{32CE485A-842B-45B3-8F5D-B93DF0C49C8F}" name="Material Usage" dataDxfId="25" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{C7DC0832-87AA-48F2-8845-AAE7F7254500}" name="Total Time" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{252F6390-A339-497F-955E-B7D85B035B56}" name="t prom" dataDxfId="22" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="13" dataCellStyle="Porcentaje">
+    <tableColumn id="12" xr3:uid="{0224A6DD-647D-41E2-B74E-256AAEBCEDB8}" name="Print Time" dataDxfId="21" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="7" xr3:uid="{3A33F243-4754-4015-A3B1-EEAA7B810730}" name="g/t" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="10" xr3:uid="{81F5FB07-EC80-4D98-B9AE-8EF8E1629F1A}" name="g/t prom" dataDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="13" xr3:uid="{F80BCD33-B1E3-433F-AF6D-F982D670E727}" name="Material/Time" dataDxfId="17" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="image" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="19" xr3:uid="{44AE3D7E-C8D1-4165-B6BD-E525E4F90672}" name="nameMD" dataDxfId="16" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="6">
+    <tableColumn id="33" xr3:uid="{9C188045-ECA6-4734-BC61-4D569A3256F0}" name="SVG" dataDxfId="15" dataCellStyle="Porcentaje"/>
+    <tableColumn id="34" xr3:uid="{45B271D4-A035-4A01-B06E-E3B623BB568E}" name="SVG Link" dataDxfId="14">
       <calculatedColumnFormula>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="5" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="13" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="4" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="12" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1038,16 +1032,18 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="3" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="1" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,8 +1052,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}" name="Params" displayName="Params" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{C60F2B59-C9F5-4BDD-A62B-E88A777E5C9E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D6607BDC-D4C6-47C9-9EE3-9567C17CAC8B}" name="Param"/>
     <tableColumn id="2" xr3:uid="{2F1A7E11-D2B5-49D3-AA97-1EB89A9A7CDE}" name="Value"/>
@@ -1067,12 +1063,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A11:C20" totalsRowShown="0">
-  <autoFilter ref="A11:C20" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}" name="Rating" displayName="Rating" ref="A16:C25" totalsRowShown="0">
+  <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="8" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}" name="Tabla4" displayName="Tabla4" ref="AN1:AT32" totalsRowShown="0">
+  <autoFilter ref="AN1:AT32" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="7">
+      <calculatedColumnFormula>Infill[[#This Row],[SVG Link]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="6">
+      <calculatedColumnFormula>Infill[[#This Row],[Pattern]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="5">
+      <calculatedColumnFormula>Infill[[#This Row],[Applies to]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="4">
+      <calculatedColumnFormula>Infill[[#This Row],[X-Y Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="3">
+      <calculatedColumnFormula>Infill[[#This Row],[Z Strength]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="2">
+      <calculatedColumnFormula>Infill[[#This Row],[Material/Time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="1">
+      <calculatedColumnFormula>Infill[[#This Row],[Print Time]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,163 +1421,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.42578125" customWidth="1"/>
-    <col min="34" max="34" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="226.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>79</v>
-      </c>
       <c r="AB1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s">
         <v>174</v>
       </c>
       <c r="AE1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="AF1" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="AG1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AJ1" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1562,90 +1623,107 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="U2" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>53</v>
+      </c>
+      <c r="U2">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="V2" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="str">
+        <v>0.99827859948190867</v>
+      </c>
+      <c r="W2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W2">
+        <v>Normal</v>
+      </c>
+      <c r="X2">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X2" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y2" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y2" s="2" t="str">
+        <v>0.87710721510451795</v>
+      </c>
+      <c r="Z2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
+        <v>0.31570824524312902</v>
+      </c>
+      <c r="AB2" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="str">
+        <v>1.1101963814393199</v>
+      </c>
+      <c r="AC2" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC2" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD2" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic</v>
       </c>
-      <c r="AD2" t="s">
-        <v>175</v>
-      </c>
       <c r="AE2" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonic</v>
+      </c>
+      <c r="AF2" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonic.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF2" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic](#monotonic)</v>
       </c>
-      <c r="AG2" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH2" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI2" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1653,29 +1731,72 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH2" t="str">
+        <v xml:space="preserve">## Monotonic
+[Rectilinear](#rectilinear) in a uniform direction for a smoother visual surface.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal-Low
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic.png?raw=true)
+</v>
+      </c>
+      <c r="AJ2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonic", ipMonotonic },</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonic");</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AL2" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic"));</v>
       </c>
+      <c r="AN2" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonic.svg?raw=true)</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic](#monotonic)</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS2" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT2" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1686,90 +1807,107 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>161</v>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="str">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>Low</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="U3" s="2">
+        <v>Normal</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>147.77000000000001</v>
+      </c>
+      <c r="V3" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="str">
+        <v>0.98784992061502463</v>
+      </c>
+      <c r="W3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="W3">
+        <v>Normal</v>
+      </c>
+      <c r="X3">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>480</v>
-      </c>
-      <c r="X3" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y3" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90467215554012503</v>
-      </c>
-      <c r="Y3" s="2" t="str">
+        <v>1.0032029669588671</v>
+      </c>
+      <c r="Z3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="Z3" s="3">
+        <v>Normal</v>
+      </c>
+      <c r="AA3" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
+        <v>0.27314232902033275</v>
+      </c>
+      <c r="AB3" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="str">
+        <v>0.96051221298561007</v>
+      </c>
+      <c r="AC3" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Ultra-Low</v>
-      </c>
-      <c r="AC3" s="2" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="AD3" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>monotonic-line</v>
       </c>
-      <c r="AD3" t="s">
-        <v>176</v>
-      </c>
       <c r="AE3" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_monotonicline</v>
+      </c>
+      <c r="AF3" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_monotonicline.svg](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg.svg?raw=true)</v>
-      </c>
-      <c r="AF3" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AG3" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Monotonic line](#monotonic-line)</v>
       </c>
-      <c r="AG3" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH3" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI3" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1777,26 +1915,69 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v/>
-      </c>
-      <c r="AH3" t="str">
+        <v xml:space="preserve">## Monotonic line
+[Monotonic](#monotonic) but avoids overlapping with the perimeter, reducing excess material at joints. May introduce visible seams and increase print time.
+- **Horizontal Strength (X-Y):** Normal
+- **Vertical Strength (Z):** Normal
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** Normal
+- **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+![infill-top-monotonic-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-monotonic-line.png?raw=true)
+</v>
+      </c>
+      <c r="AJ3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "monotonicline", ipMonotonicLine },</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("monotonicline");</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AL3" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Monotonic line"));</v>
       </c>
+      <c r="AN3" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_monotonicline](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_monotonicline.svg?raw=true)</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Monotonic line](#monotonic-line)</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>0.15</v>
@@ -1810,96 +1991,108 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4">
+      <c r="R4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>148.6</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>487</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91786529114175186</v>
-      </c>
-      <c r="Y4" s="2" t="str">
+        <v>0.90306810519217806</v>
+      </c>
+      <c r="Z4" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30513347022587267</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0591933211831519</v>
-      </c>
-      <c r="AB4" t="str">
+        <v>1.073009905838558</v>
+      </c>
+      <c r="AC4" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC4" s="2" t="str">
+      <c r="AD4" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>rectilinear</v>
       </c>
-      <c r="AD4" t="s">
-        <v>178</v>
-      </c>
       <c r="AE4" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_rectilinear</v>
+      </c>
+      <c r="AF4" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zig-zag.svg?raw=true)</v>
-      </c>
-      <c r="AF4" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AG4" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Rectilinear](#rectilinear)</v>
       </c>
-      <c r="AG4" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH4" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI4" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -1907,9 +2100,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Rectilinear
+        <v xml:space="preserve">## Rectilinear
 Parallel lines spaced according to infill density. Each layer is printed perpendicular to the previous, resulting in low vertical bonding. Consider using new [Zig Zag](#zig-zag) infill instead.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
@@ -1917,28 +2112,62 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AJ4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "rectilinear", ipRectilinear },</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AK4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("rectilinear");</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AL4" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Rectilinear"));</v>
       </c>
+      <c r="AN4" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_rectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Rectilinear](#rectilinear)</v>
+      </c>
+      <c r="AP4" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR4" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1949,96 +2178,107 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
       <c r="K5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
+      <c r="R5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
         <v>148.6</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99339851257625134</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>488</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91975002479912704</v>
-      </c>
-      <c r="Y5" s="2" t="str">
+        <v>0.90492245448415376</v>
+      </c>
+      <c r="Z5" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30450819672131146</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0570228430659732</v>
-      </c>
-      <c r="AB5" t="str">
+        <v>1.0708111150479054</v>
+      </c>
+      <c r="AC5" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC5" s="2" t="str">
+      <c r="AD5" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>aligned-rectilinear</v>
       </c>
-      <c r="AD5" t="s">
-        <v>189</v>
-      </c>
       <c r="AE5" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_alignedrectilinear</v>
+      </c>
+      <c r="AF5" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
       </c>
-      <c r="AF5" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG5" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
       </c>
-      <c r="AG5" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH5" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI5" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2046,9 +2286,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Aligned Rectilinear
+        <v xml:space="preserve">## Aligned Rectilinear
 Parallel lines spaced by the infill spacing, each layer printed in the same direction as the previous layer. Good horizontal strength perpendicular to the lines, but terrible in parallel direction.
 Recommended with layer anchoring to improve not perpendicular strength.
 - **Horizontal Strength (X-Y):** Normal-Low
@@ -2057,28 +2299,60 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-aligned-rectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-aligned-rectilinear.png?raw=true)
 </v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AJ5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "alignedrectilinear", ipAlignedRectilinear },</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AK5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("alignedrectilinear");</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AL5" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Aligned Rectilinear"));</v>
       </c>
+      <c r="AN5" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_alignedrectilinear](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_alignedrectilinear.svg?raw=true)</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Aligned Rectilinear](#aligned-rectilinear)</v>
+      </c>
+      <c r="AP5" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR5" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2089,96 +2363,106 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>85</v>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
       <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6">
+        <v>121</v>
+      </c>
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6">
+      <c r="R6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6">
         <v>8</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>149.94</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0023564803208824</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>496</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93482789405812916</v>
-      </c>
-      <c r="Y6" s="2" t="str">
+        <v>0.91975724881995957</v>
+      </c>
+      <c r="Z6" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z6" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA6" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3022983870967742</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0493520503677369</v>
-      </c>
-      <c r="AB6" t="str">
+        <v>1.0630402611478378</v>
+      </c>
+      <c r="AC6" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC6" s="2" t="str">
+      <c r="AD6" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>zig-zag</v>
       </c>
-      <c r="AD6" t="s">
-        <v>199</v>
-      </c>
       <c r="AE6" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_zigzag</v>
+      </c>
+      <c r="AF6" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
       </c>
-      <c r="AF6" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG6" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Zig Zag](#zig-zag)</v>
       </c>
-      <c r="AG6" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH6" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI6" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2186,38 +2470,70 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Zig Zag
+        <v xml:space="preserve">## Zig Zag
 Similar to [rectilinear](#rectilinear) with consistent pattern between layers. Allows you to add a Symmetric infill Y axis for models with two symmetric parts.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-zig-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-zig-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AJ6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "zigzag", ipZigZag },</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AK6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("zigzag");</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AL6" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Zig Zag"));</v>
       </c>
+      <c r="AN6" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_zigzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_zigzag.svg?raw=true)</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Zig Zag](#zig-zag)</v>
+      </c>
+      <c r="AP6" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR6" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS6" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT6" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2228,96 +2544,106 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
       <c r="K7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7">
+      <c r="R7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>149.84</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0016879752653129</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>494</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.93105842674337869</v>
-      </c>
-      <c r="Y7" s="2" t="str">
+        <v>0.91604855023600817</v>
+      </c>
+      <c r="Z7" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z7" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA7" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30331983805668017</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0528977578702527</v>
-      </c>
-      <c r="AB7" t="str">
+        <v>1.0666322204222369</v>
+      </c>
+      <c r="AC7" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AD7" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-zag</v>
       </c>
-      <c r="AD7" t="s">
-        <v>202</v>
-      </c>
       <c r="AE7" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosszag</v>
+      </c>
+      <c r="AF7" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
       </c>
-      <c r="AF7" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG7" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Zag](#cross-zag)</v>
       </c>
-      <c r="AG7" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH7" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI7" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2325,35 +2651,67 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Zag
+        <v xml:space="preserve">## Cross Zag
 Similar to [Zig Zag](#zig-zag) but displacing each layer with Infill shift step parameter.
 - **Horizontal Strength (X-Y):** Normal
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH7" t="str">
+      <c r="AJ7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosszag", ipCrossZag },</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AK7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosszag");</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AL7" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Zag"));</v>
       </c>
+      <c r="AN7" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosszag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosszag.svg?raw=true)</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Zag](#cross-zag)</v>
+      </c>
+      <c r="AP7" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AR7" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT7" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2367,96 +2725,106 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>86</v>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
       <c r="K8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8">
+      <c r="R8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8">
         <v>15</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>46</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>182.32</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2188184173142809</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>946</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.7829580398769964</v>
-      </c>
-      <c r="Y8" s="2" t="str">
+        <v>1.7542144302090359</v>
+      </c>
+      <c r="Z8" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-High</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.6690037639314409</v>
-      </c>
-      <c r="AB8" t="str">
+        <v>0.67773054397648413</v>
+      </c>
+      <c r="AC8" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC8" s="2" t="str">
+      <c r="AD8" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>locked-zag</v>
       </c>
-      <c r="AD8" t="s">
-        <v>200</v>
-      </c>
       <c r="AE8" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lockedzag</v>
+      </c>
+      <c r="AF8" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
       </c>
-      <c r="AF8" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG8" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Locked Zag](#locked-zag)</v>
       </c>
-      <c r="AG8" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH8" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI8" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2464,9 +2832,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Locked Zag
+        <v xml:space="preserve">## Locked Zag
 Adaptive version of [Zig Zag](#zig-zag) adding an external skin texture to interlock layers and a low material skeleton.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
@@ -2474,25 +2844,55 @@
 - **Material Usage:** Normal-High
 - **Print Time:** Extra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-locked-zag](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-locked-zag.png?raw=true)
 </v>
       </c>
-      <c r="AH8" t="str">
+      <c r="AJ8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lockedzag", ipLockedZag },</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AK8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lockedzag");</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AL8" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Locked Zag"));</v>
       </c>
+      <c r="AN8" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lockedzag](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lockedzag.svg?raw=true)</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Locked Zag](#locked-zag)</v>
+      </c>
+      <c r="AP8" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR8" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT8" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-High</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2506,96 +2906,106 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9">
+      <c r="R9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>49</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>154.68</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0340436199548759</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>469</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88394008530899715</v>
-      </c>
-      <c r="Y9" s="2" t="str">
+        <v>0.86968981793661504</v>
+      </c>
+      <c r="Z9" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.3298081023454158</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1448450378706885</v>
-      </c>
-      <c r="AB9" t="str">
+        <v>1.1597789012804325</v>
+      </c>
+      <c r="AC9" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC9" s="2" t="str">
+      <c r="AD9" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>line</v>
       </c>
-      <c r="AD9" t="s">
-        <v>181</v>
-      </c>
       <c r="AE9" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_line</v>
+      </c>
+      <c r="AF9" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
       </c>
-      <c r="AF9" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG9" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Line](#line)</v>
       </c>
-      <c r="AG9" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH9" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI9" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2603,9 +3013,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Line
+        <v xml:space="preserve">## Line
 Similar to [rectilinear](#rectilinear), but each line is slightly rotated to improve print speed.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -2613,23 +3025,59 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-line](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-line.png?raw=true)
 </v>
       </c>
-      <c r="AH9" t="str">
+      <c r="AJ9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "line", ipLine },</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AK9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("line");</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AL9" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Line"));</v>
       </c>
+      <c r="AN9" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_line](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_line.svg?raw=true)</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Line](#line)</v>
+      </c>
+      <c r="AP9" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR9" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT9" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
       <c r="E10">
         <v>8</v>
       </c>
@@ -2639,96 +3087,106 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>169</v>
-      </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10">
+      <c r="R10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>148.87</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99520347622628891</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>486</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91598055748437657</v>
-      </c>
-      <c r="Y10" s="2" t="str">
+        <v>0.90121375590020236</v>
+      </c>
+      <c r="Z10" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30631687242798356</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0633012012784473</v>
-      </c>
-      <c r="AB10" t="str">
+        <v>1.0771713709328861</v>
+      </c>
+      <c r="AC10" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC10" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD10" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>grid</v>
       </c>
-      <c r="AD10" t="s">
-        <v>179</v>
-      </c>
       <c r="AE10" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_grid</v>
+      </c>
+      <c r="AF10" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
       </c>
-      <c r="AF10" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG10" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Grid](#grid)</v>
       </c>
-      <c r="AG10" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH10" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI10" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2736,41 +3194,70 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Grid
+        <v xml:space="preserve">## Grid
 Two-layer pattern of perpendicular lines, forming a grid. Overlapping points may cause noise or artifacts.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-grid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-grid.png?raw=true)
 </v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AJ10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "grid", ipGrid },</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AK10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("grid");</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AL10" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Grid"));</v>
       </c>
+      <c r="AN10" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_grid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_grid.svg?raw=true)</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Grid](#grid)</v>
+      </c>
+      <c r="AP10" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR10" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT10" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -2781,96 +3268,106 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11">
+      <c r="R11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>50</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>147.55000000000001</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9863792094927718</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y11" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z11" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31393617021276599</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0897496578170667</v>
-      </c>
-      <c r="AB11" t="str">
+        <v>1.1039648327991096</v>
+      </c>
+      <c r="AC11" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC11" s="2" t="str">
+      <c r="AD11" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>triangles</v>
       </c>
-      <c r="AD11" t="s">
-        <v>183</v>
-      </c>
       <c r="AE11" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_triangles</v>
+      </c>
+      <c r="AF11" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
       </c>
-      <c r="AF11" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG11" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Triangles](#triangles)</v>
       </c>
-      <c r="AG11" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH11" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI11" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -2878,9 +3375,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Triangles
+        <v xml:space="preserve">## Triangles
 Triangle-based grid, offering strong X-Y strength but with triple overlaps at intersections.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal
@@ -2888,31 +3387,58 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-triangles.png?raw=true)
 </v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AJ11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "triangles", ipTriangles },</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AK11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("triangles");</v>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AL11" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Triangles"));</v>
       </c>
+      <c r="AN11" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_triangles](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_triangles.svg?raw=true)</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Triangles](#triangles)</v>
+      </c>
+      <c r="AP11" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR11" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT11" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
+    <row r="12" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2923,96 +3449,106 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>7</v>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12">
+      <c r="R12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>43</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>148.53</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99293055903735272</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>463</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87263168336474561</v>
-      </c>
-      <c r="Y12" s="2" t="str">
+        <v>0.85856372218476062</v>
+      </c>
+      <c r="Z12" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32079913606911448</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1135727002160909</v>
-      </c>
-      <c r="AB12" t="str">
+        <v>1.1280986334662162</v>
+      </c>
+      <c r="AC12" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC12" s="2" t="str">
+      <c r="AD12" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tri-hexagon</v>
       </c>
-      <c r="AD12" t="s">
-        <v>184</v>
-      </c>
       <c r="AE12" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tri-hexagon</v>
+      </c>
+      <c r="AF12" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
       </c>
-      <c r="AF12" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG12" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Tri-hexagon](#tri-hexagon)</v>
       </c>
-      <c r="AG12" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH12" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI12" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3020,9 +3556,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Tri-hexagon
+        <v xml:space="preserve">## Tri-hexagon
 Similar to the [triangles](#triangles) pattern but offset to prevent triple overlaps at intersections. This design combines triangles and hexagons, providing excellent X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** Normal-High
@@ -3030,32 +3568,53 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tri-hexagon.png?raw=true)
 </v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AJ12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tri-hexagon", ipStars },</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AK12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tri-hexagon");</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AL12" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Tri-hexagon"));</v>
       </c>
+      <c r="AN12" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tri-hexagon](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tri-hexagon.svg?raw=true)</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Tri-hexagon](#tri-hexagon)</v>
+      </c>
+      <c r="AP12" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR12" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT12" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
+    <row r="13" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>11</v>
       </c>
@@ -3065,96 +3624,106 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>5</v>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13">
+      <c r="R13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>50</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>148.54</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="W13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>470</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.88582481896637244</v>
-      </c>
-      <c r="Y13" s="2" t="str">
+        <v>0.87154416722859074</v>
+      </c>
+      <c r="Z13" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31604255319148933</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0970614311904239</v>
-      </c>
-      <c r="AB13" t="str">
+        <v>1.111371984167941</v>
+      </c>
+      <c r="AC13" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC13" s="2" t="str">
+      <c r="AD13" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cubic</v>
       </c>
-      <c r="AD13" t="s">
-        <v>182</v>
-      </c>
       <c r="AE13" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_cubic</v>
+      </c>
+      <c r="AF13" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
       </c>
-      <c r="AF13" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG13" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cubic](#cubic)</v>
       </c>
-      <c r="AG13" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH13" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI13" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3162,9 +3731,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cubic
+        <v xml:space="preserve">## Cubic
 3D cube pattern with corners facing down, distributing force in all directions. Triangles in the horizontal plane provide good X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3172,32 +3743,53 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AJ13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "cubic", ipCubic },</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AK13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("cubic");</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AL13" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cubic"));</v>
       </c>
+      <c r="AN13" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_cubic.svg?raw=true)</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cubic](#cubic)</v>
+      </c>
+      <c r="AP13" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR13" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS13" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT13" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>12</v>
       </c>
@@ -3207,96 +3799,106 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14">
+      <c r="R14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>29</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>97.57</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.65226038271914422</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="W14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>329</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.62007737327646073</v>
-      </c>
-      <c r="Y14" s="2" t="str">
+        <v>0.61008091706001355</v>
+      </c>
+      <c r="Z14" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29656534954407293</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0294512670108069</v>
-      </c>
-      <c r="AB14" t="str">
+        <v>1.0428798831990038</v>
+      </c>
+      <c r="AC14" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC14" s="2" t="str">
+      <c r="AD14" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>adaptive-cubic</v>
       </c>
-      <c r="AD14" t="s">
-        <v>188</v>
-      </c>
       <c r="AE14" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_adaptivecubic</v>
+      </c>
+      <c r="AF14" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
       </c>
-      <c r="AF14" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG14" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Adaptive Cubic](#adaptive-cubic)</v>
       </c>
-      <c r="AG14" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH14" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI14" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3304,9 +3906,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Adaptive Cubic
+        <v xml:space="preserve">## Adaptive Cubic
 [Cubic](#cubic) pattern with adaptive density: denser near walls, sparser in the center. Saves material and time while maintaining strength, ideal for large prints.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -3314,32 +3918,53 @@
 - **Material Usage:** Low
 - **Print Time:** Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-adaptive-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-adaptive-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH14" t="str">
+      <c r="AJ14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "adaptivecubic", ipAdaptiveCubic },</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AK14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("adaptivecubic");</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AL14" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Adaptive Cubic"));</v>
       </c>
+      <c r="AN14" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_adaptivecubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_adaptivecubic.svg?raw=true)</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Adaptive Cubic](#adaptive-cubic)</v>
+      </c>
+      <c r="AP14" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR14" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS14" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Low</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>13</v>
       </c>
@@ -3349,96 +3974,106 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>43</v>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15">
+      <c r="R15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>148.55000000000001</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99306426004846671</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="W15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>481</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90655688919750022</v>
-      </c>
-      <c r="Y15" s="2" t="str">
+        <v>0.89194200944032376</v>
+      </c>
+      <c r="Z15" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30883575883575887</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0720448755071696</v>
-      </c>
-      <c r="AB15" t="str">
+        <v>1.0860291015031323</v>
+      </c>
+      <c r="AC15" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC15" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD15" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>quarter-cubic</v>
       </c>
-      <c r="AD15" t="s">
-        <v>198</v>
-      </c>
       <c r="AE15" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_quartercubic</v>
+      </c>
+      <c r="AF15" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
       </c>
-      <c r="AF15" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG15" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Quarter Cubic](#quarter-cubic)</v>
       </c>
-      <c r="AG15" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH15" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI15" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3446,41 +4081,73 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Quarter Cubic
+        <v xml:space="preserve">## Quarter Cubic
 [Cubic](#cubic) pattern with extra internal divisions, improving X-Y strength.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-quarter-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-quarter-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH15" t="str">
+      <c r="AJ15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "quartercubic", ipQuarterCubic },</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AK15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("quartercubic");</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AL15" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Quarter Cubic"));</v>
       </c>
+      <c r="AN15" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_quartercubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_quartercubic.svg?raw=true)</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Quarter Cubic](#quarter-cubic)</v>
+      </c>
+      <c r="AP15" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR15" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS15" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT15" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.075</v>
+    <row r="16" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3491,96 +4158,106 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16">
+      <c r="R16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>50</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>49.39</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.33017464694576754</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>170</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.32040472175379425</v>
-      </c>
-      <c r="Y16" s="2" t="str">
+        <v>0.31523937963587323</v>
+      </c>
+      <c r="Z16" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Extra-Low</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.29052941176470587</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0084990424703455</v>
-      </c>
-      <c r="AB16" t="str">
+        <v>1.0216543486042844</v>
+      </c>
+      <c r="AC16" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="AC16" s="2" t="str">
+      <c r="AD16" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>support-cubic</v>
       </c>
-      <c r="AD16" t="s">
-        <v>195</v>
-      </c>
       <c r="AE16" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_supportcubic</v>
+      </c>
+      <c r="AF16" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
       </c>
-      <c r="AF16" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG16" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Support Cubic](#support-cubic)</v>
       </c>
-      <c r="AG16" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH16" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI16" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3588,9 +4265,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Support Cubic
+        <v xml:space="preserve">## Support Cubic
 Support |Cubic is a variation of the [Cubic](#cubic) infill pattern that is specifically designed for support top layers. Will use more material than Lightning infill but will provide better strength. Nevertheless, it is still a low-density infill pattern.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3598,31 +4277,61 @@
 - **Material Usage:** Extra-Low
 - **Print Time:** Extra-Low
 - **Material/Time (Higher better):** Normal
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-support-cubic](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-support-cubic.png?raw=true)
 </v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AJ16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "supportcubic", ipSupportCubic },</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AK16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("supportcubic");</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AL16" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Support Cubic"));</v>
       </c>
+      <c r="AN16" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_supportcubic](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_supportcubic.svg?raw=true)</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Support Cubic](#support-cubic)</v>
+      </c>
+      <c r="AP16" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR16" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS16" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AT16" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Extra-Low</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17" s="7">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3633,96 +4342,106 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17">
+      <c r="R17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>12.33</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>8.2426673351717217E-2</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>76</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.1432397579605198</v>
-      </c>
-      <c r="Y17" s="2" t="str">
+        <v>0.1409305461901551</v>
+      </c>
+      <c r="Z17" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16223684210526315</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.56316398027570336</v>
-      </c>
-      <c r="AB17" t="str">
+        <v>0.57051013952042295</v>
+      </c>
+      <c r="AC17" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC17" s="2" t="str">
+      <c r="AD17" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>lightning</v>
       </c>
-      <c r="AD17" t="s">
-        <v>196</v>
-      </c>
       <c r="AE17" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lightning</v>
+      </c>
+      <c r="AF17" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
       </c>
-      <c r="AF17" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG17" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Lightning](#lightning)</v>
       </c>
-      <c r="AG17" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH17" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI17" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3730,9 +4449,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Lightning
+        <v xml:space="preserve">## Lightning
 Ultra-fast, ultra-low material infill. Designed for speed and efficiency, ideal for quick prints or non-structural prototypes.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Low
@@ -3740,31 +4461,61 @@
 - **Material Usage:** Ultra-Low
 - **Print Time:** Ultra-Low
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lightning.png?raw=true)
 </v>
       </c>
-      <c r="AH17" t="str">
+      <c r="AJ17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "lightning", ipLightning },</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AK17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("lightning");</v>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AL17" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Lightning"));</v>
       </c>
+      <c r="AN17" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lightning](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lightning.svg?raw=true)</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lightning](#lightning)</v>
+      </c>
+      <c r="AP17" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR17" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS17" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT17" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -3775,96 +4526,106 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18">
         <v>6</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18">
+      <c r="R18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18">
         <v>17</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>36</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>190.54</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.2737695328820924</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>1056</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.9902787421882751</v>
-      </c>
-      <c r="Y18" s="2" t="str">
+        <v>1.9581928523263656</v>
+      </c>
+      <c r="Z18" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-High</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18043560606060605</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.62633636585837626</v>
-      </c>
-      <c r="AB18" t="str">
+        <v>0.63450657355188322</v>
+      </c>
+      <c r="AC18" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC18" s="2" t="str">
+      <c r="AD18" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>honeycomb</v>
       </c>
-      <c r="AD18" t="s">
-        <v>187</v>
-      </c>
       <c r="AE18" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_honeycomb</v>
+      </c>
+      <c r="AF18" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
       </c>
-      <c r="AF18" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG18" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Honeycomb](#honeycomb)</v>
       </c>
-      <c r="AG18" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH18" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI18" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -3872,9 +4633,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Honeycomb
+        <v xml:space="preserve">## Honeycomb
 Hexagonal pattern balancing strength and material use. Double walls in each hexagon increase material consumption.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -3882,31 +4645,61 @@
 - **Material Usage:** High
 - **Print Time:** Ultra-High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH18" t="str">
+      <c r="AJ18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "honeycomb", ipHoneycomb },</v>
       </c>
-      <c r="AI18" t="str">
+      <c r="AK18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("honeycomb");</v>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AL18" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Honeycomb"));</v>
       </c>
+      <c r="AN18" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO18" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Honeycomb](#honeycomb)</v>
+      </c>
+      <c r="AP18" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR18" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS18" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT18" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-High</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7">
-        <v>1.85</v>
+        <v>0.75</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -3917,96 +4710,106 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19">
+      <c r="R19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>28</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>123.92</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.82841146486170303</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="W19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>748</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.4097807757166949</v>
-      </c>
-      <c r="Y19" s="2" t="str">
+        <v>1.3870532703978422</v>
+      </c>
+      <c r="Z19" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.16566844919786097</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.57507593248046729</v>
-      </c>
-      <c r="AB19" t="str">
+        <v>0.58257747648145064</v>
+      </c>
+      <c r="AC19" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC19" s="2" t="str">
+      <c r="AD19" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>3d-honeycomb</v>
       </c>
-      <c r="AD19" t="s">
-        <v>191</v>
-      </c>
       <c r="AE19" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_3dhoneycomb</v>
+      </c>
+      <c r="AF19" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
       </c>
-      <c r="AF19" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG19" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[3D Honeycomb](#3d-honeycomb)</v>
       </c>
-      <c r="AG19" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH19" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI19" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4014,9 +4817,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 3D Honeycomb
+        <v xml:space="preserve">## 3D Honeycomb
 This infill tries to generate a printable honeycomb structure by printing squares and octagons maintaining a vertical angle high enough to maintain contact with the previous layer.
 - **Horizontal Strength (X-Y):** Normal-High
 - **Vertical Strength (Z):** Normal-High
@@ -4024,31 +4829,61 @@
 - **Material Usage:** Normal-Low
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-3d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-3d-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH19" t="str">
+      <c r="AJ19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "3dhoneycomb", ip3DHoneycomb },</v>
       </c>
-      <c r="AI19" t="str">
+      <c r="AK19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("3dhoneycomb");</v>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AL19" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("3D Honeycomb"));</v>
       </c>
+      <c r="AN19" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_3dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_3dhoneycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO19" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[3D Honeycomb](#3d-honeycomb)</v>
+      </c>
+      <c r="AP19" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR19" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS19" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT19" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7">
-        <v>9.99</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -4059,96 +4894,106 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>70</v>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20">
+      <c r="R20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>147.52000000000001</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.98617865797610094</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="W20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>482</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.90844162285487551</v>
-      </c>
-      <c r="Y20" s="2" t="str">
+        <v>0.89379635873229946</v>
+      </c>
+      <c r="Z20" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30605809128630707</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.062402908289779</v>
-      </c>
-      <c r="AB20" t="str">
+        <v>1.0762613602144371</v>
+      </c>
+      <c r="AC20" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC20" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD20" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-honeycomb</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>190</v>
+        <v>lateral-honeycomb</v>
       </c>
       <c r="AE20" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lateral-honeycomb</v>
+      </c>
+      <c r="AF20" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dhoneycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dhoneycomb.svg?raw=true)</v>
-      </c>
-      <c r="AF20" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[2D Honeycomb](#2d-honeycomb)</v>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
       </c>
       <c r="AG20" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
+      </c>
+      <c r="AH20" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI20" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4156,33 +5001,74 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Honeycomb
-Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [2D Lattice](#2d-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
+        <v xml:space="preserve">## Lateral Honeycomb
+Vertical Honeycomb pattern. Acceptable torsional stiffness. Developed for low densities structures like wings. Improve over [Lateral Lattice](#lateral-lattice) offers same performance with lower densities.This infill includes a Overhang angle parameter to improve the point of contact between layers and reduce the risk of delamination.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Normal-Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
-![infill-top-2d-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-honeycomb.png?raw=true)
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-honeycomb.png?raw=true)
 </v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AJ20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dhoneycomb", ip2DHoneycomb },</v>
-      </c>
-      <c r="AI20" t="str">
+        <v xml:space="preserve"> { "lateral-honeycomb", ipLateralHoneycomb },</v>
+      </c>
+      <c r="AK20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dhoneycomb");</v>
-      </c>
-      <c r="AJ20" t="str">
+        <v>def-&gt;enum_values.push_back("lateral-honeycomb");</v>
+      </c>
+      <c r="AL20" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Honeycomb"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Honeycomb"));</v>
+      </c>
+      <c r="AN20" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-honeycomb](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-honeycomb.svg?raw=true)</v>
+      </c>
+      <c r="AO20" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Honeycomb](#lateral-honeycomb)</v>
+      </c>
+      <c r="AP20" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR20" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AS20" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT20" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.075</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
       <c r="E21">
         <v>19</v>
       </c>
@@ -4192,96 +5078,106 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-Low</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21">
+      <c r="R21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>148.54</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.9929974095429096</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>484</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.91221109016962609</v>
-      </c>
-      <c r="Y21" s="2" t="str">
+        <v>0.89750505731625085</v>
+      </c>
+      <c r="Z21" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.30690082644628097</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AB21" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.0653282492964862</v>
-      </c>
-      <c r="AB21" t="str">
+        <v>1.079224860658951</v>
+      </c>
+      <c r="AC21" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="AC21" s="2" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="AD21" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>2d-lattice</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>180</v>
+        <v>lateral-lattice</v>
       </c>
       <c r="AE21" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_lateral-lattice</v>
+      </c>
+      <c r="AF21" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_2dlattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_2dlattice.svg?raw=true)</v>
-      </c>
-      <c r="AF21" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[2D Lattice](#2d-lattice)</v>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
       </c>
       <c r="AG21" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
+      </c>
+      <c r="AH21" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI21" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4289,33 +5185,74 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### 2D Lattice
+        <v xml:space="preserve">## Lateral Lattice
 Low-strength pattern with good flexibility. You can adjust **Angle 1** and **Angle 2** to optimize the infill for your specific model. Each angle adjusts the plane of each layer generated by the pattern. 0° is vertical.
 - **Horizontal Strength (X-Y):** Normal-Low
 - **Vertical Strength (Z):** Low
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
-- **Material/Time (Higher better):** Normal
-![infill-top-2d-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-2d-lattice.png?raw=true)
+- **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-lateral-lattice.png?raw=true)
 </v>
       </c>
-      <c r="AH21" t="str">
+      <c r="AJ21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
-        <v xml:space="preserve"> { "2dlattice", ip2DLattice },</v>
-      </c>
-      <c r="AI21" t="str">
+        <v xml:space="preserve"> { "lateral-lattice", ipLateralLattice },</v>
+      </c>
+      <c r="AK21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
-        <v>def-&gt;enum_values.push_back("2dlattice");</v>
-      </c>
-      <c r="AJ21" t="str">
+        <v>def-&gt;enum_values.push_back("lateral-lattice");</v>
+      </c>
+      <c r="AL21" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
-        <v>def-&gt;enum_labels.push_back(L("2D Lattice"));</v>
+        <v>def-&gt;enum_labels.push_back(L("Lateral Lattice"));</v>
+      </c>
+      <c r="AN21" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_lateral-lattice](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_lateral-lattice.svg?raw=true)</v>
+      </c>
+      <c r="AO21" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Lateral Lattice](#lateral-lattice)</v>
+      </c>
+      <c r="AP21" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AR21" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AS21" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT21" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
       <c r="E22">
         <v>20</v>
       </c>
@@ -4325,96 +5262,106 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>19</v>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22">
+        <v>119</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22">
         <v>5</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal-High</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22">
+      <c r="R22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22">
         <v>10</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>40</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>144.69999999999999</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.96732681540904142</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>640</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2062295407201666</v>
-      </c>
-      <c r="Y22" s="2" t="str">
+        <v>1.1867835468644641</v>
+      </c>
+      <c r="Z22" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.22609374999999998</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AB22" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.78482701286090395</v>
-      </c>
-      <c r="AB22" t="str">
+        <v>0.79506464242878072</v>
+      </c>
+      <c r="AC22" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC22" s="2" t="str">
+      <c r="AD22" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>cross-hatch</v>
       </c>
-      <c r="AD22" t="s">
-        <v>197</v>
-      </c>
       <c r="AE22" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_crosshatch</v>
+      </c>
+      <c r="AF22" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
       </c>
-      <c r="AF22" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG22" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Cross Hatch](#cross-hatch)</v>
       </c>
-      <c r="AG22" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH22" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI22" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4422,9 +5369,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Cross Hatch
+        <v xml:space="preserve">## Cross Hatch
 Similar to [Gyroid](#gyroid) but with linear patterns, creating weak points at internal corners.
 Easier to slice but consider using [TPMS-D](#tpms-d) or [Gyroid](#gyroid) for better strength and flexibility.
 - **Horizontal Strength (X-Y):** Normal-High
@@ -4433,23 +5382,62 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-cross-hatch](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-cross-hatch.png?raw=true)
 </v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AJ22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "crosshatch", ipCrossHatch },</v>
       </c>
-      <c r="AI22" t="str">
+      <c r="AK22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("crosshatch");</v>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AL22" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Cross Hatch"));</v>
       </c>
+      <c r="AN22" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_crosshatch](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_crosshatch.svg?raw=true)</v>
+      </c>
+      <c r="AO22" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Cross Hatch](#cross-hatch)</v>
+      </c>
+      <c r="AP22" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR22" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS22" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT22" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
       <c r="E23">
         <v>21</v>
       </c>
@@ -4459,96 +5447,106 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
+      <c r="H23" t="b">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23">
         <v>6</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>High</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23">
+      <c r="R23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S23">
         <v>11</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>29</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>151.01</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0095094844154757</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="W23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>689</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.2985814899315544</v>
-      </c>
-      <c r="Y23" s="2" t="str">
+        <v>1.2776466621712745</v>
+      </c>
+      <c r="Z23" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.21917271407837444</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AB23" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.76080239498326518</v>
-      </c>
-      <c r="AB23" t="str">
+        <v>0.77072663684364651</v>
+      </c>
+      <c r="AC23" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC23" s="2" t="str">
+      <c r="AD23" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>tpms-d</v>
       </c>
-      <c r="AD23" t="s">
-        <v>186</v>
-      </c>
       <c r="AE23" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsd</v>
+      </c>
+      <c r="AF23" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
       </c>
-      <c r="AF23" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG23" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[TPMS-D](#tpms-d)</v>
       </c>
-      <c r="AG23" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH23" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI23" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4556,9 +5554,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### TPMS-D
+        <v xml:space="preserve">## TPMS-D
 Triply Periodic Minimal Surface (Schwarz Diamond). Hybrid between [Cross Hatch](#cross-hatch) and [Gyroid](#gyroid), combining rigidity and smooth transitions. Isotropic and strong in all directions. This geometry is faster to slice than Gyroid, but slower than Cross Hatch.
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4566,23 +5566,62 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-tpms-d](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-d.png?raw=true)
 </v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AJ23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "tpmsd", ipTpmsD },</v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AK23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("tpmsd");</v>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AL23" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("TPMS-D"));</v>
       </c>
+      <c r="AN23" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsd](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsd.svg?raw=true)</v>
+      </c>
+      <c r="AO23" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-D](#tpms-d)</v>
+      </c>
+      <c r="AP23" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ23" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR23" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS23" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
       <c r="E24">
         <v>22</v>
       </c>
@@ -4592,96 +5631,106 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>8</v>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
         <v>171</v>
       </c>
-      <c r="J24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24" t="str">
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24" t="str">
+        <v>Normal-High</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
-        <v>High</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
+        <v>Normal-High</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
         <v>49</v>
       </c>
-      <c r="T24">
-        <v>141.77000000000001</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="U24">
+        <v>149.02000000000001</v>
+      </c>
+      <c r="V24" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
-        <v>0.94773961728085576</v>
-      </c>
-      <c r="V24" s="2" t="str">
+        <v>0.99620623380964324</v>
+      </c>
+      <c r="W24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
-        <v>649</v>
-      </c>
-      <c r="X24" s="2">
+        <v>769</v>
+      </c>
+      <c r="Y24" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.223192143636544</v>
-      </c>
-      <c r="Y24" s="2" t="str">
+        <v>1.4259946055293324</v>
+      </c>
+      <c r="Z24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-High</v>
-      </c>
-      <c r="Z24" s="3">
+        <v>High</v>
+      </c>
+      <c r="AA24" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
-        <v>0.21844375963020032</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0.1937841352405722</v>
+      </c>
+      <c r="AB24" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.75827201481100404</v>
-      </c>
-      <c r="AB24" t="str">
+        <v>0.68144702891351949</v>
+      </c>
+      <c r="AC24" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal-Low</v>
-      </c>
-      <c r="AC24" s="2" t="str">
+        <v>Low</v>
+      </c>
+      <c r="AD24" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
-        <v>gyroid</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>185</v>
+        <v>tpms-fk</v>
       </c>
       <c r="AE24" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_tpmsfk</v>
+      </c>
+      <c r="AF24" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
-        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
-      </c>
-      <c r="AF24" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
-        <v>[Gyroid](#gyroid)</v>
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
       </c>
       <c r="AG24" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AH24" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI24" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4689,9 +5738,195 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Gyroid
+        <v xml:space="preserve">## TPMS-FK
+Triply Periodic Minimal Surface (Fischer–Koch S) pattern. Its smooth, continuous geometry resembles trabecular bone microstructure, offering a balance between rigidity and energy absorption. Compared to [TPMS-D](#tpms-d), it has more complex curvature, which can improve load distribution and shock absorption in functional parts.
+- **Horizontal Strength (X-Y):** Normal-High
+- **Vertical Strength (Z):** Normal-High
+- **Density Calculation:**  % of  total infill volume
+- **Material Usage:** Normal
+- **Print Time:** High
+- **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
+![infill-top-tpms-fk](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-tpms-fk.png?raw=true)
+</v>
+      </c>
+      <c r="AJ24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
+        <v xml:space="preserve"> { "tpmsfk", ipTpmsFK },</v>
+      </c>
+      <c r="AK24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
+        <v>def-&gt;enum_values.push_back("tpmsfk");</v>
+      </c>
+      <c r="AL24" s="5" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
+        <v>def-&gt;enum_labels.push_back(L("TPMS-FK"));</v>
+      </c>
+      <c r="AN24" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_tpmsfk](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_tpmsfk.svg?raw=true)</v>
+      </c>
+      <c r="AO24" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[TPMS-FK](#tpms-fk)</v>
+      </c>
+      <c r="AP24" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ24" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AR24" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AS24" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
+        <v>High</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>49</v>
+      </c>
+      <c r="U25">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="V25" s="2">
+        <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
+        <v>0.94773961728085576</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal</v>
+      </c>
+      <c r="X25">
+        <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
+        <v>649</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
+        <v>1.2034726904922455</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
+        <v>0.21844375963020032</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
+        <v>0.76816324927683211</v>
+      </c>
+      <c r="AC25" t="str">
+        <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AD25" s="2" t="str">
+        <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
+        <v>gyroid</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_gyroid</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AG25" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AH25" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AI25" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
+"&amp;Infill[[#This Row],[Desc]]&amp;"
+- **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
+- **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
+- **Density Calculation:** "&amp;Infill[[#This Row],[DensityCalc]]&amp;"
+- **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
+- **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
+- **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
+","")</f>
+        <v xml:space="preserve">## Gyroid
 Mathematical, isotropic surface providing equal strength in all directions. Excellent for strong, flexible prints and resin filling due to its interconnected structure. This pattern may require more time to slice because of all the points needed to generate each curve. If your model has complex geometry, consider using a simpler infill pattern like [TPMS-D](#tpms-d) or [Cross Hatch](#cross-hatch).
 - **Horizontal Strength (X-Y):** High
 - **Vertical Strength (Z):** High
@@ -4699,122 +5934,164 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-High
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**
 ![infill-top-gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-gyroid.png?raw=true)
 </v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AJ25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "gyroid", ipGyroid },</v>
       </c>
-      <c r="AI24" t="str">
+      <c r="AK25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("gyroid");</v>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AL25" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Gyroid"));</v>
       </c>
+      <c r="AN25" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_gyroid](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_gyroid.svg?raw=true)</v>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Gyroid](#gyroid)</v>
+      </c>
+      <c r="AP25" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**</v>
+      </c>
+      <c r="AQ25" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AR25" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>High</v>
+      </c>
+      <c r="AS25" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-High</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25" t="b">
+    <row r="26" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="J26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="5">
         <v>2</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R25">
+      <c r="R26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26">
         <v>8</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>13</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>158.77000000000001</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V26" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>1.0613854767276678</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="W26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>493</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y26" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.92917369308600339</v>
-      </c>
-      <c r="Y25" s="2" t="str">
+        <v>0.91419420094403236</v>
+      </c>
+      <c r="Z26" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
-        <v>Normal</v>
-      </c>
-      <c r="Z25" s="3">
+        <v>Normal-Low</v>
+      </c>
+      <c r="AA26" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.32204868154158217</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB26" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1179101798703965</v>
-      </c>
-      <c r="AB25" t="str">
+        <v>1.1324926931174273</v>
+      </c>
+      <c r="AC26" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC25" s="2" t="str">
+      <c r="AD26" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>concentric</v>
       </c>
-      <c r="AD25" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE25" t="str">
+      <c r="AE26" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_concentric</v>
+      </c>
+      <c r="AF26" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
       </c>
-      <c r="AF25" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG26" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Concentric](#concentric)</v>
       </c>
-      <c r="AG25" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH26" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AI26" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4822,132 +6099,179 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Concentric
+        <v xml:space="preserve">## Concentric
 Fills the area with progressively smaller versions of the outer contour, creating a concentric pattern. Ideal for 100% infill or flexible prints.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
 - **Material Usage:** Normal
-- **Print Time:** Normal
+- **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**
 ![infill-top-concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-concentric.png?raw=true)
 </v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AJ26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "concentric", ipConcentric },</v>
       </c>
-      <c r="AI25" t="str">
+      <c r="AK26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("concentric");</v>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AL26" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Concentric"));</v>
       </c>
+      <c r="AN26" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_concentric](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_concentric.svg?raw=true)</v>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Concentric](#concentric)</v>
+      </c>
+      <c r="AP26" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
+  - **[Ironing](quality_settings_ironing)**</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR26" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS26" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT26" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" ht="180" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" t="b">
+    <row r="27" spans="1:46" ht="255" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>4</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26">
+      <c r="R27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S27">
         <v>13</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>24</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>148.63</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V27" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99359906409292209</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="W27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>804</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y27" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.5153258605297093</v>
-      </c>
-      <c r="Y26" s="2" t="str">
+        <v>1.4908968307484829</v>
+      </c>
+      <c r="Z27" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>High</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA27" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.18486318407960198</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AB27" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.64170557810266515</v>
-      </c>
-      <c r="AB26" t="str">
+        <v>0.6500762685766176</v>
+      </c>
+      <c r="AC27" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Low</v>
       </c>
-      <c r="AC26" s="2" t="str">
+      <c r="AD27" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>hilbert-curve</v>
       </c>
-      <c r="AD26" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE26" t="str">
+      <c r="AE27" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_hilbertcurve</v>
+      </c>
+      <c r="AF27" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
       </c>
-      <c r="AF26" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG27" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Hilbert Curve](#hilbert-curve)</v>
       </c>
-      <c r="AG26" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH27" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI27" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -4955,9 +6279,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Hilbert Curve
+        <v xml:space="preserve">## Hilbert Curve
 Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
 Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
 - **Horizontal Strength (X-Y):** Low
@@ -4966,122 +6292,165 @@
 - **Material Usage:** Normal
 - **Print Time:** High
 - **Material/Time (Higher better):** Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-hilbert-curve](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-hilbert-curve.png?raw=true)
 </v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AJ27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "hilbertcurve", ipHilbertCurve },</v>
       </c>
-      <c r="AI26" t="str">
+      <c r="AK27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("hilbertcurve");</v>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AL27" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Hilbert Curve"));</v>
       </c>
+      <c r="AN27" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_hilbertcurve](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_hilbertcurve.svg?raw=true)</v>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Hilbert Curve](#hilbert-curve)</v>
+      </c>
+      <c r="AP27" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ27" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR27" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS27" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AT27" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>High</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" ht="120" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27" t="b">
+    <row r="28" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>4</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27">
+      <c r="R28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28">
         <v>7</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>46</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>148.21</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V28" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99079134285953041</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="W28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>466</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y28" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>0.87828588433687138</v>
-      </c>
-      <c r="Y27" s="2" t="str">
+        <v>0.86412677006068783</v>
+      </c>
+      <c r="Z28" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA28" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.31804721030042921</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AB28" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>1.1040200890508012</v>
-      </c>
-      <c r="AB27" t="str">
+        <v>1.1184214138293607</v>
+      </c>
+      <c r="AC28" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-High</v>
       </c>
-      <c r="AC27" s="2" t="str">
+      <c r="AD28" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>archimedean-chords</v>
       </c>
-      <c r="AD27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE27" t="str">
+      <c r="AE28" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_archimedeanchords</v>
+      </c>
+      <c r="AF28" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
       </c>
-      <c r="AF27" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG28" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Archimedean Chords](#archimedean-chords)</v>
       </c>
-      <c r="AG27" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH28" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI28" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5089,9 +6458,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Archimedean Chords
+        <v xml:space="preserve">## Archimedean Chords
 Spiral pattern that fills the area with concentric arcs, creating a smooth and continuous infill. Can be filled with resin thanks to its interconnected hollow structure, which allows the resin to flow through it and cure properly.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5099,122 +6470,165 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal-Low
 - **Material/Time (Higher better):** Normal-High
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-archimedean-chords](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-archimedean-chords.png?raw=true)
 </v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AJ28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "archimedeanchords", ipArchimedeanChords },</v>
       </c>
-      <c r="AI27" t="str">
+      <c r="AK28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("archimedeanchords");</v>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AL28" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Archimedean Chords"));</v>
       </c>
+      <c r="AN28" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_archimedeanchords](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_archimedeanchords.svg?raw=true)</v>
+      </c>
+      <c r="AO28" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Archimedean Chords](#archimedean-chords)</v>
+      </c>
+      <c r="AP28" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR28" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS28" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-High</v>
+      </c>
+      <c r="AT28" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal-Low</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>26</v>
-      </c>
-      <c r="F28" t="b">
+    <row r="29" spans="1:46" ht="240" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>Low</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>Normal</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R28">
+      <c r="R29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29">
         <v>9</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>30</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>148.72</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V29" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0.99420071864293469</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="W29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>570</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y29" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
-        <v>1.0742981847038984</v>
-      </c>
-      <c r="Y28" s="2" t="str">
+        <v>1.0569790964261632</v>
+      </c>
+      <c r="Z29" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AA29" s="3">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>0.26091228070175437</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB29" s="2">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
-        <v>0.90569069636769506</v>
-      </c>
-      <c r="AB28" t="str">
+        <v>0.91750492510924353</v>
+      </c>
+      <c r="AC29" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Normal-Low</v>
       </c>
-      <c r="AC28" s="2" t="str">
+      <c r="AD29" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v>octagram-spiral</v>
       </c>
-      <c r="AD28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE28" t="str">
+      <c r="AE29" t="str">
+        <f>"param_"&amp;Infill[[#This Row],[infill]]</f>
+        <v>param_octagramspiral</v>
+      </c>
+      <c r="AF29" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
       </c>
-      <c r="AF28" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG29" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[Octagram Spiral](#octagram-spiral)</v>
       </c>
-      <c r="AG28" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH29" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AI29" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5222,9 +6636,11 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
-        <v xml:space="preserve">### Octagram Spiral
+        <v xml:space="preserve">## Octagram Spiral
 Esthetic pattern with low strength and high print time.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
@@ -5232,91 +6648,132 @@
 - **Material Usage:** Normal
 - **Print Time:** Normal
 - **Material/Time (Higher better):** Normal-Low
+- **Applies to:**
+  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**
 ![infill-top-octagram-spiral](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-octagram-spiral.png?raw=true)
 </v>
       </c>
-      <c r="AH28" t="str">
+      <c r="AJ29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v xml:space="preserve"> { "octagramspiral", ipOctagramSpiral },</v>
       </c>
-      <c r="AI28" t="str">
+      <c r="AK29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v>def-&gt;enum_values.push_back("octagramspiral");</v>
       </c>
-      <c r="AJ28" t="str">
+      <c r="AL29" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v>def-&gt;enum_labels.push_back(L("Octagram Spiral"));</v>
       </c>
+      <c r="AN29" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![param_octagramspiral](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/param_octagramspiral.svg?raw=true)</v>
+      </c>
+      <c r="AO29" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[Octagram Spiral](#octagram-spiral)</v>
+      </c>
+      <c r="AP29" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v xml:space="preserve">  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**
+  - **[Surface](strength_settings_top_bottom_shells)**</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>Low</v>
+      </c>
+      <c r="AR29" t="str">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>Normal</v>
+      </c>
+      <c r="AS29" s="1" t="str">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>Normal-Low</v>
+      </c>
+      <c r="AT29" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Normal</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29" t="b">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="N29" t="e">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="O30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" t="e">
+      <c r="Q30" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="U29" s="2">
+      <c r="R30" s="2"/>
+      <c r="V30" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="W30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y30" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="2" t="str">
+      <c r="Z30" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z29" s="3" t="e">
+      <c r="AA30" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="2" t="e">
+      <c r="AB30" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="2" t="e">
+      <c r="AC30" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="2" t="str">
+      <c r="AD30" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE29" t="str">
+      <c r="AF30" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF29" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG30" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG29" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH30" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI30" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5324,92 +6781,131 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH29" t="str">
+      <c r="AJ30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI29" t="str">
+      <c r="AK30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ29" t="str">
+      <c r="AL30" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN30" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP30" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ30" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR30" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS30" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>101</v>
-      </c>
-      <c r="F30" t="b">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G31" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="N30" t="e">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="O31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" t="e">
+      <c r="Q31" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="2"/>
-      <c r="U30" s="2">
+      <c r="R31" s="2"/>
+      <c r="V31" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="W31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W30">
+      <c r="X31">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y31" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="2" t="str">
+      <c r="Z31" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z30" s="3" t="e">
+      <c r="AA31" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="2" t="e">
+      <c r="AB31" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="2" t="e">
+      <c r="AC31" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="2" t="str">
+      <c r="AD31" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE30" t="str">
+      <c r="AF31" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF30" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG31" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG30" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH31" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI31" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5417,92 +6913,131 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH30" t="str">
+      <c r="AJ31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI30" t="str">
+      <c r="AK31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ30" t="str">
+      <c r="AL31" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
       </c>
+      <c r="AN31" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP31" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ31" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR31" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS31" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>102</v>
-      </c>
-      <c r="F31" t="b">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G32" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="N31" t="e">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="O32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[XY-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" t="e">
+      <c r="Q32" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[Z-N]],Rating[N],Rating[Name])</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="U31" s="2">
+      <c r="R32" s="2"/>
+      <c r="V32" s="2">
         <f>Infill[[#This Row],[g]]/(997.25*0.15)</f>
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="W32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[% Effective]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="W31">
+      <c r="X32">
         <f>Infill[[#This Row],[hs]]*60+Infill[[#This Row],[min]]</f>
         <v>0</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y32" s="2">
         <f>Infill[[#This Row],[Total Time]]/AVERAGEIFS(Infill[Total Time],Infill[Material Usage],"Normal")</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="2" t="str">
+      <c r="Z32" s="2" t="str">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>Ultra-Low</v>
       </c>
-      <c r="Z31" s="3" t="e">
+      <c r="AA32" s="3" t="e">
         <f>Infill[[#This Row],[g]]/Infill[[#This Row],[Total Time]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="2" t="e">
+      <c r="AB32" s="2" t="e">
         <f>Infill[[#This Row],[g/t]]/AVERAGEIFS(Infill[g/t],Infill[Material Usage],"Normal")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="2" t="e">
+      <c r="AC32" s="2" t="e">
         <f>_xlfn.XLOOKUP(Infill[[#This Row],[g/t prom]],Rating[Max %],Rating[Name],,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="2" t="str">
+      <c r="AD32" s="2" t="str">
         <f>SUBSTITUTE(LOWER(Infill[[#This Row],[name]])," ","-")</f>
         <v/>
       </c>
-      <c r="AE31" t="str">
+      <c r="AF32" t="str">
         <f>"!["&amp;Infill[[#This Row],[SVG]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/"&amp;Infill[[#This Row],[SVG]]&amp;".svg?raw=true)"</f>
         <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
       </c>
-      <c r="AF31" s="2" t="str">
-        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[image]]&amp;")"</f>
+      <c r="AG32" s="2" t="str">
+        <f>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</f>
         <v>[](#)</v>
       </c>
-      <c r="AG31" s="2" t="str">
-        <f>IF(Infill[[#This Row],[Is Infill]],"### "&amp;Infill[[#This Row],[name]]&amp;"
+      <c r="AH32" s="10" t="str">
+        <f>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
+  - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
+  - **[Ironing](quality_settings_ironing)**",)</f>
+        <v/>
+      </c>
+      <c r="AI32" s="8" t="str">
+        <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
 - **Vertical Strength (Z):** "&amp;Infill[[#This Row],[Z Strength]]&amp;"
@@ -5510,27 +7045,57 @@
 - **Material Usage:** "&amp;Infill[[#This Row],[Material Usage]]&amp;"
 - **Print Time:** "&amp;Infill[[#This Row],[Print Time]]&amp;"
 - **Material/Time (Higher better):** "&amp;Infill[[#This Row],[Material/Time]]&amp;"
-![infill-top-"&amp;Infill[[#This Row],[image]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[image]]&amp;".png?raw=true)
+- **Applies to:**"&amp;"
+"&amp;Infill[[#This Row],[Applies to]]&amp;"
+![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v/>
       </c>
-      <c r="AH31" t="str">
+      <c r="AJ32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</f>
         <v/>
       </c>
-      <c r="AI31" t="str">
+      <c r="AK32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</f>
         <v/>
       </c>
-      <c r="AJ31" t="str">
+      <c r="AL32" t="str">
         <f>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</f>
         <v/>
+      </c>
+      <c r="AN32" t="str">
+        <f>Infill[[#This Row],[SVG Link]]</f>
+        <v>![](https://github.com/SoftFever/OrcaSlicer/blob/main/resources/images/.svg?raw=true)</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <f>Infill[[#This Row],[Pattern]]</f>
+        <v>[](#)</v>
+      </c>
+      <c r="AP32" t="str">
+        <f>Infill[[#This Row],[Applies to]]</f>
+        <v/>
+      </c>
+      <c r="AQ32" t="e">
+        <f>Infill[[#This Row],[X-Y Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR32" t="e">
+        <f>Infill[[#This Row],[Z Strength]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS32" s="1" t="e">
+        <f>Infill[[#This Row],[Material/Time]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <f>Infill[[#This Row],[Print Time]]</f>
+        <v>Ultra-Low</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="U2:U31">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="V2:V32">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5541,8 +7106,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X31">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="Y2:Y32">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5553,8 +7118,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z31">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="AA2:AA32">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5565,8 +7130,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA31">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="AB2:AB32">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5579,10 +7144,11 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/print_settings/strength/infill_desc_calculator.xlsx
+++ b/doc/print_settings/strength/infill_desc_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9342C-2BC8-4E65-A1F6-5FE50430102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0746496-878A-4475-889F-BAAA76C0EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -255,13 +255,6 @@
     <t>Ultra-High</t>
   </si>
   <si>
-    <t>Esthetic pattern with low strength and high print time.</t>
-  </si>
-  <si>
-    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
-Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.</t>
-  </si>
-  <si>
     <t>Max %</t>
   </si>
   <si>
@@ -530,9 +523,6 @@